--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D78005-E086-4000-A150-D446C760C110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E092A9E-2872-4152-BD2D-B11C2B57C2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,10 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -2263,7 +2260,7 @@
   <dimension ref="C1:IC25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2277,95 +2274,93 @@
   <sheetData>
     <row r="1" spans="3:237" s="1" customFormat="1" ht="14.25"/>
     <row r="2" spans="3:237" ht="13.5" customHeight="1">
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:237" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="3:237" ht="20.100000000000001" customHeight="1">
@@ -2373,7 +2368,7 @@
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="8">
         <v>10101</v>
@@ -2400,7 +2395,7 @@
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="8">
         <v>10102</v>
@@ -2418,7 +2413,7 @@
         <v>45000</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="12">
         <v>0.05</v>
@@ -2429,7 +2424,7 @@
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8">
         <v>10103</v>
@@ -2447,7 +2442,7 @@
         <v>60000</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="12">
         <v>0.04</v>
@@ -2459,7 +2454,7 @@
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="8">
         <v>10104</v>
@@ -2477,7 +2472,7 @@
         <v>75000</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="12">
         <v>0.04</v>
@@ -2489,7 +2484,7 @@
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
@@ -2507,7 +2502,7 @@
         <v>75000</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="12">
         <v>0.04</v>
@@ -2519,7 +2514,7 @@
         <v>10200</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="8">
         <v>10201</v>
@@ -2546,7 +2541,7 @@
         <v>10201</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="8">
         <v>10202</v>
@@ -2564,7 +2559,7 @@
         <v>45000</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="12">
         <v>0.05</v>
@@ -2575,7 +2570,7 @@
         <v>10202</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="8">
         <v>10203</v>
@@ -2589,11 +2584,11 @@
       <c r="H13" s="10">
         <v>0.7</v>
       </c>
-      <c r="I13" s="11">
-        <v>60000</v>
+      <c r="I13" s="10">
+        <v>1000</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="12">
         <v>0.04</v>
@@ -2605,7 +2600,7 @@
         <v>10203</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="8">
         <v>10204</v>
@@ -2623,7 +2618,7 @@
         <v>75000</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="12">
         <v>0.04</v>
@@ -2635,7 +2630,7 @@
         <v>10204</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="8">
         <v>0</v>
@@ -2653,7 +2648,7 @@
         <v>75000</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" s="12">
         <v>0.04</v>
@@ -2665,7 +2660,7 @@
         <v>10300</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="8">
         <v>10301</v>
@@ -2692,7 +2687,7 @@
         <v>10301</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8">
         <v>10302</v>
@@ -2710,7 +2705,7 @@
         <v>45000</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="12">
         <v>0.05</v>
@@ -2721,7 +2716,7 @@
         <v>10302</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="8">
         <v>10303</v>
@@ -2739,7 +2734,7 @@
         <v>60000</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18" s="12">
         <v>0.04</v>
@@ -2751,7 +2746,7 @@
         <v>10303</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="8">
         <v>10304</v>
@@ -2769,7 +2764,7 @@
         <v>75000</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="12">
         <v>0.04</v>
@@ -2781,7 +2776,7 @@
         <v>10304</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="8">
         <v>0</v>
@@ -2799,7 +2794,7 @@
         <v>75000</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20" s="12">
         <v>0.04</v>
@@ -2811,7 +2806,7 @@
         <v>10400</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="8">
         <v>10401</v>
@@ -2838,7 +2833,7 @@
         <v>10401</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="8">
         <v>10402</v>
@@ -2856,7 +2851,7 @@
         <v>45000</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K22" s="12">
         <v>0.05</v>
@@ -2867,7 +2862,7 @@
         <v>10402</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="8">
         <v>10403</v>
@@ -2885,7 +2880,7 @@
         <v>60000</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" s="12">
         <v>0.04</v>
@@ -2897,7 +2892,7 @@
         <v>10403</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="8">
         <v>10404</v>
@@ -2915,7 +2910,7 @@
         <v>75000</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" s="12">
         <v>0.04</v>
@@ -2927,7 +2922,7 @@
         <v>10404</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="8">
         <v>0</v>
@@ -2945,7 +2940,7 @@
         <v>75000</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" s="12">
         <v>0.04</v>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E092A9E-2872-4152-BD2D-B11C2B57C2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C366734-E79D-4EC8-93B3-A4E06F051687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionQiangHuaProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>Id</t>
   </si>
@@ -785,10 +785,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>攻击修炼3级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击修炼4级</t>
   </si>
   <si>
@@ -800,18 +796,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100203;200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;400</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>防御修炼0级</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -832,40 +816,236 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>法术修炼0级</t>
+    <t>生命修炼0级</t>
+  </si>
+  <si>
+    <t>生命修炼1级</t>
+  </si>
+  <si>
+    <t>生命修炼2级</t>
+  </si>
+  <si>
+    <t>生命修炼3级</t>
+  </si>
+  <si>
+    <t>生命修炼4级</t>
+  </si>
+  <si>
+    <t>法防修炼0级</t>
+  </si>
+  <si>
+    <t>法防修炼1级</t>
+  </si>
+  <si>
+    <t>法防修炼2级</t>
+  </si>
+  <si>
+    <t>法防修炼3级</t>
+  </si>
+  <si>
+    <t>法防修炼4级</t>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>法术修炼1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术修炼2级</t>
-  </si>
-  <si>
-    <t>法术修炼3级</t>
-  </si>
-  <si>
-    <t>法术修炼4级</t>
-  </si>
-  <si>
-    <t>魔法修炼0级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法修炼1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法修炼2级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法修炼3级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法修炼4级</t>
+    <t>攻击修炼3级</t>
+  </si>
+  <si>
+    <t>攻击修炼5级</t>
+  </si>
+  <si>
+    <t>攻击修炼6级</t>
+  </si>
+  <si>
+    <t>攻击修炼7级</t>
+  </si>
+  <si>
+    <t>攻击修炼8级</t>
+  </si>
+  <si>
+    <t>攻击修炼9级</t>
+  </si>
+  <si>
+    <t>攻击修炼10级</t>
+  </si>
+  <si>
+    <t>生命修炼5级</t>
+  </si>
+  <si>
+    <t>生命修炼6级</t>
+  </si>
+  <si>
+    <t>生命修炼7级</t>
+  </si>
+  <si>
+    <t>生命修炼8级</t>
+  </si>
+  <si>
+    <t>生命修炼9级</t>
+  </si>
+  <si>
+    <t>生命修炼10级</t>
+  </si>
+  <si>
+    <t>防御修炼5级</t>
+  </si>
+  <si>
+    <t>防御修炼6级</t>
+  </si>
+  <si>
+    <t>防御修炼7级</t>
+  </si>
+  <si>
+    <t>防御修炼8级</t>
+  </si>
+  <si>
+    <t>防御修炼9级</t>
+  </si>
+  <si>
+    <t>防御修炼10级</t>
+  </si>
+  <si>
+    <t>法防修炼5级</t>
+  </si>
+  <si>
+    <t>法防修炼6级</t>
+  </si>
+  <si>
+    <t>法防修炼7级</t>
+  </si>
+  <si>
+    <t>法防修炼8级</t>
+  </si>
+  <si>
+    <t>法防修炼9级</t>
+  </si>
+  <si>
+    <t>法防修炼10级</t>
+  </si>
+  <si>
+    <t>100403;50</t>
+  </si>
+  <si>
+    <t>100403;100</t>
+  </si>
+  <si>
+    <t>100403;200</t>
+  </si>
+  <si>
+    <t>100403;350</t>
+  </si>
+  <si>
+    <t>100403;500</t>
+  </si>
+  <si>
+    <t>100403;700</t>
+  </si>
+  <si>
+    <t>100403;900</t>
+  </si>
+  <si>
+    <t>100403;1200</t>
+  </si>
+  <si>
+    <t>100403;1500</t>
+  </si>
+  <si>
+    <t>100403;1800</t>
+  </si>
+  <si>
+    <t>100203;300</t>
+  </si>
+  <si>
+    <t>100203;600</t>
+  </si>
+  <si>
+    <t>100203;1200</t>
+  </si>
+  <si>
+    <t>100203;2100</t>
+  </si>
+  <si>
+    <t>100203;3000</t>
+  </si>
+  <si>
+    <t>100203;4200</t>
+  </si>
+  <si>
+    <t>100203;5400</t>
+  </si>
+  <si>
+    <t>100203;7200</t>
+  </si>
+  <si>
+    <t>100203;9000</t>
+  </si>
+  <si>
+    <t>100203;10800</t>
+  </si>
+  <si>
+    <t>100603;50</t>
+  </si>
+  <si>
+    <t>100603;100</t>
+  </si>
+  <si>
+    <t>100603;200</t>
+  </si>
+  <si>
+    <t>100603;350</t>
+  </si>
+  <si>
+    <t>100603;500</t>
+  </si>
+  <si>
+    <t>100603;700</t>
+  </si>
+  <si>
+    <t>100603;900</t>
+  </si>
+  <si>
+    <t>100603;1200</t>
+  </si>
+  <si>
+    <t>100603;1500</t>
+  </si>
+  <si>
+    <t>100603;1800</t>
+  </si>
+  <si>
+    <t>100803;50</t>
+  </si>
+  <si>
+    <t>100803;100</t>
+  </si>
+  <si>
+    <t>100803;200</t>
+  </si>
+  <si>
+    <t>100803;350</t>
+  </si>
+  <si>
+    <t>100803;500</t>
+  </si>
+  <si>
+    <t>100803;700</t>
+  </si>
+  <si>
+    <t>100803;900</t>
+  </si>
+  <si>
+    <t>100803;1200</t>
+  </si>
+  <si>
+    <t>100803;1500</t>
+  </si>
+  <si>
+    <t>100803;1800</t>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +1142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1056,17 +1236,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="12"/>
-      </left>
-      <right style="hair">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -1098,9 +1267,7 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2257,10 +2424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IC25"/>
+  <dimension ref="C1:IC57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2296,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -2325,7 +2492,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -2334,32 +2501,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:237" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2383,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="11">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="12">
+      <c r="K6" s="10">
         <v>0.05</v>
       </c>
     </row>
@@ -2410,12 +2577,12 @@
         <v>0.8</v>
       </c>
       <c r="I7" s="11">
-        <v>45000</v>
+        <v>200</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="12">
+        <v>65</v>
+      </c>
+      <c r="K7" s="10">
         <v>0.05</v>
       </c>
     </row>
@@ -2439,12 +2606,12 @@
         <v>0.7</v>
       </c>
       <c r="I8" s="11">
-        <v>60000</v>
+        <v>300</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="12">
+        <v>66</v>
+      </c>
+      <c r="K8" s="10">
         <v>0.04</v>
       </c>
       <c r="IC8"/>
@@ -2454,7 +2621,7 @@
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E9" s="8">
         <v>10104</v>
@@ -2469,14 +2636,15 @@
         <v>0.6</v>
       </c>
       <c r="I9" s="11">
-        <v>75000</v>
+        <v>400</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="12">
+        <v>67</v>
+      </c>
+      <c r="K9" s="10">
         <v>0.04</v>
       </c>
+      <c r="O9" s="12"/>
       <c r="IC9"/>
     </row>
     <row r="10" spans="3:237" ht="19.5" customHeight="1">
@@ -2484,10 +2652,10 @@
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>10105</v>
       </c>
       <c r="F10" s="10">
         <v>4</v>
@@ -2499,290 +2667,293 @@
         <v>0.6</v>
       </c>
       <c r="I10" s="11">
-        <v>75000</v>
+        <v>500</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="12">
+        <v>68</v>
+      </c>
+      <c r="K10" s="10">
         <v>0.04</v>
       </c>
       <c r="IC10"/>
     </row>
-    <row r="11" spans="3:237" ht="22.5" customHeight="1">
+    <row r="11" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="8">
-        <v>10200</v>
+        <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E11" s="8">
-        <v>10201</v>
+        <v>10106</v>
       </c>
       <c r="F11" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
       </c>
       <c r="H11" s="10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I11" s="11">
-        <v>30000</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12">
+        <v>600</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="10">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="8">
-        <v>10201</v>
+        <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8">
-        <v>10202</v>
+        <v>10107</v>
       </c>
       <c r="F12" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I12" s="11">
-        <v>45000</v>
+        <v>700</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="3:237" ht="20.100000000000001" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC12"/>
+    </row>
+    <row r="13" spans="3:237" ht="19.5" customHeight="1">
       <c r="C13" s="8">
-        <v>10202</v>
+        <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E13" s="8">
-        <v>10203</v>
+        <v>10108</v>
       </c>
       <c r="F13" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G13" s="10">
         <v>0</v>
       </c>
       <c r="H13" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="I13" s="10">
-        <v>1000</v>
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="11">
+        <v>800</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="12">
+        <v>71</v>
+      </c>
+      <c r="K13" s="10">
         <v>0.04</v>
       </c>
       <c r="IC13"/>
     </row>
     <row r="14" spans="3:237" ht="19.5" customHeight="1">
       <c r="C14" s="8">
-        <v>10203</v>
+        <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E14" s="8">
-        <v>10204</v>
+        <v>10109</v>
       </c>
       <c r="F14" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G14" s="10">
         <v>0</v>
       </c>
       <c r="H14" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I14" s="11">
-        <v>75000</v>
+        <v>900</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="12">
+        <v>72</v>
+      </c>
+      <c r="K14" s="10">
         <v>0.04</v>
       </c>
       <c r="IC14"/>
     </row>
     <row r="15" spans="3:237" ht="19.5" customHeight="1">
       <c r="C15" s="8">
-        <v>10204</v>
+        <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E15" s="8">
-        <v>0</v>
+        <v>10110</v>
       </c>
       <c r="F15" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
       </c>
       <c r="H15" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="11">
-        <v>75000</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="12">
+        <v>73</v>
+      </c>
+      <c r="K15" s="10">
         <v>0.04</v>
       </c>
       <c r="IC15"/>
     </row>
-    <row r="16" spans="3:237" ht="22.5" customHeight="1">
+    <row r="16" spans="3:237" ht="19.5" customHeight="1">
       <c r="C16" s="8">
-        <v>10300</v>
+        <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E16" s="8">
-        <v>10301</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16" s="10">
         <v>0</v>
       </c>
       <c r="H16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC16"/>
+    </row>
+    <row r="17" spans="3:237" ht="22.5" customHeight="1">
+      <c r="C17" s="8">
+        <v>10200</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="8">
+        <v>10201</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
         <v>1</v>
       </c>
-      <c r="I16" s="11">
-        <v>30000</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="12">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="3:237" ht="20.100000000000001" customHeight="1">
-      <c r="C17" s="8">
-        <v>10301</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="8">
-        <v>10302</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0.8</v>
-      </c>
       <c r="I17" s="11">
-        <v>45000</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="12">
+        <v>100</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10">
         <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C18" s="8">
-        <v>10302</v>
+        <v>10201</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E18" s="8">
-        <v>10303</v>
+        <v>10202</v>
       </c>
       <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I18" s="11">
+        <v>200</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C19" s="8">
+        <v>10202</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="8">
+        <v>10203</v>
+      </c>
+      <c r="F19" s="10">
         <v>2</v>
       </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
         <v>0.7</v>
       </c>
-      <c r="I18" s="11">
-        <v>60000</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="IC18"/>
-    </row>
-    <row r="19" spans="3:237" ht="19.5" customHeight="1">
-      <c r="C19" s="8">
-        <v>10303</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="8">
-        <v>10304</v>
-      </c>
-      <c r="F19" s="10">
-        <v>3</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.6</v>
-      </c>
       <c r="I19" s="11">
-        <v>75000</v>
+        <v>300</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="12">
+        <v>76</v>
+      </c>
+      <c r="K19" s="10">
         <v>0.04</v>
       </c>
       <c r="IC19"/>
     </row>
     <row r="20" spans="3:237" ht="19.5" customHeight="1">
       <c r="C20" s="8">
-        <v>10304</v>
+        <v>10203</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E20" s="8">
-        <v>0</v>
+        <v>10204</v>
       </c>
       <c r="F20" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
@@ -2791,144 +2962,146 @@
         <v>0.6</v>
       </c>
       <c r="I20" s="11">
-        <v>75000</v>
+        <v>400</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="12">
+        <v>77</v>
+      </c>
+      <c r="K20" s="10">
         <v>0.04</v>
       </c>
       <c r="IC20"/>
     </row>
-    <row r="21" spans="3:237" ht="22.5" customHeight="1">
+    <row r="21" spans="3:237" ht="19.5" customHeight="1">
       <c r="C21" s="8">
-        <v>10400</v>
+        <v>10204</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E21" s="8">
-        <v>10401</v>
+        <v>10205</v>
       </c>
       <c r="F21" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
       </c>
       <c r="H21" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I21" s="11">
+        <v>500</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC21"/>
+    </row>
+    <row r="22" spans="3:237" ht="22.5" customHeight="1">
+      <c r="C22" s="8">
+        <v>10205</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="8">
+        <v>10206</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
         <v>1</v>
       </c>
-      <c r="I21" s="11">
-        <v>30000</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="12">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="3:237" ht="20.100000000000001" customHeight="1">
-      <c r="C22" s="8">
-        <v>10401</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="8">
-        <v>10402</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.8</v>
-      </c>
       <c r="I22" s="11">
-        <v>45000</v>
+        <v>600</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="12">
+        <v>79</v>
+      </c>
+      <c r="K22" s="10">
         <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="8">
-        <v>10402</v>
+        <v>10206</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E23" s="8">
-        <v>10403</v>
+        <v>10207</v>
       </c>
       <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="11">
+        <v>700</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="8">
+        <v>10207</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="8">
+        <v>10208</v>
+      </c>
+      <c r="F24" s="10">
         <v>2</v>
       </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
         <v>0.7</v>
       </c>
-      <c r="I23" s="11">
-        <v>60000</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="IC23"/>
-    </row>
-    <row r="24" spans="3:237" ht="19.5" customHeight="1">
-      <c r="C24" s="8">
-        <v>10403</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="8">
-        <v>10404</v>
-      </c>
-      <c r="F24" s="10">
-        <v>3</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.6</v>
-      </c>
       <c r="I24" s="11">
-        <v>75000</v>
+        <v>800</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="12">
+        <v>81</v>
+      </c>
+      <c r="K24" s="10">
         <v>0.04</v>
       </c>
       <c r="IC24"/>
     </row>
     <row r="25" spans="3:237" ht="19.5" customHeight="1">
       <c r="C25" s="8">
-        <v>10404</v>
+        <v>10208</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E25" s="8">
-        <v>0</v>
+        <v>10209</v>
       </c>
       <c r="F25" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
@@ -2937,16 +3110,733 @@
         <v>0.6</v>
       </c>
       <c r="I25" s="11">
-        <v>75000</v>
+        <v>900</v>
       </c>
       <c r="J25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC25"/>
+    </row>
+    <row r="26" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C26" s="8">
+        <v>10209</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="8">
+        <v>10210</v>
+      </c>
+      <c r="F26" s="10">
+        <v>4</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC26"/>
+    </row>
+    <row r="27" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C27" s="8">
+        <v>10210</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>3</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC27"/>
+    </row>
+    <row r="28" spans="3:237" ht="22.5" customHeight="1">
+      <c r="C28" s="8">
+        <v>10300</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="8">
+        <v>10301</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11">
+        <v>100</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C29" s="8">
+        <v>10301</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="8">
+        <v>10302</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I29" s="11">
+        <v>200</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="30" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C30" s="8">
+        <v>10302</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="8">
+        <v>10303</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I30" s="11">
+        <v>300</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC30"/>
+    </row>
+    <row r="31" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C31" s="8">
+        <v>10303</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="12">
+      <c r="E31" s="8">
+        <v>10304</v>
+      </c>
+      <c r="F31" s="10">
+        <v>3</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I31" s="11">
+        <v>400</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="10">
         <v>0.04</v>
       </c>
-      <c r="IC25"/>
-    </row>
+      <c r="IC31"/>
+    </row>
+    <row r="32" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C32" s="8">
+        <v>10304</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="8">
+        <v>10305</v>
+      </c>
+      <c r="F32" s="10">
+        <v>4</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I32" s="11">
+        <v>500</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC32"/>
+    </row>
+    <row r="33" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C33" s="8">
+        <v>10305</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="8">
+        <v>10306</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I33" s="11">
+        <v>600</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C34" s="8">
+        <v>10306</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="8">
+        <v>10307</v>
+      </c>
+      <c r="F34" s="10">
+        <v>2</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I34" s="11">
+        <v>700</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC34"/>
+    </row>
+    <row r="35" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C35" s="8">
+        <v>10307</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="8">
+        <v>10308</v>
+      </c>
+      <c r="F35" s="10">
+        <v>3</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I35" s="11">
+        <v>800</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC35"/>
+    </row>
+    <row r="36" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C36" s="8">
+        <v>10308</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="8">
+        <v>10309</v>
+      </c>
+      <c r="F36" s="10">
+        <v>4</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I36" s="11">
+        <v>900</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC36"/>
+    </row>
+    <row r="37" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C37" s="8">
+        <v>10309</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="8">
+        <v>10310</v>
+      </c>
+      <c r="F37" s="10">
+        <v>3</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I37" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC37"/>
+    </row>
+    <row r="38" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C38" s="8">
+        <v>10310</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>4</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC38"/>
+    </row>
+    <row r="39" spans="3:237" ht="22.5" customHeight="1">
+      <c r="C39" s="8">
+        <v>10400</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="8">
+        <v>10401</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11">
+        <v>100</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C40" s="8">
+        <v>10401</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="8">
+        <v>10402</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I40" s="11">
+        <v>200</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C41" s="8">
+        <v>10402</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="8">
+        <v>10403</v>
+      </c>
+      <c r="F41" s="10">
+        <v>2</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I41" s="11">
+        <v>300</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC41"/>
+    </row>
+    <row r="42" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C42" s="8">
+        <v>10403</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="8">
+        <v>10404</v>
+      </c>
+      <c r="F42" s="10">
+        <v>3</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I42" s="11">
+        <v>400</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC42"/>
+    </row>
+    <row r="43" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C43" s="8">
+        <v>10404</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="8">
+        <v>10405</v>
+      </c>
+      <c r="F43" s="10">
+        <v>4</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I43" s="11">
+        <v>500</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC43"/>
+    </row>
+    <row r="44" spans="3:237" ht="22.5" customHeight="1">
+      <c r="C44" s="8">
+        <v>10405</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="8">
+        <v>10406</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>1</v>
+      </c>
+      <c r="I44" s="11">
+        <v>600</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K44" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C45" s="8">
+        <v>10406</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="8">
+        <v>10407</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I45" s="11">
+        <v>700</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K45" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="46" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C46" s="8">
+        <v>10407</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="8">
+        <v>10408</v>
+      </c>
+      <c r="F46" s="10">
+        <v>2</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I46" s="11">
+        <v>800</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC46"/>
+    </row>
+    <row r="47" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C47" s="8">
+        <v>10408</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="8">
+        <v>10409</v>
+      </c>
+      <c r="F47" s="10">
+        <v>3</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I47" s="11">
+        <v>900</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC47"/>
+    </row>
+    <row r="48" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C48" s="8">
+        <v>10409</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="8">
+        <v>10410</v>
+      </c>
+      <c r="F48" s="10">
+        <v>4</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC48"/>
+    </row>
+    <row r="49" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C49" s="8">
+        <v>10410</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
+        <v>3</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC49"/>
+    </row>
+    <row r="50" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="51" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="52" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="53" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="54" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="55" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="56" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="57" spans="3:237" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C366734-E79D-4EC8-93B3-A4E06F051687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C20373-2A7C-4EB3-9412-67D4F84B319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1240,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,7 +1267,6 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2427,7 +2426,7 @@
   <dimension ref="C1:IC57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2577,7 +2576,7 @@
         <v>0.8</v>
       </c>
       <c r="I7" s="11">
-        <v>200</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>65</v>
@@ -2606,7 +2605,7 @@
         <v>0.7</v>
       </c>
       <c r="I8" s="11">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>66</v>
@@ -2636,7 +2635,7 @@
         <v>0.6</v>
       </c>
       <c r="I9" s="11">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>67</v>
@@ -2644,7 +2643,6 @@
       <c r="K9" s="10">
         <v>0.04</v>
       </c>
-      <c r="O9" s="12"/>
       <c r="IC9"/>
     </row>
     <row r="10" spans="3:237" ht="19.5" customHeight="1">
@@ -2667,7 +2665,7 @@
         <v>0.6</v>
       </c>
       <c r="I10" s="11">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>68</v>
@@ -2697,7 +2695,7 @@
         <v>0.6</v>
       </c>
       <c r="I11" s="11">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>69</v>
@@ -2726,7 +2724,7 @@
         <v>0.6</v>
       </c>
       <c r="I12" s="11">
-        <v>700</v>
+        <v>1330</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>70</v>
@@ -2756,7 +2754,7 @@
         <v>0.5</v>
       </c>
       <c r="I13" s="11">
-        <v>800</v>
+        <v>1680</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>71</v>
@@ -2786,7 +2784,7 @@
         <v>0.5</v>
       </c>
       <c r="I14" s="11">
-        <v>900</v>
+        <v>2070</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>72</v>
@@ -2816,7 +2814,7 @@
         <v>0.5</v>
       </c>
       <c r="I15" s="11">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>73</v>
@@ -2903,7 +2901,7 @@
         <v>0.8</v>
       </c>
       <c r="I18" s="11">
-        <v>200</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>75</v>
@@ -2932,7 +2930,7 @@
         <v>0.7</v>
       </c>
       <c r="I19" s="11">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>76</v>
@@ -2962,7 +2960,7 @@
         <v>0.6</v>
       </c>
       <c r="I20" s="11">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>77</v>
@@ -2992,7 +2990,7 @@
         <v>0.6</v>
       </c>
       <c r="I21" s="11">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>78</v>
@@ -3022,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="11">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>79</v>
@@ -3051,7 +3049,7 @@
         <v>0.8</v>
       </c>
       <c r="I23" s="11">
-        <v>700</v>
+        <v>1330</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>80</v>
@@ -3080,7 +3078,7 @@
         <v>0.7</v>
       </c>
       <c r="I24" s="11">
-        <v>800</v>
+        <v>1680</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>81</v>
@@ -3110,7 +3108,7 @@
         <v>0.6</v>
       </c>
       <c r="I25" s="11">
-        <v>900</v>
+        <v>2070</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>82</v>
@@ -3140,7 +3138,7 @@
         <v>0.6</v>
       </c>
       <c r="I26" s="11">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>83</v>
@@ -3227,7 +3225,7 @@
         <v>0.8</v>
       </c>
       <c r="I29" s="11">
-        <v>200</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>85</v>
@@ -3256,7 +3254,7 @@
         <v>0.7</v>
       </c>
       <c r="I30" s="11">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>86</v>
@@ -3286,7 +3284,7 @@
         <v>0.6</v>
       </c>
       <c r="I31" s="11">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>87</v>
@@ -3316,7 +3314,7 @@
         <v>0.6</v>
       </c>
       <c r="I32" s="11">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>88</v>
@@ -3346,7 +3344,7 @@
         <v>0.8</v>
       </c>
       <c r="I33" s="11">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>89</v>
@@ -3375,7 +3373,7 @@
         <v>0.7</v>
       </c>
       <c r="I34" s="11">
-        <v>700</v>
+        <v>1330</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>90</v>
@@ -3405,7 +3403,7 @@
         <v>0.6</v>
       </c>
       <c r="I35" s="11">
-        <v>800</v>
+        <v>1680</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>91</v>
@@ -3435,7 +3433,7 @@
         <v>0.6</v>
       </c>
       <c r="I36" s="11">
-        <v>900</v>
+        <v>2070</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>92</v>
@@ -3465,7 +3463,7 @@
         <v>0.6</v>
       </c>
       <c r="I37" s="11">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>93</v>
@@ -3552,7 +3550,7 @@
         <v>0.8</v>
       </c>
       <c r="I40" s="11">
-        <v>200</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>95</v>
@@ -3581,7 +3579,7 @@
         <v>0.7</v>
       </c>
       <c r="I41" s="11">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>96</v>
@@ -3611,7 +3609,7 @@
         <v>0.6</v>
       </c>
       <c r="I42" s="11">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>97</v>
@@ -3641,7 +3639,7 @@
         <v>0.6</v>
       </c>
       <c r="I43" s="11">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>98</v>
@@ -3671,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="11">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>99</v>
@@ -3700,7 +3698,7 @@
         <v>0.8</v>
       </c>
       <c r="I45" s="11">
-        <v>700</v>
+        <v>1330</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>100</v>
@@ -3729,7 +3727,7 @@
         <v>0.7</v>
       </c>
       <c r="I46" s="11">
-        <v>800</v>
+        <v>1680</v>
       </c>
       <c r="J46" s="10" t="s">
         <v>101</v>
@@ -3759,7 +3757,7 @@
         <v>0.6</v>
       </c>
       <c r="I47" s="11">
-        <v>900</v>
+        <v>2070</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>102</v>
@@ -3789,7 +3787,7 @@
         <v>0.6</v>
       </c>
       <c r="I48" s="11">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>103</v>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C20373-2A7C-4EB3-9412-67D4F84B319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21868102-7519-49CB-9426-71D16FF1D35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>Id</t>
   </si>
@@ -1046,6 +1046,62 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击修炼11级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击修炼12级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;2100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;2400</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>法防修炼11级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>法防修炼12级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100803;2100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100803;2400</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100603;2100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100603;2400</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100203;12600</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100203;14400</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2423,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IC57"/>
+  <dimension ref="C1:IC63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2832,7 +2888,7 @@
         <v>46</v>
       </c>
       <c r="E16" s="8">
-        <v>0</v>
+        <v>10111</v>
       </c>
       <c r="F16" s="10">
         <v>10</v>
@@ -2844,7 +2900,7 @@
         <v>0.5</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>74</v>
@@ -2854,294 +2910,294 @@
       </c>
       <c r="IC16"/>
     </row>
-    <row r="17" spans="3:237" ht="22.5" customHeight="1">
+    <row r="17" spans="3:237" ht="19.5" customHeight="1">
       <c r="C17" s="8">
+        <v>10111</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="8">
+        <v>10112</v>
+      </c>
+      <c r="F17" s="10">
+        <v>11</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC17"/>
+    </row>
+    <row r="18" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C18" s="8">
+        <v>10112</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>12</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC18"/>
+    </row>
+    <row r="19" spans="3:237" ht="22.5" customHeight="1">
+      <c r="C19" s="8">
         <v>10200</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E19" s="8">
         <v>10201</v>
       </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
         <v>1</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I19" s="11">
         <v>100</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="3:237" ht="20.100000000000001" customHeight="1">
-      <c r="C18" s="8">
+    <row r="20" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C20" s="8">
         <v>10201</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E20" s="8">
         <v>10202</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F20" s="10">
         <v>1</v>
       </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
         <v>0.8</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I20" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K20" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="3:237" ht="20.100000000000001" customHeight="1">
-      <c r="C19" s="8">
+    <row r="21" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C21" s="8">
         <v>10202</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E21" s="8">
         <v>10203</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F21" s="10">
         <v>2</v>
       </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
         <v>0.7</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I21" s="11">
         <v>375</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC19"/>
-    </row>
-    <row r="20" spans="3:237" ht="19.5" customHeight="1">
-      <c r="C20" s="8">
-        <v>10203</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="8">
-        <v>10204</v>
-      </c>
-      <c r="F20" s="10">
-        <v>3</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I20" s="11">
-        <v>560</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC20"/>
-    </row>
-    <row r="21" spans="3:237" ht="19.5" customHeight="1">
-      <c r="C21" s="8">
-        <v>10204</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="8">
-        <v>10205</v>
-      </c>
-      <c r="F21" s="10">
-        <v>4</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I21" s="11">
-        <v>775</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="K21" s="10">
         <v>0.04</v>
       </c>
       <c r="IC21"/>
     </row>
-    <row r="22" spans="3:237" ht="22.5" customHeight="1">
+    <row r="22" spans="3:237" ht="19.5" customHeight="1">
       <c r="C22" s="8">
+        <v>10203</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="8">
+        <v>10204</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I22" s="11">
+        <v>560</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC22"/>
+    </row>
+    <row r="23" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C23" s="8">
+        <v>10204</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="8">
         <v>10205</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="F23" s="10">
+        <v>4</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="11">
+        <v>775</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC23"/>
+    </row>
+    <row r="24" spans="3:237" ht="22.5" customHeight="1">
+      <c r="C24" s="8">
+        <v>10205</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E24" s="8">
         <v>10206</v>
       </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
         <v>1</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I24" s="11">
         <v>1020</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K24" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="3:237" ht="20.100000000000001" customHeight="1">
-      <c r="C23" s="8">
+    <row r="25" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="8">
         <v>10206</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E25" s="8">
         <v>10207</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F25" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
         <v>0.8</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I25" s="11">
         <v>1330</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K25" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="3:237" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="8">
+    <row r="26" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="8">
         <v>10207</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E26" s="8">
         <v>10208</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F26" s="10">
         <v>2</v>
       </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
         <v>0.7</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I26" s="11">
         <v>1680</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J26" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC24"/>
-    </row>
-    <row r="25" spans="3:237" ht="19.5" customHeight="1">
-      <c r="C25" s="8">
-        <v>10208</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="8">
-        <v>10209</v>
-      </c>
-      <c r="F25" s="10">
-        <v>3</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I25" s="11">
-        <v>2070</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC25"/>
-    </row>
-    <row r="26" spans="3:237" ht="19.5" customHeight="1">
-      <c r="C26" s="8">
-        <v>10209</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="8">
-        <v>10210</v>
-      </c>
-      <c r="F26" s="10">
-        <v>4</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I26" s="11">
-        <v>2500</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="K26" s="10">
         <v>0.04</v>
@@ -3150,13 +3206,13 @@
     </row>
     <row r="27" spans="3:237" ht="19.5" customHeight="1">
       <c r="C27" s="8">
-        <v>10210</v>
+        <v>10208</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E27" s="8">
-        <v>0</v>
+        <v>10209</v>
       </c>
       <c r="F27" s="10">
         <v>3</v>
@@ -3167,97 +3223,101 @@
       <c r="H27" s="10">
         <v>0.6</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>105</v>
+      <c r="I27" s="11">
+        <v>2070</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K27" s="10">
         <v>0.04</v>
       </c>
       <c r="IC27"/>
     </row>
-    <row r="28" spans="3:237" ht="22.5" customHeight="1">
+    <row r="28" spans="3:237" ht="19.5" customHeight="1">
       <c r="C28" s="8">
-        <v>10300</v>
+        <v>10209</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E28" s="8">
-        <v>10301</v>
+        <v>10210</v>
       </c>
       <c r="F28" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
       </c>
       <c r="H28" s="10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I28" s="11">
-        <v>100</v>
-      </c>
-      <c r="J28" s="10"/>
+        <v>2500</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="K28" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="3:237" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="IC28"/>
+    </row>
+    <row r="29" spans="3:237" ht="19.5" customHeight="1">
       <c r="C29" s="8">
-        <v>10301</v>
+        <v>10210</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E29" s="8">
-        <v>10302</v>
+        <v>10211</v>
       </c>
       <c r="F29" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
       </c>
       <c r="H29" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="I29" s="11">
-        <v>220.00000000000003</v>
+        <v>0.6</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K29" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="3:237" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="IC29"/>
+    </row>
+    <row r="30" spans="3:237" ht="19.5" customHeight="1">
       <c r="C30" s="8">
-        <v>10302</v>
+        <v>10211</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E30" s="8">
-        <v>10303</v>
+        <v>10212</v>
       </c>
       <c r="F30" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
       </c>
       <c r="H30" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="I30" s="11">
-        <v>375</v>
+        <v>0.6</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="K30" s="10">
         <v>0.04</v>
@@ -3266,13 +3326,13 @@
     </row>
     <row r="31" spans="3:237" ht="19.5" customHeight="1">
       <c r="C31" s="8">
-        <v>10303</v>
+        <v>10212</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E31" s="8">
-        <v>10304</v>
+        <v>0</v>
       </c>
       <c r="F31" s="10">
         <v>3</v>
@@ -3283,56 +3343,53 @@
       <c r="H31" s="10">
         <v>0.6</v>
       </c>
-      <c r="I31" s="11">
-        <v>560</v>
+      <c r="I31" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="K31" s="10">
         <v>0.04</v>
       </c>
       <c r="IC31"/>
     </row>
-    <row r="32" spans="3:237" ht="19.5" customHeight="1">
+    <row r="32" spans="3:237" ht="22.5" customHeight="1">
       <c r="C32" s="8">
-        <v>10304</v>
+        <v>10300</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E32" s="8">
-        <v>10305</v>
+        <v>10301</v>
       </c>
       <c r="F32" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
       </c>
       <c r="H32" s="10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I32" s="11">
-        <v>775</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>88</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J32" s="10"/>
       <c r="K32" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC32"/>
+        <v>0.05</v>
+      </c>
     </row>
     <row r="33" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="8">
-        <v>10305</v>
+        <v>10301</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E33" s="8">
-        <v>10306</v>
+        <v>10302</v>
       </c>
       <c r="F33" s="10">
         <v>1</v>
@@ -3344,10 +3401,10 @@
         <v>0.8</v>
       </c>
       <c r="I33" s="11">
-        <v>1020</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K33" s="10">
         <v>0.05</v>
@@ -3355,13 +3412,13 @@
     </row>
     <row r="34" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="8">
-        <v>10306</v>
+        <v>10302</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E34" s="8">
-        <v>10307</v>
+        <v>10303</v>
       </c>
       <c r="F34" s="10">
         <v>2</v>
@@ -3373,10 +3430,10 @@
         <v>0.7</v>
       </c>
       <c r="I34" s="11">
-        <v>1330</v>
+        <v>375</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K34" s="10">
         <v>0.04</v>
@@ -3385,13 +3442,13 @@
     </row>
     <row r="35" spans="3:237" ht="19.5" customHeight="1">
       <c r="C35" s="8">
-        <v>10307</v>
+        <v>10303</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E35" s="8">
-        <v>10308</v>
+        <v>10304</v>
       </c>
       <c r="F35" s="10">
         <v>3</v>
@@ -3403,10 +3460,10 @@
         <v>0.6</v>
       </c>
       <c r="I35" s="11">
-        <v>1680</v>
+        <v>560</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K35" s="10">
         <v>0.04</v>
@@ -3415,13 +3472,13 @@
     </row>
     <row r="36" spans="3:237" ht="19.5" customHeight="1">
       <c r="C36" s="8">
-        <v>10308</v>
+        <v>10304</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E36" s="8">
-        <v>10309</v>
+        <v>10305</v>
       </c>
       <c r="F36" s="10">
         <v>4</v>
@@ -3433,156 +3490,159 @@
         <v>0.6</v>
       </c>
       <c r="I36" s="11">
-        <v>2070</v>
+        <v>775</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K36" s="10">
         <v>0.04</v>
       </c>
       <c r="IC36"/>
     </row>
-    <row r="37" spans="3:237" ht="19.5" customHeight="1">
+    <row r="37" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="8">
-        <v>10309</v>
+        <v>10305</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E37" s="8">
-        <v>10310</v>
+        <v>10306</v>
       </c>
       <c r="F37" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
       </c>
       <c r="H37" s="10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I37" s="11">
-        <v>2500</v>
+        <v>1020</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K37" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC37"/>
-    </row>
-    <row r="38" spans="3:237" ht="19.5" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="8">
-        <v>10310</v>
+        <v>10306</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E38" s="8">
-        <v>0</v>
+        <v>10307</v>
       </c>
       <c r="F38" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>
       </c>
       <c r="H38" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>105</v>
+        <v>0.7</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1330</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K38" s="10">
         <v>0.04</v>
       </c>
       <c r="IC38"/>
     </row>
-    <row r="39" spans="3:237" ht="22.5" customHeight="1">
+    <row r="39" spans="3:237" ht="19.5" customHeight="1">
       <c r="C39" s="8">
-        <v>10400</v>
+        <v>10307</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E39" s="8">
-        <v>10401</v>
+        <v>10308</v>
       </c>
       <c r="F39" s="10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
       </c>
       <c r="H39" s="10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I39" s="11">
-        <v>100</v>
-      </c>
-      <c r="J39" s="10"/>
+        <v>1680</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="K39" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="40" spans="3:237" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="IC39"/>
+    </row>
+    <row r="40" spans="3:237" ht="19.5" customHeight="1">
       <c r="C40" s="8">
-        <v>10401</v>
+        <v>10308</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E40" s="8">
-        <v>10402</v>
+        <v>10309</v>
       </c>
       <c r="F40" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
       </c>
       <c r="H40" s="10">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I40" s="11">
-        <v>220.00000000000003</v>
+        <v>2070</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K40" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="41" spans="3:237" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="IC40"/>
+    </row>
+    <row r="41" spans="3:237" ht="19.5" customHeight="1">
       <c r="C41" s="8">
-        <v>10402</v>
+        <v>10309</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E41" s="8">
-        <v>10403</v>
+        <v>10310</v>
       </c>
       <c r="F41" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
       </c>
       <c r="H41" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I41" s="11">
-        <v>375</v>
+        <v>2500</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K41" s="10">
         <v>0.04</v>
@@ -3591,16 +3651,16 @@
     </row>
     <row r="42" spans="3:237" ht="19.5" customHeight="1">
       <c r="C42" s="8">
-        <v>10403</v>
+        <v>10310</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E42" s="8">
-        <v>10404</v>
+        <v>10311</v>
       </c>
       <c r="F42" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -3608,11 +3668,11 @@
       <c r="H42" s="10">
         <v>0.6</v>
       </c>
-      <c r="I42" s="11">
-        <v>560</v>
+      <c r="I42" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K42" s="10">
         <v>0.04</v>
@@ -3621,13 +3681,13 @@
     </row>
     <row r="43" spans="3:237" ht="19.5" customHeight="1">
       <c r="C43" s="8">
-        <v>10404</v>
+        <v>10311</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E43" s="8">
-        <v>10405</v>
+        <v>10312</v>
       </c>
       <c r="F43" s="10">
         <v>4</v>
@@ -3638,129 +3698,127 @@
       <c r="H43" s="10">
         <v>0.6</v>
       </c>
-      <c r="I43" s="11">
-        <v>775</v>
+      <c r="I43" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="K43" s="10">
         <v>0.04</v>
       </c>
       <c r="IC43"/>
     </row>
-    <row r="44" spans="3:237" ht="22.5" customHeight="1">
+    <row r="44" spans="3:237" ht="19.5" customHeight="1">
       <c r="C44" s="8">
-        <v>10405</v>
+        <v>10312</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="8">
-        <v>10406</v>
+        <v>0</v>
       </c>
       <c r="F44" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
       </c>
       <c r="H44" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K44" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC44"/>
+    </row>
+    <row r="45" spans="3:237" ht="22.5" customHeight="1">
+      <c r="C45" s="8">
+        <v>10400</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="8">
+        <v>10401</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
         <v>1</v>
       </c>
-      <c r="I44" s="11">
-        <v>1020</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K44" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="45" spans="3:237" ht="20.100000000000001" customHeight="1">
-      <c r="C45" s="8">
-        <v>10406</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="8">
-        <v>10407</v>
-      </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10">
-        <v>0.8</v>
-      </c>
       <c r="I45" s="11">
-        <v>1330</v>
-      </c>
-      <c r="J45" s="10" t="s">
         <v>100</v>
       </c>
+      <c r="J45" s="10"/>
       <c r="K45" s="10">
         <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="8">
-        <v>10407</v>
+        <v>10401</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E46" s="8">
-        <v>10408</v>
+        <v>10402</v>
       </c>
       <c r="F46" s="10">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I46" s="11">
+        <v>220.00000000000003</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="47" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C47" s="8">
+        <v>10402</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="8">
+        <v>10403</v>
+      </c>
+      <c r="F47" s="10">
         <v>2</v>
       </c>
-      <c r="G46" s="10">
-        <v>0</v>
-      </c>
-      <c r="H46" s="10">
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
         <v>0.7</v>
       </c>
-      <c r="I46" s="11">
-        <v>1680</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K46" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC46"/>
-    </row>
-    <row r="47" spans="3:237" ht="19.5" customHeight="1">
-      <c r="C47" s="8">
-        <v>10408</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="8">
-        <v>10409</v>
-      </c>
-      <c r="F47" s="10">
-        <v>3</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0.6</v>
-      </c>
       <c r="I47" s="11">
-        <v>2070</v>
+        <v>375</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K47" s="10">
         <v>0.04</v>
@@ -3769,16 +3827,16 @@
     </row>
     <row r="48" spans="3:237" ht="19.5" customHeight="1">
       <c r="C48" s="8">
-        <v>10409</v>
+        <v>10403</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E48" s="8">
-        <v>10410</v>
+        <v>10404</v>
       </c>
       <c r="F48" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
@@ -3787,10 +3845,10 @@
         <v>0.6</v>
       </c>
       <c r="I48" s="11">
-        <v>2500</v>
+        <v>560</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K48" s="10">
         <v>0.04</v>
@@ -3799,16 +3857,16 @@
     </row>
     <row r="49" spans="3:237" ht="19.5" customHeight="1">
       <c r="C49" s="8">
-        <v>10410</v>
+        <v>10404</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E49" s="8">
-        <v>0</v>
+        <v>10405</v>
       </c>
       <c r="F49" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -3816,25 +3874,261 @@
       <c r="H49" s="10">
         <v>0.6</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>105</v>
+      <c r="I49" s="11">
+        <v>775</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K49" s="10">
         <v>0.04</v>
       </c>
       <c r="IC49"/>
     </row>
-    <row r="50" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="51" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="52" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="53" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="54" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="55" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="56" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="57" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="50" spans="3:237" ht="22.5" customHeight="1">
+      <c r="C50" s="8">
+        <v>10405</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="8">
+        <v>10406</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1020</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C51" s="8">
+        <v>10406</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="8">
+        <v>10407</v>
+      </c>
+      <c r="F51" s="10">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I51" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C52" s="8">
+        <v>10407</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="8">
+        <v>10408</v>
+      </c>
+      <c r="F52" s="10">
+        <v>2</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K52" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC52"/>
+    </row>
+    <row r="53" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C53" s="8">
+        <v>10408</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="8">
+        <v>10409</v>
+      </c>
+      <c r="F53" s="10">
+        <v>3</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I53" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC53"/>
+    </row>
+    <row r="54" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C54" s="8">
+        <v>10409</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="8">
+        <v>10410</v>
+      </c>
+      <c r="F54" s="10">
+        <v>4</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I54" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC54"/>
+    </row>
+    <row r="55" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C55" s="8">
+        <v>10410</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="8">
+        <v>10411</v>
+      </c>
+      <c r="F55" s="10">
+        <v>3</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K55" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC55"/>
+    </row>
+    <row r="56" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C56" s="8">
+        <v>10411</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="8">
+        <v>10412</v>
+      </c>
+      <c r="F56" s="10">
+        <v>3</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC56"/>
+    </row>
+    <row r="57" spans="3:237" ht="19.5" customHeight="1">
+      <c r="C57" s="8">
+        <v>10412</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10">
+        <v>3</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="IC57"/>
+    </row>
+    <row r="58" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="59" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="60" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="61" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="62" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="63" spans="3:237" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21868102-7519-49CB-9426-71D16FF1D35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233719D-06D4-462C-9523-38A6D573FF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="168">
   <si>
     <t>Id</t>
   </si>
@@ -1102,6 +1102,198 @@
   </si>
   <si>
     <t>100203;14400</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼0级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼1级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼2级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼3级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼4级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼5级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼6级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼7级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼8级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼9级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼10级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼11级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼12级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼0级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼1级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼2级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼3级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼4级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼5级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼6级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼7级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼8级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼9级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物生命修炼10级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼0级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼1级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼2级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼3级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼4级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼5级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼6级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼7级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼8级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼9级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼10级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼0级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼1级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼2级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼3级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼4级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼5级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼6级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼7级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼8级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼9级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼10级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼11级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物法防修炼12级</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2479,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IC63"/>
+  <dimension ref="C1:IC109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -4123,12 +4315,1506 @@
       </c>
       <c r="IC57"/>
     </row>
-    <row r="58" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="59" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="60" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="61" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="62" spans="3:237" ht="20.100000000000001" customHeight="1"/>
-    <row r="63" spans="3:237" ht="20.100000000000001" customHeight="1"/>
+    <row r="58" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C58" s="8">
+        <v>11100</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="8">
+        <v>11101</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <v>1</v>
+      </c>
+      <c r="I58" s="11">
+        <v>100</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C59" s="8">
+        <v>11101</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="8">
+        <v>11102</v>
+      </c>
+      <c r="F59" s="10">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I59" s="11">
+        <v>220.00000000000003</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="60" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C60" s="8">
+        <v>11102</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="8">
+        <v>11103</v>
+      </c>
+      <c r="F60" s="10">
+        <v>2</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I60" s="11">
+        <v>375</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K60" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="61" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C61" s="8">
+        <v>11103</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="8">
+        <v>11104</v>
+      </c>
+      <c r="F61" s="10">
+        <v>3</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I61" s="11">
+        <v>560</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="62" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C62" s="8">
+        <v>11104</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E62" s="8">
+        <v>11105</v>
+      </c>
+      <c r="F62" s="10">
+        <v>4</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I62" s="11">
+        <v>775</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K62" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="63" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="C63" s="8">
+        <v>11105</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="8">
+        <v>11106</v>
+      </c>
+      <c r="F63" s="10">
+        <v>5</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I63" s="11">
+        <v>1020</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K63" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="3:237" ht="13.5" customHeight="1">
+      <c r="C64" s="8">
+        <v>11106</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="8">
+        <v>11107</v>
+      </c>
+      <c r="F64" s="10">
+        <v>6</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K64" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C65" s="8">
+        <v>11107</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="8">
+        <v>11108</v>
+      </c>
+      <c r="F65" s="10">
+        <v>7</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K65" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C66" s="8">
+        <v>11108</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="8">
+        <v>11109</v>
+      </c>
+      <c r="F66" s="10">
+        <v>8</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K66" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C67" s="8">
+        <v>11109</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="8">
+        <v>11110</v>
+      </c>
+      <c r="F67" s="10">
+        <v>9</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K67" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C68" s="8">
+        <v>11110</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="8">
+        <v>11111</v>
+      </c>
+      <c r="F68" s="10">
+        <v>10</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K68" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C69" s="8">
+        <v>11111</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="8">
+        <v>11112</v>
+      </c>
+      <c r="F69" s="10">
+        <v>11</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K69" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C70" s="8">
+        <v>11112</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="8">
+        <v>0</v>
+      </c>
+      <c r="F70" s="10">
+        <v>12</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K70" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C71" s="8">
+        <v>11200</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="8">
+        <v>11201</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <v>1</v>
+      </c>
+      <c r="I71" s="11">
+        <v>100</v>
+      </c>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C72" s="8">
+        <v>11201</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="8">
+        <v>11202</v>
+      </c>
+      <c r="F72" s="10">
+        <v>1</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I72" s="11">
+        <v>220.00000000000003</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K72" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C73" s="8">
+        <v>11202</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="8">
+        <v>11203</v>
+      </c>
+      <c r="F73" s="10">
+        <v>2</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I73" s="11">
+        <v>375</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K73" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C74" s="8">
+        <v>11203</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="8">
+        <v>11204</v>
+      </c>
+      <c r="F74" s="10">
+        <v>3</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I74" s="11">
+        <v>560</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C75" s="8">
+        <v>11204</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" s="8">
+        <v>11205</v>
+      </c>
+      <c r="F75" s="10">
+        <v>4</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I75" s="11">
+        <v>775</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K75" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C76" s="8">
+        <v>11205</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="8">
+        <v>11206</v>
+      </c>
+      <c r="F76" s="10">
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
+        <v>1</v>
+      </c>
+      <c r="I76" s="11">
+        <v>1020</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K76" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C77" s="8">
+        <v>11206</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="8">
+        <v>11207</v>
+      </c>
+      <c r="F77" s="10">
+        <v>1</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I77" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K77" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C78" s="8">
+        <v>11207</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="8">
+        <v>11208</v>
+      </c>
+      <c r="F78" s="10">
+        <v>2</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I78" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K78" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C79" s="8">
+        <v>11208</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E79" s="8">
+        <v>11209</v>
+      </c>
+      <c r="F79" s="10">
+        <v>3</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I79" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K79" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C80" s="8">
+        <v>11209</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="8">
+        <v>11210</v>
+      </c>
+      <c r="F80" s="10">
+        <v>4</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I80" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K80" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C81" s="8">
+        <v>11210</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="8">
+        <v>11211</v>
+      </c>
+      <c r="F81" s="10">
+        <v>3</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K81" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C82" s="8">
+        <v>11211</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="8">
+        <v>11212</v>
+      </c>
+      <c r="F82" s="10">
+        <v>3</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K82" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C83" s="8">
+        <v>11212</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E83" s="8">
+        <v>0</v>
+      </c>
+      <c r="F83" s="10">
+        <v>3</v>
+      </c>
+      <c r="G83" s="10">
+        <v>0</v>
+      </c>
+      <c r="H83" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K83" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C84" s="8">
+        <v>11300</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" s="8">
+        <v>11301</v>
+      </c>
+      <c r="F84" s="10">
+        <v>0</v>
+      </c>
+      <c r="G84" s="10">
+        <v>0</v>
+      </c>
+      <c r="H84" s="10">
+        <v>1</v>
+      </c>
+      <c r="I84" s="11">
+        <v>100</v>
+      </c>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C85" s="8">
+        <v>11301</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="8">
+        <v>11302</v>
+      </c>
+      <c r="F85" s="10">
+        <v>1</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
+      <c r="H85" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I85" s="11">
+        <v>220.00000000000003</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K85" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C86" s="8">
+        <v>11302</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" s="8">
+        <v>11303</v>
+      </c>
+      <c r="F86" s="10">
+        <v>2</v>
+      </c>
+      <c r="G86" s="10">
+        <v>0</v>
+      </c>
+      <c r="H86" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I86" s="11">
+        <v>375</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K86" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C87" s="8">
+        <v>11303</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" s="8">
+        <v>11304</v>
+      </c>
+      <c r="F87" s="10">
+        <v>3</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0</v>
+      </c>
+      <c r="H87" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I87" s="11">
+        <v>560</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K87" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C88" s="8">
+        <v>11304</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E88" s="8">
+        <v>11305</v>
+      </c>
+      <c r="F88" s="10">
+        <v>4</v>
+      </c>
+      <c r="G88" s="10">
+        <v>0</v>
+      </c>
+      <c r="H88" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I88" s="11">
+        <v>775</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K88" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C89" s="8">
+        <v>11305</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" s="8">
+        <v>11306</v>
+      </c>
+      <c r="F89" s="10">
+        <v>1</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0</v>
+      </c>
+      <c r="H89" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I89" s="11">
+        <v>1020</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K89" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C90" s="8">
+        <v>11306</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E90" s="8">
+        <v>11307</v>
+      </c>
+      <c r="F90" s="10">
+        <v>2</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0</v>
+      </c>
+      <c r="H90" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I90" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K90" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C91" s="8">
+        <v>11307</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" s="8">
+        <v>11308</v>
+      </c>
+      <c r="F91" s="10">
+        <v>3</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I91" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K91" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C92" s="8">
+        <v>11308</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" s="8">
+        <v>11309</v>
+      </c>
+      <c r="F92" s="10">
+        <v>4</v>
+      </c>
+      <c r="G92" s="10">
+        <v>0</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I92" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J92" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K92" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C93" s="8">
+        <v>11309</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="8">
+        <v>11310</v>
+      </c>
+      <c r="F93" s="10">
+        <v>3</v>
+      </c>
+      <c r="G93" s="10">
+        <v>0</v>
+      </c>
+      <c r="H93" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I93" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K93" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C94" s="8">
+        <v>11310</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="8">
+        <v>11311</v>
+      </c>
+      <c r="F94" s="10">
+        <v>4</v>
+      </c>
+      <c r="G94" s="10">
+        <v>0</v>
+      </c>
+      <c r="H94" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K94" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C95" s="8">
+        <v>11311</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="8">
+        <v>11312</v>
+      </c>
+      <c r="F95" s="10">
+        <v>4</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0</v>
+      </c>
+      <c r="H95" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K95" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C96" s="8">
+        <v>11312</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="8">
+        <v>0</v>
+      </c>
+      <c r="F96" s="10">
+        <v>4</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0</v>
+      </c>
+      <c r="H96" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K96" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C97" s="8">
+        <v>11400</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" s="8">
+        <v>11401</v>
+      </c>
+      <c r="F97" s="10">
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="10">
+        <v>1</v>
+      </c>
+      <c r="I97" s="11">
+        <v>100</v>
+      </c>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C98" s="8">
+        <v>11401</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E98" s="8">
+        <v>11402</v>
+      </c>
+      <c r="F98" s="10">
+        <v>1</v>
+      </c>
+      <c r="G98" s="10">
+        <v>0</v>
+      </c>
+      <c r="H98" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I98" s="11">
+        <v>220.00000000000003</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K98" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C99" s="8">
+        <v>11402</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" s="8">
+        <v>11403</v>
+      </c>
+      <c r="F99" s="10">
+        <v>2</v>
+      </c>
+      <c r="G99" s="10">
+        <v>0</v>
+      </c>
+      <c r="H99" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I99" s="11">
+        <v>375</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K99" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C100" s="8">
+        <v>11403</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="8">
+        <v>11404</v>
+      </c>
+      <c r="F100" s="10">
+        <v>3</v>
+      </c>
+      <c r="G100" s="10">
+        <v>0</v>
+      </c>
+      <c r="H100" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I100" s="11">
+        <v>560</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K100" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C101" s="8">
+        <v>11404</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="8">
+        <v>11405</v>
+      </c>
+      <c r="F101" s="10">
+        <v>4</v>
+      </c>
+      <c r="G101" s="10">
+        <v>0</v>
+      </c>
+      <c r="H101" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I101" s="11">
+        <v>775</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K101" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C102" s="8">
+        <v>11405</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E102" s="8">
+        <v>11406</v>
+      </c>
+      <c r="F102" s="10">
+        <v>0</v>
+      </c>
+      <c r="G102" s="10">
+        <v>0</v>
+      </c>
+      <c r="H102" s="10">
+        <v>1</v>
+      </c>
+      <c r="I102" s="11">
+        <v>1020</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K102" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C103" s="8">
+        <v>11406</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E103" s="8">
+        <v>11407</v>
+      </c>
+      <c r="F103" s="10">
+        <v>1</v>
+      </c>
+      <c r="G103" s="10">
+        <v>0</v>
+      </c>
+      <c r="H103" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I103" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K103" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C104" s="8">
+        <v>11407</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E104" s="8">
+        <v>11408</v>
+      </c>
+      <c r="F104" s="10">
+        <v>2</v>
+      </c>
+      <c r="G104" s="10">
+        <v>0</v>
+      </c>
+      <c r="H104" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I104" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K104" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C105" s="8">
+        <v>11408</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="8">
+        <v>11409</v>
+      </c>
+      <c r="F105" s="10">
+        <v>3</v>
+      </c>
+      <c r="G105" s="10">
+        <v>0</v>
+      </c>
+      <c r="H105" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I105" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K105" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C106" s="8">
+        <v>11409</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E106" s="8">
+        <v>11410</v>
+      </c>
+      <c r="F106" s="10">
+        <v>4</v>
+      </c>
+      <c r="G106" s="10">
+        <v>0</v>
+      </c>
+      <c r="H106" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I106" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K106" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C107" s="8">
+        <v>11410</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="8">
+        <v>11411</v>
+      </c>
+      <c r="F107" s="10">
+        <v>3</v>
+      </c>
+      <c r="G107" s="10">
+        <v>0</v>
+      </c>
+      <c r="H107" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K107" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C108" s="8">
+        <v>11411</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E108" s="8">
+        <v>11412</v>
+      </c>
+      <c r="F108" s="10">
+        <v>3</v>
+      </c>
+      <c r="G108" s="10">
+        <v>0</v>
+      </c>
+      <c r="H108" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K108" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" ht="13.5" customHeight="1">
+      <c r="C109" s="8">
+        <v>11412</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E109" s="8">
+        <v>0</v>
+      </c>
+      <c r="F109" s="10">
+        <v>3</v>
+      </c>
+      <c r="G109" s="10">
+        <v>0</v>
+      </c>
+      <c r="H109" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K109" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233719D-06D4-462C-9523-38A6D573FF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70163E2F-B423-4822-8B32-F311370D5FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="224">
   <si>
     <t>Id</t>
   </si>
@@ -1157,50 +1157,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>宠物生命修炼0级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物生命修炼1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物生命修炼2级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物生命修炼3级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物生命修炼4级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物生命修炼5级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物生命修炼6级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物生命修炼7级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物生命修炼8级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物生命修炼9级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物生命修炼10级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物防御修炼0级</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1294,6 +1250,216 @@
   </si>
   <si>
     <t>宠物法防修炼12级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130103;50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130103;100</t>
+  </si>
+  <si>
+    <t>130103;200</t>
+  </si>
+  <si>
+    <t>130103;350</t>
+  </si>
+  <si>
+    <t>130103;500</t>
+  </si>
+  <si>
+    <t>130103;700</t>
+  </si>
+  <si>
+    <t>130103;900</t>
+  </si>
+  <si>
+    <t>130103;1200</t>
+  </si>
+  <si>
+    <t>130103;1500</t>
+  </si>
+  <si>
+    <t>130103;1800</t>
+  </si>
+  <si>
+    <t>130103;2100</t>
+  </si>
+  <si>
+    <t>130103;2400</t>
+  </si>
+  <si>
+    <t>130003;50</t>
+  </si>
+  <si>
+    <t>130003;100</t>
+  </si>
+  <si>
+    <t>130003;200</t>
+  </si>
+  <si>
+    <t>130003;350</t>
+  </si>
+  <si>
+    <t>130003;500</t>
+  </si>
+  <si>
+    <t>130003;700</t>
+  </si>
+  <si>
+    <t>130003;900</t>
+  </si>
+  <si>
+    <t>130003;1200</t>
+  </si>
+  <si>
+    <t>130003;1500</t>
+  </si>
+  <si>
+    <t>130003;1800</t>
+  </si>
+  <si>
+    <t>130003;2100</t>
+  </si>
+  <si>
+    <t>130003;2400</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼0级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼1级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼2级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼3级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼4级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼5级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼6级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼7级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼8级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼9级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼10级</t>
+  </si>
+  <si>
+    <t>130203;50</t>
+  </si>
+  <si>
+    <t>130203;100</t>
+  </si>
+  <si>
+    <t>130203;200</t>
+  </si>
+  <si>
+    <t>130203;350</t>
+  </si>
+  <si>
+    <t>130203;500</t>
+  </si>
+  <si>
+    <t>130203;700</t>
+  </si>
+  <si>
+    <t>130203;900</t>
+  </si>
+  <si>
+    <t>130203;1200</t>
+  </si>
+  <si>
+    <t>130203;1500</t>
+  </si>
+  <si>
+    <t>130203;1800</t>
+  </si>
+  <si>
+    <t>130203;2100</t>
+  </si>
+  <si>
+    <t>130203;2400</t>
+  </si>
+  <si>
+    <t>130303;50</t>
+  </si>
+  <si>
+    <t>130303;100</t>
+  </si>
+  <si>
+    <t>130303;200</t>
+  </si>
+  <si>
+    <t>130303;350</t>
+  </si>
+  <si>
+    <t>130303;500</t>
+  </si>
+  <si>
+    <t>130303;700</t>
+  </si>
+  <si>
+    <t>130303;900</t>
+  </si>
+  <si>
+    <t>130303;1200</t>
+  </si>
+  <si>
+    <t>130303;1500</t>
+  </si>
+  <si>
+    <t>130303;1800</t>
+  </si>
+  <si>
+    <t>130303;2100</t>
+  </si>
+  <si>
+    <t>130303;2400</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼11级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物魔法修炼12级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼11级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物防御修炼12级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御修炼11级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御修炼12级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命修炼11级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命修炼12级</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2673,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IC109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3491,7 +3657,7 @@
         <v>10211</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="E30" s="8">
         <v>10212</v>
@@ -3521,7 +3687,7 @@
         <v>10212</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
@@ -3876,7 +4042,7 @@
         <v>10311</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="E43" s="8">
         <v>10312</v>
@@ -3906,7 +4072,7 @@
         <v>10312</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
@@ -4365,7 +4531,7 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="K59" s="10">
         <v>0.05</v>
@@ -4394,7 +4560,7 @@
         <v>375</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="K60" s="10">
         <v>0.04</v>
@@ -4423,7 +4589,7 @@
         <v>560</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="K61" s="10">
         <v>0.04</v>
@@ -4452,7 +4618,7 @@
         <v>775</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="K62" s="10">
         <v>0.04</v>
@@ -4481,13 +4647,13 @@
         <v>1020</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="K63" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="3:237" ht="13.5" customHeight="1">
+    <row r="64" spans="3:237" ht="20.100000000000001" customHeight="1">
       <c r="C64" s="8">
         <v>11106</v>
       </c>
@@ -4510,13 +4676,13 @@
         <v>1330</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="K64" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="3:11" ht="13.5" customHeight="1">
+    <row r="65" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C65" s="8">
         <v>11107</v>
       </c>
@@ -4539,13 +4705,13 @@
         <v>1680</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="K65" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="66" spans="3:11" ht="13.5" customHeight="1">
+    <row r="66" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C66" s="8">
         <v>11108</v>
       </c>
@@ -4568,13 +4734,13 @@
         <v>2070</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="K66" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="67" spans="3:11" ht="13.5" customHeight="1">
+    <row r="67" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C67" s="8">
         <v>11109</v>
       </c>
@@ -4597,13 +4763,13 @@
         <v>2500</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="K67" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="13.5" customHeight="1">
+    <row r="68" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C68" s="8">
         <v>11110</v>
       </c>
@@ -4626,13 +4792,13 @@
         <v>110</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="K68" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="69" spans="3:11" ht="13.5" customHeight="1">
+    <row r="69" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C69" s="8">
         <v>11111</v>
       </c>
@@ -4655,13 +4821,13 @@
         <v>111</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="K69" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="70" spans="3:11" ht="13.5" customHeight="1">
+    <row r="70" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C70" s="8">
         <v>11112</v>
       </c>
@@ -4684,18 +4850,18 @@
         <v>105</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="K70" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="71" spans="3:11" ht="13.5" customHeight="1">
+    <row r="71" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C71" s="8">
         <v>11200</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="E71" s="8">
         <v>11201</v>
@@ -4717,12 +4883,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="3:11" ht="13.5" customHeight="1">
+    <row r="72" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C72" s="8">
         <v>11201</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E72" s="8">
         <v>11202</v>
@@ -4740,18 +4906,18 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="K72" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="3:11" ht="13.5" customHeight="1">
+    <row r="73" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C73" s="8">
         <v>11202</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="E73" s="8">
         <v>11203</v>
@@ -4769,18 +4935,18 @@
         <v>375</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="K73" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="74" spans="3:11" ht="13.5" customHeight="1">
+    <row r="74" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C74" s="8">
         <v>11203</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="E74" s="8">
         <v>11204</v>
@@ -4798,18 +4964,18 @@
         <v>560</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="K74" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="75" spans="3:11" ht="13.5" customHeight="1">
+    <row r="75" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C75" s="8">
         <v>11204</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="E75" s="8">
         <v>11205</v>
@@ -4827,18 +4993,18 @@
         <v>775</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="K75" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="76" spans="3:11" ht="13.5" customHeight="1">
+    <row r="76" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C76" s="8">
         <v>11205</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="E76" s="8">
         <v>11206</v>
@@ -4856,18 +5022,18 @@
         <v>1020</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="K76" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="3:11" ht="13.5" customHeight="1">
+    <row r="77" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C77" s="8">
         <v>11206</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E77" s="8">
         <v>11207</v>
@@ -4885,18 +5051,18 @@
         <v>1330</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="K77" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="3:11" ht="13.5" customHeight="1">
+    <row r="78" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C78" s="8">
         <v>11207</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="E78" s="8">
         <v>11208</v>
@@ -4914,18 +5080,18 @@
         <v>1680</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="K78" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="79" spans="3:11" ht="13.5" customHeight="1">
+    <row r="79" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C79" s="8">
         <v>11208</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="E79" s="8">
         <v>11209</v>
@@ -4943,18 +5109,18 @@
         <v>2070</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="K79" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="80" spans="3:11" ht="13.5" customHeight="1">
+    <row r="80" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="8">
         <v>11209</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="E80" s="8">
         <v>11210</v>
@@ -4972,18 +5138,18 @@
         <v>2500</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="K80" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="3:11" ht="13.5" customHeight="1">
+    <row r="81" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="8">
         <v>11210</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="E81" s="8">
         <v>11211</v>
@@ -5001,18 +5167,18 @@
         <v>110</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="K81" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="3:11" ht="13.5" customHeight="1">
+    <row r="82" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="8">
         <v>11211</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="E82" s="8">
         <v>11212</v>
@@ -5030,18 +5196,18 @@
         <v>111</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="K82" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="83" spans="3:11" ht="13.5" customHeight="1">
+    <row r="83" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C83" s="8">
         <v>11212</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="E83" s="8">
         <v>0</v>
@@ -5059,18 +5225,18 @@
         <v>105</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="K83" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="84" spans="3:11" ht="13.5" customHeight="1">
+    <row r="84" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="8">
         <v>11300</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E84" s="8">
         <v>11301</v>
@@ -5092,12 +5258,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="3:11" ht="13.5" customHeight="1">
+    <row r="85" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="8">
         <v>11301</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E85" s="8">
         <v>11302</v>
@@ -5115,18 +5281,18 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="K85" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="86" spans="3:11" ht="13.5" customHeight="1">
+    <row r="86" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="8">
         <v>11302</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E86" s="8">
         <v>11303</v>
@@ -5144,18 +5310,18 @@
         <v>375</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="K86" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="87" spans="3:11" ht="13.5" customHeight="1">
+    <row r="87" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C87" s="8">
         <v>11303</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E87" s="8">
         <v>11304</v>
@@ -5173,18 +5339,18 @@
         <v>560</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="K87" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="88" spans="3:11" ht="13.5" customHeight="1">
+    <row r="88" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="8">
         <v>11304</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E88" s="8">
         <v>11305</v>
@@ -5202,18 +5368,18 @@
         <v>775</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="K88" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="89" spans="3:11" ht="13.5" customHeight="1">
+    <row r="89" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="8">
         <v>11305</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E89" s="8">
         <v>11306</v>
@@ -5231,18 +5397,18 @@
         <v>1020</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="K89" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="3:11" ht="13.5" customHeight="1">
+    <row r="90" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="8">
         <v>11306</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E90" s="8">
         <v>11307</v>
@@ -5260,18 +5426,18 @@
         <v>1330</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="K90" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="91" spans="3:11" ht="13.5" customHeight="1">
+    <row r="91" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C91" s="8">
         <v>11307</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E91" s="8">
         <v>11308</v>
@@ -5289,18 +5455,18 @@
         <v>1680</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="K91" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="92" spans="3:11" ht="13.5" customHeight="1">
+    <row r="92" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="8">
         <v>11308</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E92" s="8">
         <v>11309</v>
@@ -5318,18 +5484,18 @@
         <v>2070</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="K92" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="93" spans="3:11" ht="13.5" customHeight="1">
+    <row r="93" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C93" s="8">
         <v>11309</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E93" s="8">
         <v>11310</v>
@@ -5347,18 +5513,18 @@
         <v>2500</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="K93" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="94" spans="3:11" ht="13.5" customHeight="1">
+    <row r="94" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C94" s="8">
         <v>11310</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E94" s="8">
         <v>11311</v>
@@ -5376,18 +5542,18 @@
         <v>110</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="K94" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="95" spans="3:11" ht="13.5" customHeight="1">
+    <row r="95" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="8">
         <v>11311</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="E95" s="8">
         <v>11312</v>
@@ -5405,18 +5571,18 @@
         <v>111</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="K95" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="96" spans="3:11" ht="13.5" customHeight="1">
+    <row r="96" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C96" s="8">
         <v>11312</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="E96" s="8">
         <v>0</v>
@@ -5434,18 +5600,18 @@
         <v>105</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="K96" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="97" spans="3:11" ht="13.5" customHeight="1">
+    <row r="97" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C97" s="8">
         <v>11400</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E97" s="8">
         <v>11401</v>
@@ -5467,12 +5633,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="98" spans="3:11" ht="13.5" customHeight="1">
+    <row r="98" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C98" s="8">
         <v>11401</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E98" s="8">
         <v>11402</v>
@@ -5490,18 +5656,18 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="K98" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="99" spans="3:11" ht="13.5" customHeight="1">
+    <row r="99" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C99" s="8">
         <v>11402</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E99" s="8">
         <v>11403</v>
@@ -5519,18 +5685,18 @@
         <v>375</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="K99" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="100" spans="3:11" ht="13.5" customHeight="1">
+    <row r="100" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C100" s="8">
         <v>11403</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E100" s="8">
         <v>11404</v>
@@ -5548,18 +5714,18 @@
         <v>560</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="K100" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="101" spans="3:11" ht="13.5" customHeight="1">
+    <row r="101" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C101" s="8">
         <v>11404</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E101" s="8">
         <v>11405</v>
@@ -5577,18 +5743,18 @@
         <v>775</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="K101" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="102" spans="3:11" ht="13.5" customHeight="1">
+    <row r="102" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C102" s="8">
         <v>11405</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E102" s="8">
         <v>11406</v>
@@ -5606,18 +5772,18 @@
         <v>1020</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="K102" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="103" spans="3:11" ht="13.5" customHeight="1">
+    <row r="103" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C103" s="8">
         <v>11406</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E103" s="8">
         <v>11407</v>
@@ -5635,18 +5801,18 @@
         <v>1330</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="K103" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="104" spans="3:11" ht="13.5" customHeight="1">
+    <row r="104" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C104" s="8">
         <v>11407</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E104" s="8">
         <v>11408</v>
@@ -5664,18 +5830,18 @@
         <v>1680</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="K104" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="105" spans="3:11" ht="13.5" customHeight="1">
+    <row r="105" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C105" s="8">
         <v>11408</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E105" s="8">
         <v>11409</v>
@@ -5693,18 +5859,18 @@
         <v>2070</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="K105" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="106" spans="3:11" ht="13.5" customHeight="1">
+    <row r="106" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C106" s="8">
         <v>11409</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E106" s="8">
         <v>11410</v>
@@ -5722,18 +5888,18 @@
         <v>2500</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="K106" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="107" spans="3:11" ht="13.5" customHeight="1">
+    <row r="107" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C107" s="8">
         <v>11410</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E107" s="8">
         <v>11411</v>
@@ -5751,18 +5917,18 @@
         <v>110</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="K107" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="108" spans="3:11" ht="13.5" customHeight="1">
+    <row r="108" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C108" s="8">
         <v>11411</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E108" s="8">
         <v>11412</v>
@@ -5780,18 +5946,18 @@
         <v>111</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="K108" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="109" spans="3:11" ht="13.5" customHeight="1">
+    <row r="109" spans="3:11" ht="20.100000000000001" customHeight="1">
       <c r="C109" s="8">
         <v>11412</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E109" s="8">
         <v>0</v>
@@ -5809,7 +5975,7 @@
         <v>105</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="K109" s="10">
         <v>0.04</v>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70163E2F-B423-4822-8B32-F311370D5FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D5390-3945-454A-9440-2D53095A4BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{EF19219C-E3B7-4A42-8DB2-560FC2D8C0FD}">
       <text>
         <r>
           <rPr>
@@ -579,7 +579,560 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10.生命值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">11.物理攻击       
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">14.魔法攻击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">17.物理防御        
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20.魔法防御
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">30.暴击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">31.命中
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">32.闪避
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">33.物理免伤
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">34.魔法免伤
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">35.移动速度
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">36.伤害减免
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">50:血量百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">51：物攻百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">52：魔攻百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">53：物防百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">54：魔防百分比
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">101：格挡值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">111：重击概率
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">112:  重击附加伤害值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">121:  每次普通攻击附加的伤害值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">131:  忽视目标防御值   
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">132:  忽视目标魔防值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">133:  忽视目标百分比防御值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">134:  忽视目标百分比魔防值
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">141:  吸血概率
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">151:  法术反击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">152:  攻击反击
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">161：韧性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">201：初始暴击等级
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">202：初始韧性等级
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">203：初始命中等级
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">204：初始闪避等级
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">301:光抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">302:暗抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">303:火抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">304:水抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">305:电抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">321：//野兽攻击抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">322：//人物攻击抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">323：//恶魔攻击抗性
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">401：//经验加成
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">402：//金币加成
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">403：//洗炼极品掉落
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">404：//隐藏属性出现概率
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>405：//装备上的宝石槽位出现概率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -717,7 +1270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="228">
   <si>
     <t>Id</t>
   </si>
@@ -1460,6 +2013,21 @@
   </si>
   <si>
     <t>生命修炼12级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100</t>
+  </si>
+  <si>
+    <t>1;100</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2837,26 +3405,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:IC109"/>
+  <dimension ref="C1:ID109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="O105" sqref="O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="9" width="14.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.75" style="3" customWidth="1"/>
-    <col min="12" max="237" width="8.875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="24.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.75" style="3" customWidth="1"/>
+    <col min="13" max="238" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:237" s="1" customFormat="1" ht="14.25"/>
-    <row r="2" spans="3:237" ht="13.5" customHeight="1">
+    <row r="1" spans="3:238" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" spans="3:238" ht="13.5" customHeight="1">
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2879,13 +3447,16 @@
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2908,13 +3479,16 @@
         <v>22</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
@@ -2940,10 +3514,13 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="8">
         <v>10100</v>
       </c>
@@ -2965,12 +3542,15 @@
       <c r="I6" s="11">
         <v>100</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10">
+      <c r="J6" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="8">
         <v>10101</v>
       </c>
@@ -2993,13 +3573,16 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J7" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="8">
         <v>10102</v>
       </c>
@@ -3022,14 +3605,17 @@
         <v>375</v>
       </c>
       <c r="J8" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC8"/>
-    </row>
-    <row r="9" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L8" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID8"/>
+    </row>
+    <row r="9" spans="3:238" ht="19.5" customHeight="1">
       <c r="C9" s="8">
         <v>10103</v>
       </c>
@@ -3052,14 +3638,17 @@
         <v>560</v>
       </c>
       <c r="J9" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC9"/>
-    </row>
-    <row r="10" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L9" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID9"/>
+    </row>
+    <row r="10" spans="3:238" ht="19.5" customHeight="1">
       <c r="C10" s="8">
         <v>10104</v>
       </c>
@@ -3082,14 +3671,17 @@
         <v>775</v>
       </c>
       <c r="J10" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC10"/>
-    </row>
-    <row r="11" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="L10" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID10"/>
+    </row>
+    <row r="11" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="8">
         <v>10105</v>
       </c>
@@ -3112,13 +3704,16 @@
         <v>1020</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="8">
         <v>10106</v>
       </c>
@@ -3141,14 +3736,17 @@
         <v>1330</v>
       </c>
       <c r="J12" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC12"/>
-    </row>
-    <row r="13" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L12" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID12"/>
+    </row>
+    <row r="13" spans="3:238" ht="19.5" customHeight="1">
       <c r="C13" s="8">
         <v>10107</v>
       </c>
@@ -3171,14 +3769,17 @@
         <v>1680</v>
       </c>
       <c r="J13" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC13"/>
-    </row>
-    <row r="14" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L13" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID13"/>
+    </row>
+    <row r="14" spans="3:238" ht="19.5" customHeight="1">
       <c r="C14" s="8">
         <v>10108</v>
       </c>
@@ -3201,14 +3802,17 @@
         <v>2070</v>
       </c>
       <c r="J14" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC14"/>
-    </row>
-    <row r="15" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L14" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID14"/>
+    </row>
+    <row r="15" spans="3:238" ht="19.5" customHeight="1">
       <c r="C15" s="8">
         <v>10109</v>
       </c>
@@ -3231,14 +3835,17 @@
         <v>2500</v>
       </c>
       <c r="J15" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC15"/>
-    </row>
-    <row r="16" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L15" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID15"/>
+    </row>
+    <row r="16" spans="3:238" ht="19.5" customHeight="1">
       <c r="C16" s="8">
         <v>10110</v>
       </c>
@@ -3261,14 +3868,17 @@
         <v>110</v>
       </c>
       <c r="J16" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC16"/>
-    </row>
-    <row r="17" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L16" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID16"/>
+    </row>
+    <row r="17" spans="3:238" ht="19.5" customHeight="1">
       <c r="C17" s="8">
         <v>10111</v>
       </c>
@@ -3291,14 +3901,17 @@
         <v>111</v>
       </c>
       <c r="J17" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC17"/>
-    </row>
-    <row r="18" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L17" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID17"/>
+    </row>
+    <row r="18" spans="3:238" ht="19.5" customHeight="1">
       <c r="C18" s="8">
         <v>10112</v>
       </c>
@@ -3321,14 +3934,17 @@
         <v>105</v>
       </c>
       <c r="J18" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC18"/>
-    </row>
-    <row r="19" spans="3:237" ht="22.5" customHeight="1">
+      <c r="L18" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID18"/>
+    </row>
+    <row r="19" spans="3:238" ht="22.5" customHeight="1">
       <c r="C19" s="8">
         <v>10200</v>
       </c>
@@ -3350,12 +3966,15 @@
       <c r="I19" s="11">
         <v>100</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10">
+      <c r="J19" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="8">
         <v>10201</v>
       </c>
@@ -3378,13 +3997,16 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J20" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="10">
+      <c r="L20" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="8">
         <v>10202</v>
       </c>
@@ -3407,14 +4029,17 @@
         <v>375</v>
       </c>
       <c r="J21" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K21" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC21"/>
-    </row>
-    <row r="22" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L21" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID21"/>
+    </row>
+    <row r="22" spans="3:238" ht="19.5" customHeight="1">
       <c r="C22" s="8">
         <v>10203</v>
       </c>
@@ -3437,14 +4062,17 @@
         <v>560</v>
       </c>
       <c r="J22" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K22" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC22"/>
-    </row>
-    <row r="23" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L22" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID22"/>
+    </row>
+    <row r="23" spans="3:238" ht="19.5" customHeight="1">
       <c r="C23" s="8">
         <v>10204</v>
       </c>
@@ -3467,14 +4095,17 @@
         <v>775</v>
       </c>
       <c r="J23" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC23"/>
-    </row>
-    <row r="24" spans="3:237" ht="22.5" customHeight="1">
+      <c r="L23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID23"/>
+    </row>
+    <row r="24" spans="3:238" ht="22.5" customHeight="1">
       <c r="C24" s="8">
         <v>10205</v>
       </c>
@@ -3497,13 +4128,16 @@
         <v>1020</v>
       </c>
       <c r="J24" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="10">
+      <c r="L24" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="8">
         <v>10206</v>
       </c>
@@ -3526,13 +4160,16 @@
         <v>1330</v>
       </c>
       <c r="J25" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K25" s="10">
+      <c r="L25" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="8">
         <v>10207</v>
       </c>
@@ -3555,14 +4192,17 @@
         <v>1680</v>
       </c>
       <c r="J26" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC26"/>
-    </row>
-    <row r="27" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L26" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID26"/>
+    </row>
+    <row r="27" spans="3:238" ht="19.5" customHeight="1">
       <c r="C27" s="8">
         <v>10208</v>
       </c>
@@ -3585,14 +4225,17 @@
         <v>2070</v>
       </c>
       <c r="J27" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC27"/>
-    </row>
-    <row r="28" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L27" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID27"/>
+    </row>
+    <row r="28" spans="3:238" ht="19.5" customHeight="1">
       <c r="C28" s="8">
         <v>10209</v>
       </c>
@@ -3615,14 +4258,17 @@
         <v>2500</v>
       </c>
       <c r="J28" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC28"/>
-    </row>
-    <row r="29" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L28" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID28"/>
+    </row>
+    <row r="29" spans="3:238" ht="19.5" customHeight="1">
       <c r="C29" s="8">
         <v>10210</v>
       </c>
@@ -3645,14 +4291,17 @@
         <v>110</v>
       </c>
       <c r="J29" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K29" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC29"/>
-    </row>
-    <row r="30" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L29" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID29"/>
+    </row>
+    <row r="30" spans="3:238" ht="19.5" customHeight="1">
       <c r="C30" s="8">
         <v>10211</v>
       </c>
@@ -3675,14 +4324,17 @@
         <v>111</v>
       </c>
       <c r="J30" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="K30" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC30"/>
-    </row>
-    <row r="31" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L30" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID30"/>
+    </row>
+    <row r="31" spans="3:238" ht="19.5" customHeight="1">
       <c r="C31" s="8">
         <v>10212</v>
       </c>
@@ -3705,14 +4357,17 @@
         <v>105</v>
       </c>
       <c r="J31" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="K31" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC31"/>
-    </row>
-    <row r="32" spans="3:237" ht="22.5" customHeight="1">
+      <c r="L31" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID31"/>
+    </row>
+    <row r="32" spans="3:238" ht="22.5" customHeight="1">
       <c r="C32" s="8">
         <v>10300</v>
       </c>
@@ -3734,12 +4389,15 @@
       <c r="I32" s="11">
         <v>100</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10">
+      <c r="J32" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="8">
         <v>10301</v>
       </c>
@@ -3762,13 +4420,16 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J33" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K33" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K33" s="10">
+      <c r="L33" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="8">
         <v>10302</v>
       </c>
@@ -3791,14 +4452,17 @@
         <v>375</v>
       </c>
       <c r="J34" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K34" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC34"/>
-    </row>
-    <row r="35" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L34" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID34"/>
+    </row>
+    <row r="35" spans="3:238" ht="19.5" customHeight="1">
       <c r="C35" s="8">
         <v>10303</v>
       </c>
@@ -3821,14 +4485,17 @@
         <v>560</v>
       </c>
       <c r="J35" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K35" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC35"/>
-    </row>
-    <row r="36" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L35" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID35"/>
+    </row>
+    <row r="36" spans="3:238" ht="19.5" customHeight="1">
       <c r="C36" s="8">
         <v>10304</v>
       </c>
@@ -3851,14 +4518,17 @@
         <v>775</v>
       </c>
       <c r="J36" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K36" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K36" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC36"/>
-    </row>
-    <row r="37" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="L36" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID36"/>
+    </row>
+    <row r="37" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="8">
         <v>10305</v>
       </c>
@@ -3881,13 +4551,16 @@
         <v>1020</v>
       </c>
       <c r="J37" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K37" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K37" s="10">
+      <c r="L37" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="8">
         <v>10306</v>
       </c>
@@ -3910,14 +4583,17 @@
         <v>1330</v>
       </c>
       <c r="J38" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K38" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="K38" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC38"/>
-    </row>
-    <row r="39" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L38" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID38"/>
+    </row>
+    <row r="39" spans="3:238" ht="19.5" customHeight="1">
       <c r="C39" s="8">
         <v>10307</v>
       </c>
@@ -3940,14 +4616,17 @@
         <v>1680</v>
       </c>
       <c r="J39" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC39"/>
-    </row>
-    <row r="40" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L39" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID39"/>
+    </row>
+    <row r="40" spans="3:238" ht="19.5" customHeight="1">
       <c r="C40" s="8">
         <v>10308</v>
       </c>
@@ -3970,14 +4649,17 @@
         <v>2070</v>
       </c>
       <c r="J40" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="K40" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC40"/>
-    </row>
-    <row r="41" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L40" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID40"/>
+    </row>
+    <row r="41" spans="3:238" ht="19.5" customHeight="1">
       <c r="C41" s="8">
         <v>10309</v>
       </c>
@@ -4000,14 +4682,17 @@
         <v>2500</v>
       </c>
       <c r="J41" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K41" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC41"/>
-    </row>
-    <row r="42" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L41" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID41"/>
+    </row>
+    <row r="42" spans="3:238" ht="19.5" customHeight="1">
       <c r="C42" s="8">
         <v>10310</v>
       </c>
@@ -4030,14 +4715,17 @@
         <v>110</v>
       </c>
       <c r="J42" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="K42" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC42"/>
-    </row>
-    <row r="43" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L42" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID42"/>
+    </row>
+    <row r="43" spans="3:238" ht="19.5" customHeight="1">
       <c r="C43" s="8">
         <v>10311</v>
       </c>
@@ -4060,14 +4748,17 @@
         <v>111</v>
       </c>
       <c r="J43" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K43" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K43" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC43"/>
-    </row>
-    <row r="44" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L43" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID43"/>
+    </row>
+    <row r="44" spans="3:238" ht="19.5" customHeight="1">
       <c r="C44" s="8">
         <v>10312</v>
       </c>
@@ -4090,14 +4781,17 @@
         <v>105</v>
       </c>
       <c r="J44" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K44" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="K44" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC44"/>
-    </row>
-    <row r="45" spans="3:237" ht="22.5" customHeight="1">
+      <c r="L44" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID44"/>
+    </row>
+    <row r="45" spans="3:238" ht="22.5" customHeight="1">
       <c r="C45" s="8">
         <v>10400</v>
       </c>
@@ -4119,12 +4813,15 @@
       <c r="I45" s="11">
         <v>100</v>
       </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10">
+      <c r="J45" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="8">
         <v>10401</v>
       </c>
@@ -4147,13 +4844,16 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J46" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K46" s="10">
+      <c r="L46" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C47" s="8">
         <v>10402</v>
       </c>
@@ -4176,14 +4876,17 @@
         <v>375</v>
       </c>
       <c r="J47" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K47" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="K47" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC47"/>
-    </row>
-    <row r="48" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L47" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID47"/>
+    </row>
+    <row r="48" spans="3:238" ht="19.5" customHeight="1">
       <c r="C48" s="8">
         <v>10403</v>
       </c>
@@ -4206,14 +4909,17 @@
         <v>560</v>
       </c>
       <c r="J48" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="K48" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC48"/>
-    </row>
-    <row r="49" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L48" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID48"/>
+    </row>
+    <row r="49" spans="3:238" ht="19.5" customHeight="1">
       <c r="C49" s="8">
         <v>10404</v>
       </c>
@@ -4236,14 +4942,17 @@
         <v>775</v>
       </c>
       <c r="J49" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K49" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="K49" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC49"/>
-    </row>
-    <row r="50" spans="3:237" ht="22.5" customHeight="1">
+      <c r="L49" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID49"/>
+    </row>
+    <row r="50" spans="3:238" ht="22.5" customHeight="1">
       <c r="C50" s="8">
         <v>10405</v>
       </c>
@@ -4266,13 +4975,16 @@
         <v>1020</v>
       </c>
       <c r="J50" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K50" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="K50" s="10">
+      <c r="L50" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="8">
         <v>10406</v>
       </c>
@@ -4295,13 +5007,16 @@
         <v>1330</v>
       </c>
       <c r="J51" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K51" s="10">
+      <c r="L51" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="8">
         <v>10407</v>
       </c>
@@ -4324,14 +5039,17 @@
         <v>1680</v>
       </c>
       <c r="J52" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K52" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K52" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC52"/>
-    </row>
-    <row r="53" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L52" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID52"/>
+    </row>
+    <row r="53" spans="3:238" ht="19.5" customHeight="1">
       <c r="C53" s="8">
         <v>10408</v>
       </c>
@@ -4354,14 +5072,17 @@
         <v>2070</v>
       </c>
       <c r="J53" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K53" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="K53" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC53"/>
-    </row>
-    <row r="54" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L53" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID53"/>
+    </row>
+    <row r="54" spans="3:238" ht="19.5" customHeight="1">
       <c r="C54" s="8">
         <v>10409</v>
       </c>
@@ -4384,14 +5105,17 @@
         <v>2500</v>
       </c>
       <c r="J54" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="K54" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC54"/>
-    </row>
-    <row r="55" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L54" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID54"/>
+    </row>
+    <row r="55" spans="3:238" ht="19.5" customHeight="1">
       <c r="C55" s="8">
         <v>10410</v>
       </c>
@@ -4414,14 +5138,17 @@
         <v>110</v>
       </c>
       <c r="J55" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K55" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="K55" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC55"/>
-    </row>
-    <row r="56" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L55" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID55"/>
+    </row>
+    <row r="56" spans="3:238" ht="19.5" customHeight="1">
       <c r="C56" s="8">
         <v>10411</v>
       </c>
@@ -4444,14 +5171,17 @@
         <v>111</v>
       </c>
       <c r="J56" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K56" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K56" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC56"/>
-    </row>
-    <row r="57" spans="3:237" ht="19.5" customHeight="1">
+      <c r="L56" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID56"/>
+    </row>
+    <row r="57" spans="3:238" ht="19.5" customHeight="1">
       <c r="C57" s="8">
         <v>10412</v>
       </c>
@@ -4474,14 +5204,17 @@
         <v>105</v>
       </c>
       <c r="J57" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K57" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="K57" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="IC57"/>
-    </row>
-    <row r="58" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="L57" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID57"/>
+    </row>
+    <row r="58" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C58" s="8">
         <v>11100</v>
       </c>
@@ -4503,12 +5236,15 @@
       <c r="I58" s="11">
         <v>100</v>
       </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10">
+      <c r="J58" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C59" s="8">
         <v>11101</v>
       </c>
@@ -4531,13 +5267,16 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J59" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K59" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="K59" s="10">
+      <c r="L59" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C60" s="8">
         <v>11102</v>
       </c>
@@ -4560,13 +5299,16 @@
         <v>375</v>
       </c>
       <c r="J60" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K60" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="K60" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="61" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="L60" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="61" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C61" s="8">
         <v>11103</v>
       </c>
@@ -4589,13 +5331,16 @@
         <v>560</v>
       </c>
       <c r="J61" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K61" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K61" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="62" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="L61" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="62" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C62" s="8">
         <v>11104</v>
       </c>
@@ -4618,13 +5363,16 @@
         <v>775</v>
       </c>
       <c r="J62" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K62" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="K62" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="63" spans="3:237" ht="20.100000000000001" customHeight="1">
+      <c r="L62" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="63" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C63" s="8">
         <v>11105</v>
       </c>
@@ -4647,13 +5395,16 @@
         <v>1020</v>
       </c>
       <c r="J63" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K63" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K63" s="10">
+      <c r="L63" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="3:237" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C64" s="8">
         <v>11106</v>
       </c>
@@ -4676,13 +5427,16 @@
         <v>1330</v>
       </c>
       <c r="J64" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K64" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K64" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="65" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L64" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C65" s="8">
         <v>11107</v>
       </c>
@@ -4705,13 +5459,16 @@
         <v>1680</v>
       </c>
       <c r="J65" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K65" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="K65" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="66" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L65" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C66" s="8">
         <v>11108</v>
       </c>
@@ -4734,13 +5491,16 @@
         <v>2070</v>
       </c>
       <c r="J66" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K66" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="K66" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L66" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C67" s="8">
         <v>11109</v>
       </c>
@@ -4763,13 +5523,16 @@
         <v>2500</v>
       </c>
       <c r="J67" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K67" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="K67" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="68" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L67" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C68" s="8">
         <v>11110</v>
       </c>
@@ -4792,13 +5555,16 @@
         <v>110</v>
       </c>
       <c r="J68" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K68" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="K68" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="69" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L68" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C69" s="8">
         <v>11111</v>
       </c>
@@ -4821,13 +5587,16 @@
         <v>111</v>
       </c>
       <c r="J69" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K69" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="K69" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L69" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C70" s="8">
         <v>11112</v>
       </c>
@@ -4850,13 +5619,16 @@
         <v>105</v>
       </c>
       <c r="J70" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K70" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="K70" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="71" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L70" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C71" s="8">
         <v>11200</v>
       </c>
@@ -4878,12 +5650,15 @@
       <c r="I71" s="11">
         <v>100</v>
       </c>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10">
+      <c r="J71" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C72" s="8">
         <v>11201</v>
       </c>
@@ -4906,13 +5681,16 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J72" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K72" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="K72" s="10">
+      <c r="L72" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C73" s="8">
         <v>11202</v>
       </c>
@@ -4935,13 +5713,16 @@
         <v>375</v>
       </c>
       <c r="J73" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K73" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="K73" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="74" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L73" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C74" s="8">
         <v>11203</v>
       </c>
@@ -4964,13 +5745,16 @@
         <v>560</v>
       </c>
       <c r="J74" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K74" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="K74" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="75" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L74" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C75" s="8">
         <v>11204</v>
       </c>
@@ -4993,13 +5777,16 @@
         <v>775</v>
       </c>
       <c r="J75" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K75" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="K75" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="76" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L75" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C76" s="8">
         <v>11205</v>
       </c>
@@ -5022,13 +5809,16 @@
         <v>1020</v>
       </c>
       <c r="J76" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K76" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="K76" s="10">
+      <c r="L76" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C77" s="8">
         <v>11206</v>
       </c>
@@ -5051,13 +5841,16 @@
         <v>1330</v>
       </c>
       <c r="J77" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K77" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="K77" s="10">
+      <c r="L77" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C78" s="8">
         <v>11207</v>
       </c>
@@ -5080,13 +5873,16 @@
         <v>1680</v>
       </c>
       <c r="J78" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K78" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K78" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="79" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L78" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C79" s="8">
         <v>11208</v>
       </c>
@@ -5109,13 +5905,16 @@
         <v>2070</v>
       </c>
       <c r="J79" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K79" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K79" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="80" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L79" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="8">
         <v>11209</v>
       </c>
@@ -5138,13 +5937,16 @@
         <v>2500</v>
       </c>
       <c r="J80" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K80" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="K80" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L80" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="8">
         <v>11210</v>
       </c>
@@ -5167,13 +5969,16 @@
         <v>110</v>
       </c>
       <c r="J81" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K81" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K81" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L81" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="8">
         <v>11211</v>
       </c>
@@ -5196,13 +6001,16 @@
         <v>111</v>
       </c>
       <c r="J82" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K82" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="83" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L82" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C83" s="8">
         <v>11212</v>
       </c>
@@ -5225,13 +6033,16 @@
         <v>105</v>
       </c>
       <c r="J83" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K83" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="K83" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L83" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="8">
         <v>11300</v>
       </c>
@@ -5253,12 +6064,15 @@
       <c r="I84" s="11">
         <v>100</v>
       </c>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10">
+      <c r="J84" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="8">
         <v>11301</v>
       </c>
@@ -5281,13 +6095,16 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J85" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K85" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="K85" s="10">
+      <c r="L85" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="86" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="8">
         <v>11302</v>
       </c>
@@ -5310,13 +6127,16 @@
         <v>375</v>
       </c>
       <c r="J86" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K86" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="K86" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="87" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L86" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C87" s="8">
         <v>11303</v>
       </c>
@@ -5339,13 +6159,16 @@
         <v>560</v>
       </c>
       <c r="J87" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K87" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K87" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="88" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L87" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="8">
         <v>11304</v>
       </c>
@@ -5368,13 +6191,16 @@
         <v>775</v>
       </c>
       <c r="J88" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K88" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="K88" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="89" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L88" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="8">
         <v>11305</v>
       </c>
@@ -5397,13 +6223,16 @@
         <v>1020</v>
       </c>
       <c r="J89" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K89" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="K89" s="10">
+      <c r="L89" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="8">
         <v>11306</v>
       </c>
@@ -5426,13 +6255,16 @@
         <v>1330</v>
       </c>
       <c r="J90" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K90" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="K90" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="91" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L90" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C91" s="8">
         <v>11307</v>
       </c>
@@ -5455,13 +6287,16 @@
         <v>1680</v>
       </c>
       <c r="J91" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K91" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="K91" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L91" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="8">
         <v>11308</v>
       </c>
@@ -5484,13 +6319,16 @@
         <v>2070</v>
       </c>
       <c r="J92" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K92" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="K92" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="93" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L92" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C93" s="8">
         <v>11309</v>
       </c>
@@ -5513,13 +6351,16 @@
         <v>2500</v>
       </c>
       <c r="J93" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K93" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="K93" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="94" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L93" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C94" s="8">
         <v>11310</v>
       </c>
@@ -5542,13 +6383,16 @@
         <v>110</v>
       </c>
       <c r="J94" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K94" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="K94" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L94" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="8">
         <v>11311</v>
       </c>
@@ -5571,13 +6415,16 @@
         <v>111</v>
       </c>
       <c r="J95" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K95" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="K95" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="96" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L95" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C96" s="8">
         <v>11312</v>
       </c>
@@ -5600,13 +6447,16 @@
         <v>105</v>
       </c>
       <c r="J96" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K96" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="K96" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L96" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C97" s="8">
         <v>11400</v>
       </c>
@@ -5628,12 +6478,15 @@
       <c r="I97" s="11">
         <v>100</v>
       </c>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10">
+      <c r="J97" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="98" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C98" s="8">
         <v>11401</v>
       </c>
@@ -5656,13 +6509,16 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J98" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K98" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="K98" s="10">
+      <c r="L98" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="99" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C99" s="8">
         <v>11402</v>
       </c>
@@ -5685,13 +6541,16 @@
         <v>375</v>
       </c>
       <c r="J99" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K99" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="K99" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="100" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L99" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C100" s="8">
         <v>11403</v>
       </c>
@@ -5714,13 +6573,16 @@
         <v>560</v>
       </c>
       <c r="J100" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K100" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="K100" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L100" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C101" s="8">
         <v>11404</v>
       </c>
@@ -5743,13 +6605,16 @@
         <v>775</v>
       </c>
       <c r="J101" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K101" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="K101" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L101" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C102" s="8">
         <v>11405</v>
       </c>
@@ -5772,13 +6637,16 @@
         <v>1020</v>
       </c>
       <c r="J102" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K102" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="K102" s="10">
+      <c r="L102" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="103" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="103" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C103" s="8">
         <v>11406</v>
       </c>
@@ -5801,13 +6669,16 @@
         <v>1330</v>
       </c>
       <c r="J103" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K103" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="K103" s="10">
+      <c r="L103" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="104" spans="3:11" ht="20.100000000000001" customHeight="1">
+    <row r="104" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C104" s="8">
         <v>11407</v>
       </c>
@@ -5830,13 +6701,16 @@
         <v>1680</v>
       </c>
       <c r="J104" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K104" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="K104" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="105" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L104" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C105" s="8">
         <v>11408</v>
       </c>
@@ -5859,13 +6733,16 @@
         <v>2070</v>
       </c>
       <c r="J105" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K105" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="K105" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="106" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L105" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C106" s="8">
         <v>11409</v>
       </c>
@@ -5888,13 +6765,16 @@
         <v>2500</v>
       </c>
       <c r="J106" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K106" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="K106" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="107" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L106" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C107" s="8">
         <v>11410</v>
       </c>
@@ -5917,13 +6797,16 @@
         <v>110</v>
       </c>
       <c r="J107" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K107" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="K107" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="108" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L107" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C108" s="8">
         <v>11411</v>
       </c>
@@ -5946,13 +6829,16 @@
         <v>111</v>
       </c>
       <c r="J108" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K108" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="K108" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="109" spans="3:11" ht="20.100000000000001" customHeight="1">
+      <c r="L108" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C109" s="8">
         <v>11412</v>
       </c>
@@ -5975,9 +6861,12 @@
         <v>105</v>
       </c>
       <c r="J109" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K109" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="K109" s="10">
+      <c r="L109" s="10">
         <v>0.04</v>
       </c>
     </row>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D5390-3945-454A-9440-2D53095A4BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35AD8A-EDE1-4A85-9A73-A931A737BB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -1270,7 +1270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="227">
   <si>
     <t>Id</t>
   </si>
@@ -2022,9 +2022,6 @@
   <si>
     <t>CostItem</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100</t>
   </si>
   <si>
     <t>1;100</t>
@@ -3408,7 +3405,7 @@
   <dimension ref="C1:ID109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O105" sqref="O105"/>
+      <selection activeCell="J6" sqref="J6:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3542,9 +3539,7 @@
       <c r="I6" s="11">
         <v>100</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>226</v>
-      </c>
+      <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10">
         <v>0.05</v>
@@ -3572,9 +3567,7 @@
       <c r="I7" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
         <v>65</v>
       </c>
@@ -3604,9 +3597,7 @@
       <c r="I8" s="11">
         <v>375</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
         <v>66</v>
       </c>
@@ -3637,9 +3628,7 @@
       <c r="I9" s="11">
         <v>560</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
         <v>67</v>
       </c>
@@ -3670,9 +3659,7 @@
       <c r="I10" s="11">
         <v>775</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
         <v>68</v>
       </c>
@@ -3703,9 +3690,7 @@
       <c r="I11" s="11">
         <v>1020</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
         <v>69</v>
       </c>
@@ -3735,9 +3720,7 @@
       <c r="I12" s="11">
         <v>1330</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
         <v>70</v>
       </c>
@@ -3768,9 +3751,7 @@
       <c r="I13" s="11">
         <v>1680</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
         <v>71</v>
       </c>
@@ -3801,9 +3782,7 @@
       <c r="I14" s="11">
         <v>2070</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
         <v>72</v>
       </c>
@@ -3834,9 +3813,7 @@
       <c r="I15" s="11">
         <v>2500</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
         <v>73</v>
       </c>
@@ -3867,9 +3844,7 @@
       <c r="I16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
         <v>74</v>
       </c>
@@ -3900,9 +3875,7 @@
       <c r="I17" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
         <v>108</v>
       </c>
@@ -3933,9 +3906,7 @@
       <c r="I18" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
         <v>109</v>
       </c>
@@ -3966,9 +3937,7 @@
       <c r="I19" s="11">
         <v>100</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10">
         <v>0.05</v>
@@ -3996,9 +3965,7 @@
       <c r="I20" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
         <v>75</v>
       </c>
@@ -4028,9 +3995,7 @@
       <c r="I21" s="11">
         <v>375</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
         <v>76</v>
       </c>
@@ -4061,9 +4026,7 @@
       <c r="I22" s="11">
         <v>560</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
         <v>77</v>
       </c>
@@ -4094,9 +4057,7 @@
       <c r="I23" s="11">
         <v>775</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
         <v>78</v>
       </c>
@@ -4127,9 +4088,7 @@
       <c r="I24" s="11">
         <v>1020</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
         <v>79</v>
       </c>
@@ -4159,9 +4118,7 @@
       <c r="I25" s="11">
         <v>1330</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
         <v>80</v>
       </c>
@@ -4191,9 +4148,7 @@
       <c r="I26" s="11">
         <v>1680</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J26" s="10"/>
       <c r="K26" s="10" t="s">
         <v>81</v>
       </c>
@@ -4224,9 +4179,7 @@
       <c r="I27" s="11">
         <v>2070</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
         <v>82</v>
       </c>
@@ -4257,9 +4210,7 @@
       <c r="I28" s="11">
         <v>2500</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
         <v>83</v>
       </c>
@@ -4290,9 +4241,7 @@
       <c r="I29" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J29" s="10"/>
       <c r="K29" s="10" t="s">
         <v>84</v>
       </c>
@@ -4323,9 +4272,7 @@
       <c r="I30" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
         <v>118</v>
       </c>
@@ -4356,9 +4303,7 @@
       <c r="I31" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
         <v>119</v>
       </c>
@@ -4389,9 +4334,7 @@
       <c r="I32" s="11">
         <v>100</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10">
         <v>0.05</v>
@@ -4419,9 +4362,7 @@
       <c r="I33" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
         <v>85</v>
       </c>
@@ -4451,9 +4392,7 @@
       <c r="I34" s="11">
         <v>375</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
         <v>86</v>
       </c>
@@ -4484,9 +4423,7 @@
       <c r="I35" s="11">
         <v>560</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
         <v>87</v>
       </c>
@@ -4517,9 +4454,7 @@
       <c r="I36" s="11">
         <v>775</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
         <v>88</v>
       </c>
@@ -4550,9 +4485,7 @@
       <c r="I37" s="11">
         <v>1020</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
         <v>89</v>
       </c>
@@ -4582,9 +4515,7 @@
       <c r="I38" s="11">
         <v>1330</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
         <v>90</v>
       </c>
@@ -4615,9 +4546,7 @@
       <c r="I39" s="11">
         <v>1680</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
         <v>91</v>
       </c>
@@ -4648,9 +4577,7 @@
       <c r="I40" s="11">
         <v>2070</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
         <v>92</v>
       </c>
@@ -4681,9 +4608,7 @@
       <c r="I41" s="11">
         <v>2500</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
         <v>93</v>
       </c>
@@ -4714,9 +4639,7 @@
       <c r="I42" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
         <v>94</v>
       </c>
@@ -4747,9 +4670,7 @@
       <c r="I43" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
         <v>116</v>
       </c>
@@ -4780,9 +4701,7 @@
       <c r="I44" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J44" s="10"/>
       <c r="K44" s="10" t="s">
         <v>117</v>
       </c>
@@ -4813,9 +4732,7 @@
       <c r="I45" s="11">
         <v>100</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10">
         <v>0.05</v>
@@ -4843,9 +4760,7 @@
       <c r="I46" s="11">
         <v>220.00000000000003</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
         <v>95</v>
       </c>
@@ -4875,9 +4790,7 @@
       <c r="I47" s="11">
         <v>375</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J47" s="10"/>
       <c r="K47" s="10" t="s">
         <v>96</v>
       </c>
@@ -4908,9 +4821,7 @@
       <c r="I48" s="11">
         <v>560</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J48" s="10"/>
       <c r="K48" s="10" t="s">
         <v>97</v>
       </c>
@@ -4941,9 +4852,7 @@
       <c r="I49" s="11">
         <v>775</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J49" s="10"/>
       <c r="K49" s="10" t="s">
         <v>98</v>
       </c>
@@ -4974,9 +4883,7 @@
       <c r="I50" s="11">
         <v>1020</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
         <v>99</v>
       </c>
@@ -5006,9 +4913,7 @@
       <c r="I51" s="11">
         <v>1330</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J51" s="10"/>
       <c r="K51" s="10" t="s">
         <v>100</v>
       </c>
@@ -5038,9 +4943,7 @@
       <c r="I52" s="11">
         <v>1680</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J52" s="10"/>
       <c r="K52" s="10" t="s">
         <v>101</v>
       </c>
@@ -5071,9 +4974,7 @@
       <c r="I53" s="11">
         <v>2070</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J53" s="10"/>
       <c r="K53" s="10" t="s">
         <v>102</v>
       </c>
@@ -5104,9 +5005,7 @@
       <c r="I54" s="11">
         <v>2500</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J54" s="10"/>
       <c r="K54" s="10" t="s">
         <v>103</v>
       </c>
@@ -5137,9 +5036,7 @@
       <c r="I55" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J55" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J55" s="10"/>
       <c r="K55" s="10" t="s">
         <v>104</v>
       </c>
@@ -5170,9 +5067,7 @@
       <c r="I56" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="J56" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
         <v>114</v>
       </c>
@@ -5203,9 +5098,7 @@
       <c r="I57" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="J57" s="10" t="s">
-        <v>227</v>
-      </c>
+      <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
         <v>115</v>
       </c>
@@ -5237,7 +5130,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10">
@@ -5267,7 +5160,7 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>157</v>
@@ -5299,7 +5192,7 @@
         <v>375</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>158</v>
@@ -5331,7 +5224,7 @@
         <v>560</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K61" s="10" t="s">
         <v>159</v>
@@ -5363,7 +5256,7 @@
         <v>775</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>160</v>
@@ -5395,7 +5288,7 @@
         <v>1020</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K63" s="10" t="s">
         <v>161</v>
@@ -5427,7 +5320,7 @@
         <v>1330</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>162</v>
@@ -5459,7 +5352,7 @@
         <v>1680</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K65" s="10" t="s">
         <v>163</v>
@@ -5491,7 +5384,7 @@
         <v>2070</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K66" s="10" t="s">
         <v>164</v>
@@ -5523,7 +5416,7 @@
         <v>2500</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>165</v>
@@ -5555,7 +5448,7 @@
         <v>110</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>166</v>
@@ -5587,7 +5480,7 @@
         <v>111</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>167</v>
@@ -5619,7 +5512,7 @@
         <v>105</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>168</v>
@@ -5651,7 +5544,7 @@
         <v>100</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10">
@@ -5681,7 +5574,7 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>169</v>
@@ -5713,7 +5606,7 @@
         <v>375</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>170</v>
@@ -5745,7 +5638,7 @@
         <v>560</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K74" s="10" t="s">
         <v>171</v>
@@ -5777,7 +5670,7 @@
         <v>775</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K75" s="10" t="s">
         <v>172</v>
@@ -5809,7 +5702,7 @@
         <v>1020</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K76" s="10" t="s">
         <v>173</v>
@@ -5841,7 +5734,7 @@
         <v>1330</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K77" s="10" t="s">
         <v>174</v>
@@ -5873,7 +5766,7 @@
         <v>1680</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K78" s="10" t="s">
         <v>175</v>
@@ -5905,7 +5798,7 @@
         <v>2070</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>176</v>
@@ -5937,7 +5830,7 @@
         <v>2500</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>177</v>
@@ -5969,7 +5862,7 @@
         <v>110</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K81" s="10" t="s">
         <v>178</v>
@@ -6001,7 +5894,7 @@
         <v>111</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K82" s="10" t="s">
         <v>179</v>
@@ -6033,7 +5926,7 @@
         <v>105</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>180</v>
@@ -6065,7 +5958,7 @@
         <v>100</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10">
@@ -6095,7 +5988,7 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K85" s="10" t="s">
         <v>192</v>
@@ -6127,7 +6020,7 @@
         <v>375</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K86" s="10" t="s">
         <v>193</v>
@@ -6159,7 +6052,7 @@
         <v>560</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K87" s="10" t="s">
         <v>194</v>
@@ -6191,7 +6084,7 @@
         <v>775</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K88" s="10" t="s">
         <v>195</v>
@@ -6223,7 +6116,7 @@
         <v>1020</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K89" s="10" t="s">
         <v>196</v>
@@ -6255,7 +6148,7 @@
         <v>1330</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K90" s="10" t="s">
         <v>197</v>
@@ -6287,7 +6180,7 @@
         <v>1680</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K91" s="10" t="s">
         <v>198</v>
@@ -6319,7 +6212,7 @@
         <v>2070</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K92" s="10" t="s">
         <v>199</v>
@@ -6351,7 +6244,7 @@
         <v>2500</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K93" s="10" t="s">
         <v>200</v>
@@ -6383,7 +6276,7 @@
         <v>110</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K94" s="10" t="s">
         <v>201</v>
@@ -6415,7 +6308,7 @@
         <v>111</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K95" s="10" t="s">
         <v>202</v>
@@ -6447,7 +6340,7 @@
         <v>105</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>203</v>
@@ -6479,7 +6372,7 @@
         <v>100</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10">
@@ -6509,7 +6402,7 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K98" s="10" t="s">
         <v>204</v>
@@ -6541,7 +6434,7 @@
         <v>375</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K99" s="10" t="s">
         <v>205</v>
@@ -6573,7 +6466,7 @@
         <v>560</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K100" s="10" t="s">
         <v>206</v>
@@ -6605,7 +6498,7 @@
         <v>775</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>207</v>
@@ -6637,7 +6530,7 @@
         <v>1020</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K102" s="10" t="s">
         <v>208</v>
@@ -6669,7 +6562,7 @@
         <v>1330</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K103" s="10" t="s">
         <v>209</v>
@@ -6701,7 +6594,7 @@
         <v>1680</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K104" s="10" t="s">
         <v>210</v>
@@ -6733,7 +6626,7 @@
         <v>2070</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K105" s="10" t="s">
         <v>211</v>
@@ -6765,7 +6658,7 @@
         <v>2500</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K106" s="10" t="s">
         <v>212</v>
@@ -6797,7 +6690,7 @@
         <v>110</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K107" s="10" t="s">
         <v>213</v>
@@ -6829,7 +6722,7 @@
         <v>111</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K108" s="10" t="s">
         <v>214</v>
@@ -6861,7 +6754,7 @@
         <v>105</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K109" s="10" t="s">
         <v>215</v>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35AD8A-EDE1-4A85-9A73-A931A737BB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DBF38E-5825-4F87-9BB0-24E1B7158D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,79 +1806,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>130103;50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>130103;100</t>
-  </si>
-  <si>
-    <t>130103;200</t>
-  </si>
-  <si>
-    <t>130103;350</t>
-  </si>
-  <si>
-    <t>130103;500</t>
-  </si>
-  <si>
-    <t>130103;700</t>
-  </si>
-  <si>
-    <t>130103;900</t>
-  </si>
-  <si>
-    <t>130103;1200</t>
-  </si>
-  <si>
-    <t>130103;1500</t>
-  </si>
-  <si>
-    <t>130103;1800</t>
-  </si>
-  <si>
-    <t>130103;2100</t>
-  </si>
-  <si>
-    <t>130103;2400</t>
-  </si>
-  <si>
-    <t>130003;50</t>
-  </si>
-  <si>
-    <t>130003;100</t>
-  </si>
-  <si>
-    <t>130003;200</t>
-  </si>
-  <si>
-    <t>130003;350</t>
-  </si>
-  <si>
-    <t>130003;500</t>
-  </si>
-  <si>
-    <t>130003;700</t>
-  </si>
-  <si>
-    <t>130003;900</t>
-  </si>
-  <si>
-    <t>130003;1200</t>
-  </si>
-  <si>
-    <t>130003;1500</t>
-  </si>
-  <si>
-    <t>130003;1800</t>
-  </si>
-  <si>
-    <t>130003;2100</t>
-  </si>
-  <si>
-    <t>130003;2400</t>
-  </si>
-  <si>
     <t>宠物魔法修炼0级</t>
   </si>
   <si>
@@ -1912,42 +1839,6 @@
     <t>宠物魔法修炼10级</t>
   </si>
   <si>
-    <t>130203;50</t>
-  </si>
-  <si>
-    <t>130203;100</t>
-  </si>
-  <si>
-    <t>130203;200</t>
-  </si>
-  <si>
-    <t>130203;350</t>
-  </si>
-  <si>
-    <t>130203;500</t>
-  </si>
-  <si>
-    <t>130203;700</t>
-  </si>
-  <si>
-    <t>130203;900</t>
-  </si>
-  <si>
-    <t>130203;1200</t>
-  </si>
-  <si>
-    <t>130203;1500</t>
-  </si>
-  <si>
-    <t>130203;1800</t>
-  </si>
-  <si>
-    <t>130203;2100</t>
-  </si>
-  <si>
-    <t>130203;2400</t>
-  </si>
-  <si>
     <t>130303;50</t>
   </si>
   <si>
@@ -2026,6 +1917,115 @@
   <si>
     <t>1;100</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.02</t>
+  </si>
+  <si>
+    <t>130102;0.03</t>
+  </si>
+  <si>
+    <t>130102;0.04</t>
+  </si>
+  <si>
+    <t>130102;0.05</t>
+  </si>
+  <si>
+    <t>130102;0.06</t>
+  </si>
+  <si>
+    <t>130102;0.07</t>
+  </si>
+  <si>
+    <t>130102;0.08</t>
+  </si>
+  <si>
+    <t>130102;0.09</t>
+  </si>
+  <si>
+    <t>130102;0.10</t>
+  </si>
+  <si>
+    <t>130102;0.11</t>
+  </si>
+  <si>
+    <t>130102;0.12</t>
+  </si>
+  <si>
+    <t>130002;0.01</t>
+  </si>
+  <si>
+    <t>130002;0.02</t>
+  </si>
+  <si>
+    <t>130002;0.03</t>
+  </si>
+  <si>
+    <t>130002;0.04</t>
+  </si>
+  <si>
+    <t>130002;0.05</t>
+  </si>
+  <si>
+    <t>130002;0.06</t>
+  </si>
+  <si>
+    <t>130002;0.07</t>
+  </si>
+  <si>
+    <t>130002;0.08</t>
+  </si>
+  <si>
+    <t>130002;0.09</t>
+  </si>
+  <si>
+    <t>130002;0.10</t>
+  </si>
+  <si>
+    <t>130002;0.11</t>
+  </si>
+  <si>
+    <t>130002;0.12</t>
+  </si>
+  <si>
+    <t>130202;0.01</t>
+  </si>
+  <si>
+    <t>130202;0.02</t>
+  </si>
+  <si>
+    <t>130202;0.03</t>
+  </si>
+  <si>
+    <t>130202;0.04</t>
+  </si>
+  <si>
+    <t>130202;0.05</t>
+  </si>
+  <si>
+    <t>130202;0.06</t>
+  </si>
+  <si>
+    <t>130202;0.07</t>
+  </si>
+  <si>
+    <t>130202;0.08</t>
+  </si>
+  <si>
+    <t>130202;0.09</t>
+  </si>
+  <si>
+    <t>130202;0.10</t>
+  </si>
+  <si>
+    <t>130202;0.11</t>
+  </si>
+  <si>
+    <t>130202;0.12</t>
   </si>
 </sst>
 </file>
@@ -3404,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:ID109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:J57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3444,7 +3444,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>6</v>
@@ -3476,7 +3476,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>13</v>
@@ -4255,7 +4255,7 @@
         <v>10211</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="E30" s="8">
         <v>10212</v>
@@ -4286,7 +4286,7 @@
         <v>10212</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>10311</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="E43" s="8">
         <v>10312</v>
@@ -4684,7 +4684,7 @@
         <v>10312</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
@@ -5130,7 +5130,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10">
@@ -5160,10 +5160,10 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="L59" s="10">
         <v>0.05</v>
@@ -5192,10 +5192,10 @@
         <v>375</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="L60" s="10">
         <v>0.04</v>
@@ -5224,10 +5224,10 @@
         <v>560</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="L61" s="10">
         <v>0.04</v>
@@ -5256,10 +5256,10 @@
         <v>775</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="L62" s="10">
         <v>0.04</v>
@@ -5288,10 +5288,10 @@
         <v>1020</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="L63" s="10">
         <v>0.05</v>
@@ -5320,10 +5320,10 @@
         <v>1330</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="L64" s="10">
         <v>0.04</v>
@@ -5352,10 +5352,10 @@
         <v>1680</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="L65" s="10">
         <v>0.04</v>
@@ -5384,10 +5384,10 @@
         <v>2070</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="L66" s="10">
         <v>0.04</v>
@@ -5416,10 +5416,10 @@
         <v>2500</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="L67" s="10">
         <v>0.04</v>
@@ -5448,10 +5448,10 @@
         <v>110</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="L68" s="10">
         <v>0.04</v>
@@ -5480,10 +5480,10 @@
         <v>111</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="L69" s="10">
         <v>0.04</v>
@@ -5512,10 +5512,10 @@
         <v>105</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="L70" s="10">
         <v>0.04</v>
@@ -5526,7 +5526,7 @@
         <v>11200</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E71" s="8">
         <v>11201</v>
@@ -5544,7 +5544,7 @@
         <v>100</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10">
@@ -5556,7 +5556,7 @@
         <v>11201</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E72" s="8">
         <v>11202</v>
@@ -5574,10 +5574,10 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="L72" s="10">
         <v>0.05</v>
@@ -5588,7 +5588,7 @@
         <v>11202</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E73" s="8">
         <v>11203</v>
@@ -5606,10 +5606,10 @@
         <v>375</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="L73" s="10">
         <v>0.04</v>
@@ -5620,7 +5620,7 @@
         <v>11203</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="E74" s="8">
         <v>11204</v>
@@ -5638,10 +5638,10 @@
         <v>560</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="L74" s="10">
         <v>0.04</v>
@@ -5652,7 +5652,7 @@
         <v>11204</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E75" s="8">
         <v>11205</v>
@@ -5670,10 +5670,10 @@
         <v>775</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="L75" s="10">
         <v>0.04</v>
@@ -5684,7 +5684,7 @@
         <v>11205</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E76" s="8">
         <v>11206</v>
@@ -5702,10 +5702,10 @@
         <v>1020</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="L76" s="10">
         <v>0.05</v>
@@ -5716,7 +5716,7 @@
         <v>11206</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E77" s="8">
         <v>11207</v>
@@ -5734,10 +5734,10 @@
         <v>1330</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="L77" s="10">
         <v>0.05</v>
@@ -5748,7 +5748,7 @@
         <v>11207</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E78" s="8">
         <v>11208</v>
@@ -5766,10 +5766,10 @@
         <v>1680</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="L78" s="10">
         <v>0.04</v>
@@ -5780,7 +5780,7 @@
         <v>11208</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E79" s="8">
         <v>11209</v>
@@ -5798,10 +5798,10 @@
         <v>2070</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="L79" s="10">
         <v>0.04</v>
@@ -5812,7 +5812,7 @@
         <v>11209</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E80" s="8">
         <v>11210</v>
@@ -5830,10 +5830,10 @@
         <v>2500</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="L80" s="10">
         <v>0.04</v>
@@ -5844,7 +5844,7 @@
         <v>11210</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E81" s="8">
         <v>11211</v>
@@ -5862,10 +5862,10 @@
         <v>110</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="L81" s="10">
         <v>0.04</v>
@@ -5876,7 +5876,7 @@
         <v>11211</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="E82" s="8">
         <v>11212</v>
@@ -5894,10 +5894,10 @@
         <v>111</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="L82" s="10">
         <v>0.04</v>
@@ -5908,7 +5908,7 @@
         <v>11212</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="E83" s="8">
         <v>0</v>
@@ -5926,10 +5926,10 @@
         <v>105</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="L83" s="10">
         <v>0.04</v>
@@ -5958,7 +5958,7 @@
         <v>100</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10">
@@ -5988,10 +5988,10 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L85" s="10">
         <v>0.05</v>
@@ -6020,10 +6020,10 @@
         <v>375</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L86" s="10">
         <v>0.04</v>
@@ -6052,10 +6052,10 @@
         <v>560</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="L87" s="10">
         <v>0.04</v>
@@ -6084,10 +6084,10 @@
         <v>775</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="L88" s="10">
         <v>0.04</v>
@@ -6116,10 +6116,10 @@
         <v>1020</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="L89" s="10">
         <v>0.05</v>
@@ -6148,10 +6148,10 @@
         <v>1330</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="L90" s="10">
         <v>0.04</v>
@@ -6180,10 +6180,10 @@
         <v>1680</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L91" s="10">
         <v>0.04</v>
@@ -6212,10 +6212,10 @@
         <v>2070</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="L92" s="10">
         <v>0.04</v>
@@ -6244,10 +6244,10 @@
         <v>2500</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L93" s="10">
         <v>0.04</v>
@@ -6276,10 +6276,10 @@
         <v>110</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L94" s="10">
         <v>0.04</v>
@@ -6290,7 +6290,7 @@
         <v>11311</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="E95" s="8">
         <v>11312</v>
@@ -6308,10 +6308,10 @@
         <v>111</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L95" s="10">
         <v>0.04</v>
@@ -6322,7 +6322,7 @@
         <v>11312</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="E96" s="8">
         <v>0</v>
@@ -6340,10 +6340,10 @@
         <v>105</v>
       </c>
       <c r="J96" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K96" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="K96" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="L96" s="10">
         <v>0.04</v>
@@ -6372,7 +6372,7 @@
         <v>100</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10">
@@ -6402,10 +6402,10 @@
         <v>220.00000000000003</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="L98" s="10">
         <v>0.05</v>
@@ -6434,10 +6434,10 @@
         <v>375</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="L99" s="10">
         <v>0.04</v>
@@ -6466,10 +6466,10 @@
         <v>560</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="L100" s="10">
         <v>0.04</v>
@@ -6498,10 +6498,10 @@
         <v>775</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="L101" s="10">
         <v>0.04</v>
@@ -6530,10 +6530,10 @@
         <v>1020</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="L102" s="10">
         <v>0.05</v>
@@ -6562,10 +6562,10 @@
         <v>1330</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="L103" s="10">
         <v>0.05</v>
@@ -6594,10 +6594,10 @@
         <v>1680</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="L104" s="10">
         <v>0.04</v>
@@ -6626,10 +6626,10 @@
         <v>2070</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="L105" s="10">
         <v>0.04</v>
@@ -6658,10 +6658,10 @@
         <v>2500</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="L106" s="10">
         <v>0.04</v>
@@ -6690,10 +6690,10 @@
         <v>110</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="L107" s="10">
         <v>0.04</v>
@@ -6722,10 +6722,10 @@
         <v>111</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="L108" s="10">
         <v>0.04</v>
@@ -6754,10 +6754,10 @@
         <v>105</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="L109" s="10">
         <v>0.04</v>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DBF38E-5825-4F87-9BB0-24E1B7158D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="UnionQiangHuaProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{EF19219C-E3B7-4A42-8DB2-560FC2D8C0FD}">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
 </t>
@@ -43,7 +37,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -53,7 +47,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">10.生命值
 </t>
@@ -63,7 +57,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">11.物理攻击       
 </t>
@@ -73,7 +67,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">14.魔法攻击
 </t>
@@ -83,7 +77,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">17.物理防御        
 </t>
@@ -93,7 +87,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">20.魔法防御
 </t>
@@ -103,7 +97,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">30.暴击
 </t>
@@ -113,7 +107,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">31.命中
 </t>
@@ -123,7 +117,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">32.闪避
 </t>
@@ -133,7 +127,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">33.物理免伤
 </t>
@@ -143,7 +137,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">34.魔法免伤
 </t>
@@ -153,7 +147,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">35.移动速度
 </t>
@@ -163,7 +157,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">36.伤害减免
 </t>
@@ -173,7 +167,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">50:血量百分比
 </t>
@@ -183,7 +177,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">51：物攻百分比
 </t>
@@ -193,7 +187,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">52：魔攻百分比
 </t>
@@ -203,7 +197,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">53：物防百分比
 </t>
@@ -213,7 +207,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">54：魔防百分比
 </t>
@@ -223,7 +217,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -233,7 +227,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">101：格挡值
 </t>
@@ -243,7 +237,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">111：重击概率
 </t>
@@ -253,7 +247,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">112:  重击附加伤害值
 </t>
@@ -263,7 +257,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">121:  每次普通攻击附加的伤害值
 </t>
@@ -273,7 +267,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">131:  忽视目标防御值   
 </t>
@@ -283,7 +277,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">132:  忽视目标魔防值
 </t>
@@ -293,7 +287,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">133:  忽视目标百分比防御值
 </t>
@@ -303,7 +297,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">134:  忽视目标百分比魔防值
 </t>
@@ -313,7 +307,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">141:  吸血概率
 </t>
@@ -323,7 +317,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -333,7 +327,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">151:  法术反击
 </t>
@@ -343,7 +337,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">152:  攻击反击
 </t>
@@ -353,7 +347,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -363,7 +357,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">161：韧性
 </t>
@@ -373,7 +367,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -383,7 +377,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">201：初始暴击等级
 </t>
@@ -393,7 +387,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">202：初始韧性等级
 </t>
@@ -403,7 +397,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">203：初始命中等级
 </t>
@@ -413,7 +407,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">204：初始闪避等级
 </t>
@@ -423,7 +417,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -433,7 +427,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">301:光抗性
 </t>
@@ -443,7 +437,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">302:暗抗性
 </t>
@@ -453,7 +447,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">303:火抗性
 </t>
@@ -463,7 +457,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">304:水抗性
 </t>
@@ -473,7 +467,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">305:电抗性
 </t>
@@ -483,7 +477,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -493,7 +487,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">321：//野兽攻击抗性
 </t>
@@ -503,7 +497,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">322：//人物攻击抗性
 </t>
@@ -513,7 +507,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">323：//恶魔攻击抗性
 </t>
@@ -523,7 +517,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -533,7 +527,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">401：//经验加成
 </t>
@@ -543,7 +537,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">402：//金币加成
 </t>
@@ -553,7 +547,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">403：//洗炼极品掉落
 </t>
@@ -563,7 +557,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">404：//隐藏属性出现概率
 </t>
@@ -573,20 +567,20 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>405：//装备上的宝石槽位出现概率</t>
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
 </t>
@@ -596,7 +590,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -606,7 +600,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">10.生命值
 </t>
@@ -616,7 +610,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">11.物理攻击       
 </t>
@@ -626,7 +620,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">14.魔法攻击
 </t>
@@ -636,7 +630,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">17.物理防御        
 </t>
@@ -646,7 +640,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">20.魔法防御
 </t>
@@ -656,7 +650,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">30.暴击
 </t>
@@ -666,7 +660,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">31.命中
 </t>
@@ -676,7 +670,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">32.闪避
 </t>
@@ -686,7 +680,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">33.物理免伤
 </t>
@@ -696,7 +690,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">34.魔法免伤
 </t>
@@ -706,7 +700,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">35.移动速度
 </t>
@@ -716,7 +710,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">36.伤害减免
 </t>
@@ -726,7 +720,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">50:血量百分比
 </t>
@@ -736,7 +730,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">51：物攻百分比
 </t>
@@ -746,7 +740,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">52：魔攻百分比
 </t>
@@ -756,7 +750,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">53：物防百分比
 </t>
@@ -766,7 +760,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">54：魔防百分比
 </t>
@@ -776,7 +770,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -786,7 +780,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">101：格挡值
 </t>
@@ -796,7 +790,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">111：重击概率
 </t>
@@ -806,7 +800,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">112:  重击附加伤害值
 </t>
@@ -816,7 +810,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">121:  每次普通攻击附加的伤害值
 </t>
@@ -826,7 +820,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">131:  忽视目标防御值   
 </t>
@@ -836,7 +830,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">132:  忽视目标魔防值
 </t>
@@ -846,7 +840,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">133:  忽视目标百分比防御值
 </t>
@@ -856,7 +850,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">134:  忽视目标百分比魔防值
 </t>
@@ -866,7 +860,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">141:  吸血概率
 </t>
@@ -876,7 +870,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -886,7 +880,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">151:  法术反击
 </t>
@@ -896,7 +890,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">152:  攻击反击
 </t>
@@ -906,7 +900,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -916,7 +910,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">161：韧性
 </t>
@@ -926,7 +920,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -936,7 +930,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">201：初始暴击等级
 </t>
@@ -946,7 +940,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">202：初始韧性等级
 </t>
@@ -956,7 +950,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">203：初始命中等级
 </t>
@@ -966,7 +960,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">204：初始闪避等级
 </t>
@@ -976,7 +970,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -986,7 +980,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">301:光抗性
 </t>
@@ -996,7 +990,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">302:暗抗性
 </t>
@@ -1006,7 +1000,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">303:火抗性
 </t>
@@ -1016,7 +1010,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">304:水抗性
 </t>
@@ -1026,7 +1020,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">305:电抗性
 </t>
@@ -1036,7 +1030,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1046,7 +1040,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">321：//野兽攻击抗性
 </t>
@@ -1056,7 +1050,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">322：//人物攻击抗性
 </t>
@@ -1066,7 +1060,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">323：//恶魔攻击抗性
 </t>
@@ -1076,7 +1070,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1086,7 +1080,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">401：//经验加成
 </t>
@@ -1096,7 +1090,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">402：//金币加成
 </t>
@@ -1106,7 +1100,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">403：//洗炼极品掉落
 </t>
@@ -1116,7 +1110,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">404：//隐藏属性出现概率
 </t>
@@ -1126,20 +1120,19 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>405：//装备上的宝石槽位出现概率</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="L3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -1148,7 +1141,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1158,7 +1150,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">//1 武器
@@ -1168,7 +1159,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //2 衣服
@@ -1178,7 +1168,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //3 护符
@@ -1188,7 +1177,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //4 戒指
@@ -1198,7 +1186,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //5 饰品
@@ -1208,7 +1195,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //6 鞋子
@@ -1218,7 +1204,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //7 裤子
@@ -1228,7 +1213,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //8 腰带
@@ -1238,7 +1222,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //9 手镯
@@ -1248,7 +1231,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //10 头盔
@@ -1258,7 +1240,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //11 项链</t>
@@ -1270,7 +1251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
   <si>
     <t>Id</t>
   </si>
@@ -1290,6 +1271,12 @@
     <t>成功概率</t>
   </si>
   <si>
+    <t>消耗家族贡献</t>
+  </si>
+  <si>
+    <t>消耗道具</t>
+  </si>
+  <si>
     <t>强化属性</t>
   </si>
   <si>
@@ -1311,6 +1298,12 @@
     <t>SuccessPro</t>
   </si>
   <si>
+    <t>CostGold</t>
+  </si>
+  <si>
+    <t>CostItem</t>
+  </si>
+  <si>
     <t>EquipPropreAdd</t>
   </si>
   <si>
@@ -1327,61 +1320,237 @@
   </si>
   <si>
     <t>攻击修炼0级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>攻击修炼1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;50</t>
   </si>
   <si>
     <t>攻击修炼2级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;100</t>
+  </si>
+  <si>
+    <t>攻击修炼3级</t>
+  </si>
+  <si>
+    <t>100403;200</t>
   </si>
   <si>
     <t>攻击修炼4级</t>
   </si>
   <si>
-    <t>CostGold</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗家族贡献</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>100403;350</t>
+  </si>
+  <si>
+    <t>攻击修炼5级</t>
+  </si>
+  <si>
+    <t>100403;500</t>
+  </si>
+  <si>
+    <t>攻击修炼6级</t>
+  </si>
+  <si>
+    <t>100403;700</t>
+  </si>
+  <si>
+    <t>攻击修炼7级</t>
+  </si>
+  <si>
+    <t>100403;900</t>
+  </si>
+  <si>
+    <t>攻击修炼8级</t>
+  </si>
+  <si>
+    <t>100403;1200</t>
+  </si>
+  <si>
+    <t>攻击修炼9级</t>
+  </si>
+  <si>
+    <t>100403;1500</t>
+  </si>
+  <si>
+    <t>攻击修炼10级</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>100403;1800</t>
+  </si>
+  <si>
+    <t>攻击修炼11级</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>100403;2100</t>
+  </si>
+  <si>
+    <t>攻击修炼12级</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100403;2400</t>
+  </si>
+  <si>
+    <t>生命修炼0级</t>
+  </si>
+  <si>
+    <t>生命修炼1级</t>
+  </si>
+  <si>
+    <t>100203;300</t>
+  </si>
+  <si>
+    <t>生命修炼2级</t>
+  </si>
+  <si>
+    <t>100203;600</t>
+  </si>
+  <si>
+    <t>生命修炼3级</t>
+  </si>
+  <si>
+    <t>100203;1200</t>
+  </si>
+  <si>
+    <t>生命修炼4级</t>
+  </si>
+  <si>
+    <t>100203;2100</t>
+  </si>
+  <si>
+    <t>生命修炼5级</t>
+  </si>
+  <si>
+    <t>100203;3000</t>
+  </si>
+  <si>
+    <t>生命修炼6级</t>
+  </si>
+  <si>
+    <t>100203;4200</t>
+  </si>
+  <si>
+    <t>生命修炼7级</t>
+  </si>
+  <si>
+    <t>100203;5400</t>
+  </si>
+  <si>
+    <t>生命修炼8级</t>
+  </si>
+  <si>
+    <t>100203;7200</t>
+  </si>
+  <si>
+    <t>生命修炼9级</t>
+  </si>
+  <si>
+    <t>100203;9000</t>
+  </si>
+  <si>
+    <t>生命修炼10级</t>
+  </si>
+  <si>
+    <t>100203;10800</t>
+  </si>
+  <si>
+    <t>生命修炼11级</t>
+  </si>
+  <si>
+    <t>100203;12600</t>
+  </si>
+  <si>
+    <t>生命修炼12级</t>
+  </si>
+  <si>
+    <t>100203;14400</t>
   </si>
   <si>
     <t>防御修炼0级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>防御修炼1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100603;50</t>
   </si>
   <si>
     <t>防御修炼2级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100603;100</t>
   </si>
   <si>
     <t>防御修炼3级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100603;200</t>
   </si>
   <si>
     <t>防御修炼4级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命修炼0级</t>
-  </si>
-  <si>
-    <t>生命修炼1级</t>
-  </si>
-  <si>
-    <t>生命修炼2级</t>
-  </si>
-  <si>
-    <t>生命修炼3级</t>
-  </si>
-  <si>
-    <t>生命修炼4级</t>
+  </si>
+  <si>
+    <t>100603;350</t>
+  </si>
+  <si>
+    <t>防御修炼5级</t>
+  </si>
+  <si>
+    <t>100603;500</t>
+  </si>
+  <si>
+    <t>防御修炼6级</t>
+  </si>
+  <si>
+    <t>100603;700</t>
+  </si>
+  <si>
+    <t>防御修炼7级</t>
+  </si>
+  <si>
+    <t>100603;900</t>
+  </si>
+  <si>
+    <t>防御修炼8级</t>
+  </si>
+  <si>
+    <t>100603;1200</t>
+  </si>
+  <si>
+    <t>防御修炼9级</t>
+  </si>
+  <si>
+    <t>100603;1500</t>
+  </si>
+  <si>
+    <t>防御修炼10级</t>
+  </si>
+  <si>
+    <t>100603;1800</t>
+  </si>
+  <si>
+    <t>防御修炼11级</t>
+  </si>
+  <si>
+    <t>100603;2100</t>
+  </si>
+  <si>
+    <t>防御修炼12级</t>
+  </si>
+  <si>
+    <t>100603;2400</t>
   </si>
   <si>
     <t>法防修炼0级</t>
@@ -1390,649 +1559,389 @@
     <t>法防修炼1级</t>
   </si>
   <si>
+    <t>100803;50</t>
+  </si>
+  <si>
     <t>法防修炼2级</t>
   </si>
   <si>
+    <t>100803;100</t>
+  </si>
+  <si>
     <t>法防修炼3级</t>
   </si>
   <si>
+    <t>100803;200</t>
+  </si>
+  <si>
     <t>法防修炼4级</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击修炼3级</t>
-  </si>
-  <si>
-    <t>攻击修炼5级</t>
-  </si>
-  <si>
-    <t>攻击修炼6级</t>
-  </si>
-  <si>
-    <t>攻击修炼7级</t>
-  </si>
-  <si>
-    <t>攻击修炼8级</t>
-  </si>
-  <si>
-    <t>攻击修炼9级</t>
-  </si>
-  <si>
-    <t>攻击修炼10级</t>
-  </si>
-  <si>
-    <t>生命修炼5级</t>
-  </si>
-  <si>
-    <t>生命修炼6级</t>
-  </si>
-  <si>
-    <t>生命修炼7级</t>
-  </si>
-  <si>
-    <t>生命修炼8级</t>
-  </si>
-  <si>
-    <t>生命修炼9级</t>
-  </si>
-  <si>
-    <t>生命修炼10级</t>
-  </si>
-  <si>
-    <t>防御修炼5级</t>
-  </si>
-  <si>
-    <t>防御修炼6级</t>
-  </si>
-  <si>
-    <t>防御修炼7级</t>
-  </si>
-  <si>
-    <t>防御修炼8级</t>
-  </si>
-  <si>
-    <t>防御修炼9级</t>
-  </si>
-  <si>
-    <t>防御修炼10级</t>
+    <t>100803;350</t>
   </si>
   <si>
     <t>法防修炼5级</t>
   </si>
   <si>
+    <t>100803;500</t>
+  </si>
+  <si>
     <t>法防修炼6级</t>
   </si>
   <si>
+    <t>100803;700</t>
+  </si>
+  <si>
     <t>法防修炼7级</t>
   </si>
   <si>
+    <t>100803;900</t>
+  </si>
+  <si>
     <t>法防修炼8级</t>
   </si>
   <si>
+    <t>100803;1200</t>
+  </si>
+  <si>
     <t>法防修炼9级</t>
   </si>
   <si>
+    <t>100803;1500</t>
+  </si>
+  <si>
     <t>法防修炼10级</t>
   </si>
   <si>
-    <t>100403;50</t>
-  </si>
-  <si>
-    <t>100403;100</t>
-  </si>
-  <si>
-    <t>100403;200</t>
-  </si>
-  <si>
-    <t>100403;350</t>
-  </si>
-  <si>
-    <t>100403;500</t>
-  </si>
-  <si>
-    <t>100403;700</t>
-  </si>
-  <si>
-    <t>100403;900</t>
-  </si>
-  <si>
-    <t>100403;1200</t>
-  </si>
-  <si>
-    <t>100403;1500</t>
-  </si>
-  <si>
-    <t>100403;1800</t>
-  </si>
-  <si>
-    <t>100203;300</t>
-  </si>
-  <si>
-    <t>100203;600</t>
-  </si>
-  <si>
-    <t>100203;1200</t>
-  </si>
-  <si>
-    <t>100203;2100</t>
-  </si>
-  <si>
-    <t>100203;3000</t>
-  </si>
-  <si>
-    <t>100203;4200</t>
-  </si>
-  <si>
-    <t>100203;5400</t>
-  </si>
-  <si>
-    <t>100203;7200</t>
-  </si>
-  <si>
-    <t>100203;9000</t>
-  </si>
-  <si>
-    <t>100203;10800</t>
-  </si>
-  <si>
-    <t>100603;50</t>
-  </si>
-  <si>
-    <t>100603;100</t>
-  </si>
-  <si>
-    <t>100603;200</t>
-  </si>
-  <si>
-    <t>100603;350</t>
-  </si>
-  <si>
-    <t>100603;500</t>
-  </si>
-  <si>
-    <t>100603;700</t>
-  </si>
-  <si>
-    <t>100603;900</t>
-  </si>
-  <si>
-    <t>100603;1200</t>
-  </si>
-  <si>
-    <t>100603;1500</t>
-  </si>
-  <si>
-    <t>100603;1800</t>
-  </si>
-  <si>
-    <t>100803;50</t>
-  </si>
-  <si>
-    <t>100803;100</t>
-  </si>
-  <si>
-    <t>100803;200</t>
-  </si>
-  <si>
-    <t>100803;350</t>
-  </si>
-  <si>
-    <t>100803;500</t>
-  </si>
-  <si>
-    <t>100803;700</t>
-  </si>
-  <si>
-    <t>100803;900</t>
-  </si>
-  <si>
-    <t>100803;1200</t>
-  </si>
-  <si>
-    <t>100803;1500</t>
-  </si>
-  <si>
     <t>100803;1800</t>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击修炼11级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击修炼12级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;2100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;2400</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>法防修炼11级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100803;2100</t>
   </si>
   <si>
     <t>法防修炼12级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100803;2100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>100803;2400</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100603;2100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100603;2400</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;12600</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;14400</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物攻击修炼0级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100</t>
   </si>
   <si>
     <t>宠物攻击修炼1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.01</t>
   </si>
   <si>
     <t>宠物攻击修炼2级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.02</t>
   </si>
   <si>
     <t>宠物攻击修炼3级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.03</t>
   </si>
   <si>
     <t>宠物攻击修炼4级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.04</t>
   </si>
   <si>
     <t>宠物攻击修炼5级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.05</t>
   </si>
   <si>
     <t>宠物攻击修炼6级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.06</t>
   </si>
   <si>
     <t>宠物攻击修炼7级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.07</t>
   </si>
   <si>
     <t>宠物攻击修炼8级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.08</t>
   </si>
   <si>
     <t>宠物攻击修炼9级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.09</t>
   </si>
   <si>
     <t>宠物攻击修炼10级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.10</t>
   </si>
   <si>
     <t>宠物攻击修炼11级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.11</t>
   </si>
   <si>
     <t>宠物攻击修炼12级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130102;0.12</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼0级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼1级</t>
+  </si>
+  <si>
+    <t>130002;0.01</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼2级</t>
+  </si>
+  <si>
+    <t>130002;0.02</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼3级</t>
+  </si>
+  <si>
+    <t>130002;0.03</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼4级</t>
+  </si>
+  <si>
+    <t>130002;0.04</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼5级</t>
+  </si>
+  <si>
+    <t>130002;0.05</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼6级</t>
+  </si>
+  <si>
+    <t>130002;0.06</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼7级</t>
+  </si>
+  <si>
+    <t>130002;0.07</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼8级</t>
+  </si>
+  <si>
+    <t>130002;0.08</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼9级</t>
+  </si>
+  <si>
+    <t>130002;0.09</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼10级</t>
+  </si>
+  <si>
+    <t>130002;0.10</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼11级</t>
+  </si>
+  <si>
+    <t>130002;0.11</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼12级</t>
+  </si>
+  <si>
+    <t>130002;0.12</t>
   </si>
   <si>
     <t>宠物防御修炼0级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物防御修炼1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130202;0.01</t>
   </si>
   <si>
     <t>宠物防御修炼2级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130202;0.02</t>
   </si>
   <si>
     <t>宠物防御修炼3级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130202;0.03</t>
   </si>
   <si>
     <t>宠物防御修炼4级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130202;0.04</t>
   </si>
   <si>
     <t>宠物防御修炼5级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130202;0.05</t>
   </si>
   <si>
     <t>宠物防御修炼6级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130202;0.06</t>
   </si>
   <si>
     <t>宠物防御修炼7级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130202;0.07</t>
   </si>
   <si>
     <t>宠物防御修炼8级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130202;0.08</t>
   </si>
   <si>
     <t>宠物防御修炼9级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130202;0.09</t>
   </si>
   <si>
     <t>宠物防御修炼10级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130202;0.10</t>
+  </si>
+  <si>
+    <t>宠物防御修炼11级</t>
+  </si>
+  <si>
+    <t>130202;0.11</t>
+  </si>
+  <si>
+    <t>宠物防御修炼12级</t>
+  </si>
+  <si>
+    <t>130202;0.12</t>
   </si>
   <si>
     <t>宠物法防修炼0级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>宠物法防修炼1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.01</t>
   </si>
   <si>
     <t>宠物法防修炼2级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.02</t>
   </si>
   <si>
     <t>宠物法防修炼3级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.03</t>
   </si>
   <si>
     <t>宠物法防修炼4级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.04</t>
   </si>
   <si>
     <t>宠物法防修炼5级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.05</t>
   </si>
   <si>
     <t>宠物法防修炼6级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.06</t>
   </si>
   <si>
     <t>宠物法防修炼7级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.07</t>
   </si>
   <si>
     <t>宠物法防修炼8级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.08</t>
   </si>
   <si>
     <t>宠物法防修炼9级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.09</t>
   </si>
   <si>
     <t>宠物法防修炼10级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.10</t>
   </si>
   <si>
     <t>宠物法防修炼11级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>130302;0.11</t>
   </si>
   <si>
     <t>宠物法防修炼12级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物魔法修炼0级</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼1级</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼2级</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼3级</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼4级</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼5级</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼6级</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼7级</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼8级</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼9级</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼10级</t>
-  </si>
-  <si>
-    <t>130303;50</t>
-  </si>
-  <si>
-    <t>130303;100</t>
-  </si>
-  <si>
-    <t>130303;200</t>
-  </si>
-  <si>
-    <t>130303;350</t>
-  </si>
-  <si>
-    <t>130303;500</t>
-  </si>
-  <si>
-    <t>130303;700</t>
-  </si>
-  <si>
-    <t>130303;900</t>
-  </si>
-  <si>
-    <t>130303;1200</t>
-  </si>
-  <si>
-    <t>130303;1500</t>
-  </si>
-  <si>
-    <t>130303;1800</t>
-  </si>
-  <si>
-    <t>130303;2100</t>
-  </si>
-  <si>
-    <t>130303;2400</t>
-  </si>
-  <si>
-    <t>宠物魔法修炼11级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物魔法修炼12级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物防御修炼11级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物防御修炼12级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御修炼11级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御修炼12级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命修炼11级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命修炼12级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗道具</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostItem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>130102;0.01</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>130102;0.02</t>
-  </si>
-  <si>
-    <t>130102;0.03</t>
-  </si>
-  <si>
-    <t>130102;0.04</t>
-  </si>
-  <si>
-    <t>130102;0.05</t>
-  </si>
-  <si>
-    <t>130102;0.06</t>
-  </si>
-  <si>
-    <t>130102;0.07</t>
-  </si>
-  <si>
-    <t>130102;0.08</t>
-  </si>
-  <si>
-    <t>130102;0.09</t>
-  </si>
-  <si>
-    <t>130102;0.10</t>
-  </si>
-  <si>
-    <t>130102;0.11</t>
-  </si>
-  <si>
-    <t>130102;0.12</t>
-  </si>
-  <si>
-    <t>130002;0.01</t>
-  </si>
-  <si>
-    <t>130002;0.02</t>
-  </si>
-  <si>
-    <t>130002;0.03</t>
-  </si>
-  <si>
-    <t>130002;0.04</t>
-  </si>
-  <si>
-    <t>130002;0.05</t>
-  </si>
-  <si>
-    <t>130002;0.06</t>
-  </si>
-  <si>
-    <t>130002;0.07</t>
-  </si>
-  <si>
-    <t>130002;0.08</t>
-  </si>
-  <si>
-    <t>130002;0.09</t>
-  </si>
-  <si>
-    <t>130002;0.10</t>
-  </si>
-  <si>
-    <t>130002;0.11</t>
-  </si>
-  <si>
-    <t>130002;0.12</t>
-  </si>
-  <si>
-    <t>130202;0.01</t>
-  </si>
-  <si>
-    <t>130202;0.02</t>
-  </si>
-  <si>
-    <t>130202;0.03</t>
-  </si>
-  <si>
-    <t>130202;0.04</t>
-  </si>
-  <si>
-    <t>130202;0.05</t>
-  </si>
-  <si>
-    <t>130202;0.06</t>
-  </si>
-  <si>
-    <t>130202;0.07</t>
-  </si>
-  <si>
-    <t>130202;0.08</t>
-  </si>
-  <si>
-    <t>130202;0.09</t>
-  </si>
-  <si>
-    <t>130202;0.10</t>
-  </si>
-  <si>
-    <t>130202;0.11</t>
-  </si>
-  <si>
-    <t>130202;0.12</t>
+  </si>
+  <si>
+    <t>130302;0.12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2043,21 +1952,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2065,42 +1965,184 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2110,18 +2152,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2215,23 +2437,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2247,10 +2711,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -2320,14 +2831,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3396,133 +3899,133 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:ID109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
-    <col min="4" max="9" width="14.125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="24.875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.75" style="3" customWidth="1"/>
-    <col min="13" max="238" width="8.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
+    <col min="4" max="9" width="14.125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="24.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.75" style="2" customWidth="1"/>
+    <col min="13" max="238" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:238" s="1" customFormat="1" ht="14.25"/>
-    <row r="2" spans="3:238" ht="13.5" customHeight="1">
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="3:238" ht="20.100000000000001" customHeight="1">
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" customHeight="1" spans="4:4">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="3:12">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:238" ht="20.100000000000001" customHeight="1">
-      <c r="C4" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:12">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="3:238" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="3:12">
+      <c r="C5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="3:12">
       <c r="C6" s="8">
         <v>10100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="8">
         <v>10101</v>
@@ -3545,12 +4048,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="7" ht="20.1" customHeight="1" spans="3:12">
       <c r="C7" s="8">
         <v>10101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" s="8">
         <v>10102</v>
@@ -3565,22 +4068,22 @@
         <v>0.8</v>
       </c>
       <c r="I7" s="11">
-        <v>220.00000000000003</v>
+        <v>220</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="L7" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="8" ht="20.1" customHeight="1" spans="3:238">
       <c r="C8" s="8">
         <v>10102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" s="8">
         <v>10103</v>
@@ -3599,19 +4102,19 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="L8" s="10">
         <v>0.04</v>
       </c>
       <c r="ID8"/>
     </row>
-    <row r="9" spans="3:238" ht="19.5" customHeight="1">
+    <row r="9" ht="19.5" customHeight="1" spans="3:238">
       <c r="C9" s="8">
         <v>10103</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8">
         <v>10104</v>
@@ -3630,19 +4133,19 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="L9" s="10">
         <v>0.04</v>
       </c>
       <c r="ID9"/>
     </row>
-    <row r="10" spans="3:238" ht="19.5" customHeight="1">
+    <row r="10" ht="19.5" customHeight="1" spans="3:238">
       <c r="C10" s="8">
         <v>10104</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" s="8">
         <v>10105</v>
@@ -3661,19 +4164,19 @@
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="L10" s="10">
         <v>0.04</v>
       </c>
       <c r="ID10"/>
     </row>
-    <row r="11" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="11" ht="20.1" customHeight="1" spans="3:12">
       <c r="C11" s="8">
         <v>10105</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E11" s="8">
         <v>10106</v>
@@ -3692,18 +4195,18 @@
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="L11" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="12" ht="20.1" customHeight="1" spans="3:238">
       <c r="C12" s="8">
         <v>10106</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8">
         <v>10107</v>
@@ -3722,19 +4225,19 @@
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="L12" s="10">
         <v>0.04</v>
       </c>
       <c r="ID12"/>
     </row>
-    <row r="13" spans="3:238" ht="19.5" customHeight="1">
+    <row r="13" ht="19.5" customHeight="1" spans="3:238">
       <c r="C13" s="8">
         <v>10107</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E13" s="8">
         <v>10108</v>
@@ -3753,19 +4256,19 @@
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="L13" s="10">
         <v>0.04</v>
       </c>
       <c r="ID13"/>
     </row>
-    <row r="14" spans="3:238" ht="19.5" customHeight="1">
+    <row r="14" ht="19.5" customHeight="1" spans="3:238">
       <c r="C14" s="8">
         <v>10108</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E14" s="8">
         <v>10109</v>
@@ -3784,19 +4287,19 @@
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="L14" s="10">
         <v>0.04</v>
       </c>
       <c r="ID14"/>
     </row>
-    <row r="15" spans="3:238" ht="19.5" customHeight="1">
+    <row r="15" ht="19.5" customHeight="1" spans="3:238">
       <c r="C15" s="8">
         <v>10109</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E15" s="8">
         <v>10110</v>
@@ -3815,19 +4318,19 @@
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="L15" s="10">
         <v>0.04</v>
       </c>
       <c r="ID15"/>
     </row>
-    <row r="16" spans="3:238" ht="19.5" customHeight="1">
+    <row r="16" ht="19.5" customHeight="1" spans="3:238">
       <c r="C16" s="8">
         <v>10110</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="8">
         <v>10111</v>
@@ -3842,23 +4345,23 @@
         <v>0.5</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="L16" s="10">
         <v>0.04</v>
       </c>
       <c r="ID16"/>
     </row>
-    <row r="17" spans="3:238" ht="19.5" customHeight="1">
+    <row r="17" ht="19.5" customHeight="1" spans="3:238">
       <c r="C17" s="8">
         <v>10111</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E17" s="8">
         <v>10112</v>
@@ -3873,23 +4376,23 @@
         <v>0.5</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="L17" s="10">
         <v>0.04</v>
       </c>
       <c r="ID17"/>
     </row>
-    <row r="18" spans="3:238" ht="19.5" customHeight="1">
+    <row r="18" ht="19.5" customHeight="1" spans="3:238">
       <c r="C18" s="8">
         <v>10112</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="E18" s="8">
         <v>0</v>
@@ -3904,23 +4407,23 @@
         <v>0.5</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="L18" s="10">
         <v>0.04</v>
       </c>
       <c r="ID18"/>
     </row>
-    <row r="19" spans="3:238" ht="22.5" customHeight="1">
+    <row r="19" ht="22.5" customHeight="1" spans="3:12">
       <c r="C19" s="8">
         <v>10200</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E19" s="8">
         <v>10201</v>
@@ -3943,12 +4446,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="20" ht="20.1" customHeight="1" spans="3:12">
       <c r="C20" s="8">
         <v>10201</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E20" s="8">
         <v>10202</v>
@@ -3963,22 +4466,22 @@
         <v>0.8</v>
       </c>
       <c r="I20" s="11">
-        <v>220.00000000000003</v>
+        <v>220</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="L20" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="21" ht="20.1" customHeight="1" spans="3:238">
       <c r="C21" s="8">
         <v>10202</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E21" s="8">
         <v>10203</v>
@@ -3997,19 +4500,19 @@
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="L21" s="10">
         <v>0.04</v>
       </c>
       <c r="ID21"/>
     </row>
-    <row r="22" spans="3:238" ht="19.5" customHeight="1">
+    <row r="22" ht="19.5" customHeight="1" spans="3:238">
       <c r="C22" s="8">
         <v>10203</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E22" s="8">
         <v>10204</v>
@@ -4028,19 +4531,19 @@
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="L22" s="10">
         <v>0.04</v>
       </c>
       <c r="ID22"/>
     </row>
-    <row r="23" spans="3:238" ht="19.5" customHeight="1">
+    <row r="23" ht="19.5" customHeight="1" spans="3:238">
       <c r="C23" s="8">
         <v>10204</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E23" s="8">
         <v>10205</v>
@@ -4059,19 +4562,19 @@
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="L23" s="10">
         <v>0.04</v>
       </c>
       <c r="ID23"/>
     </row>
-    <row r="24" spans="3:238" ht="22.5" customHeight="1">
+    <row r="24" ht="22.5" customHeight="1" spans="3:12">
       <c r="C24" s="8">
         <v>10205</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E24" s="8">
         <v>10206</v>
@@ -4090,18 +4593,18 @@
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="L24" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="25" ht="20.1" customHeight="1" spans="3:12">
       <c r="C25" s="8">
         <v>10206</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E25" s="8">
         <v>10207</v>
@@ -4120,18 +4623,18 @@
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="L25" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="26" ht="20.1" customHeight="1" spans="3:238">
       <c r="C26" s="8">
         <v>10207</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E26" s="8">
         <v>10208</v>
@@ -4150,19 +4653,19 @@
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="L26" s="10">
         <v>0.04</v>
       </c>
       <c r="ID26"/>
     </row>
-    <row r="27" spans="3:238" ht="19.5" customHeight="1">
+    <row r="27" ht="19.5" customHeight="1" spans="3:238">
       <c r="C27" s="8">
         <v>10208</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E27" s="8">
         <v>10209</v>
@@ -4181,19 +4684,19 @@
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="L27" s="10">
         <v>0.04</v>
       </c>
       <c r="ID27"/>
     </row>
-    <row r="28" spans="3:238" ht="19.5" customHeight="1">
+    <row r="28" ht="19.5" customHeight="1" spans="3:238">
       <c r="C28" s="8">
         <v>10209</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E28" s="8">
         <v>10210</v>
@@ -4212,19 +4715,19 @@
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="L28" s="10">
         <v>0.04</v>
       </c>
       <c r="ID28"/>
     </row>
-    <row r="29" spans="3:238" ht="19.5" customHeight="1">
+    <row r="29" ht="19.5" customHeight="1" spans="3:238">
       <c r="C29" s="8">
         <v>10210</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E29" s="8">
         <v>10211</v>
@@ -4239,23 +4742,23 @@
         <v>0.6</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="L29" s="10">
         <v>0.04</v>
       </c>
       <c r="ID29"/>
     </row>
-    <row r="30" spans="3:238" ht="19.5" customHeight="1">
+    <row r="30" ht="19.5" customHeight="1" spans="3:238">
       <c r="C30" s="8">
         <v>10211</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="E30" s="8">
         <v>10212</v>
@@ -4270,23 +4773,23 @@
         <v>0.6</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="L30" s="10">
         <v>0.04</v>
       </c>
       <c r="ID30"/>
     </row>
-    <row r="31" spans="3:238" ht="19.5" customHeight="1">
+    <row r="31" ht="19.5" customHeight="1" spans="3:238">
       <c r="C31" s="8">
         <v>10212</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="E31" s="8">
         <v>0</v>
@@ -4301,23 +4804,23 @@
         <v>0.6</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="L31" s="10">
         <v>0.04</v>
       </c>
       <c r="ID31"/>
     </row>
-    <row r="32" spans="3:238" ht="22.5" customHeight="1">
+    <row r="32" ht="22.5" customHeight="1" spans="3:12">
       <c r="C32" s="8">
         <v>10300</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E32" s="8">
         <v>10301</v>
@@ -4340,12 +4843,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="33" ht="20.1" customHeight="1" spans="3:12">
       <c r="C33" s="8">
         <v>10301</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E33" s="8">
         <v>10302</v>
@@ -4360,22 +4863,22 @@
         <v>0.8</v>
       </c>
       <c r="I33" s="11">
-        <v>220.00000000000003</v>
+        <v>220</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L33" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="34" ht="20.1" customHeight="1" spans="3:238">
       <c r="C34" s="8">
         <v>10302</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E34" s="8">
         <v>10303</v>
@@ -4394,19 +4897,19 @@
       </c>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L34" s="10">
         <v>0.04</v>
       </c>
       <c r="ID34"/>
     </row>
-    <row r="35" spans="3:238" ht="19.5" customHeight="1">
+    <row r="35" ht="19.5" customHeight="1" spans="3:238">
       <c r="C35" s="8">
         <v>10303</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="E35" s="8">
         <v>10304</v>
@@ -4425,19 +4928,19 @@
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L35" s="10">
         <v>0.04</v>
       </c>
       <c r="ID35"/>
     </row>
-    <row r="36" spans="3:238" ht="19.5" customHeight="1">
+    <row r="36" ht="19.5" customHeight="1" spans="3:238">
       <c r="C36" s="8">
         <v>10304</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E36" s="8">
         <v>10305</v>
@@ -4456,19 +4959,19 @@
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L36" s="10">
         <v>0.04</v>
       </c>
       <c r="ID36"/>
     </row>
-    <row r="37" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="37" ht="20.1" customHeight="1" spans="3:12">
       <c r="C37" s="8">
         <v>10305</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E37" s="8">
         <v>10306</v>
@@ -4487,18 +4990,18 @@
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L37" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="38" ht="20.1" customHeight="1" spans="3:238">
       <c r="C38" s="8">
         <v>10306</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E38" s="8">
         <v>10307</v>
@@ -4517,19 +5020,19 @@
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L38" s="10">
         <v>0.04</v>
       </c>
       <c r="ID38"/>
     </row>
-    <row r="39" spans="3:238" ht="19.5" customHeight="1">
+    <row r="39" ht="19.5" customHeight="1" spans="3:238">
       <c r="C39" s="8">
         <v>10307</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E39" s="8">
         <v>10308</v>
@@ -4548,19 +5051,19 @@
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L39" s="10">
         <v>0.04</v>
       </c>
       <c r="ID39"/>
     </row>
-    <row r="40" spans="3:238" ht="19.5" customHeight="1">
+    <row r="40" ht="19.5" customHeight="1" spans="3:238">
       <c r="C40" s="8">
         <v>10308</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E40" s="8">
         <v>10309</v>
@@ -4579,19 +5082,19 @@
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L40" s="10">
         <v>0.04</v>
       </c>
       <c r="ID40"/>
     </row>
-    <row r="41" spans="3:238" ht="19.5" customHeight="1">
+    <row r="41" ht="19.5" customHeight="1" spans="3:238">
       <c r="C41" s="8">
         <v>10309</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E41" s="8">
         <v>10310</v>
@@ -4617,12 +5120,12 @@
       </c>
       <c r="ID41"/>
     </row>
-    <row r="42" spans="3:238" ht="19.5" customHeight="1">
+    <row r="42" ht="19.5" customHeight="1" spans="3:238">
       <c r="C42" s="8">
         <v>10310</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E42" s="8">
         <v>10311</v>
@@ -4637,23 +5140,23 @@
         <v>0.6</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L42" s="10">
         <v>0.04</v>
       </c>
       <c r="ID42"/>
     </row>
-    <row r="43" spans="3:238" ht="19.5" customHeight="1">
+    <row r="43" ht="19.5" customHeight="1" spans="3:238">
       <c r="C43" s="8">
         <v>10311</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="E43" s="8">
         <v>10312</v>
@@ -4668,23 +5171,23 @@
         <v>0.6</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L43" s="10">
         <v>0.04</v>
       </c>
       <c r="ID43"/>
     </row>
-    <row r="44" spans="3:238" ht="19.5" customHeight="1">
+    <row r="44" ht="19.5" customHeight="1" spans="3:238">
       <c r="C44" s="8">
         <v>10312</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="E44" s="8">
         <v>0</v>
@@ -4699,23 +5202,23 @@
         <v>0.6</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="L44" s="10">
         <v>0.04</v>
       </c>
       <c r="ID44"/>
     </row>
-    <row r="45" spans="3:238" ht="22.5" customHeight="1">
+    <row r="45" ht="22.5" customHeight="1" spans="3:12">
       <c r="C45" s="8">
         <v>10400</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E45" s="8">
         <v>10401</v>
@@ -4738,12 +5241,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="46" ht="20.1" customHeight="1" spans="3:12">
       <c r="C46" s="8">
         <v>10401</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="E46" s="8">
         <v>10402</v>
@@ -4758,22 +5261,22 @@
         <v>0.8</v>
       </c>
       <c r="I46" s="11">
-        <v>220.00000000000003</v>
+        <v>220</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L46" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="47" ht="20.1" customHeight="1" spans="3:238">
       <c r="C47" s="8">
         <v>10402</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="E47" s="8">
         <v>10403</v>
@@ -4792,19 +5295,19 @@
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L47" s="10">
         <v>0.04</v>
       </c>
       <c r="ID47"/>
     </row>
-    <row r="48" spans="3:238" ht="19.5" customHeight="1">
+    <row r="48" ht="19.5" customHeight="1" spans="3:238">
       <c r="C48" s="8">
         <v>10403</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E48" s="8">
         <v>10404</v>
@@ -4823,19 +5326,19 @@
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L48" s="10">
         <v>0.04</v>
       </c>
       <c r="ID48"/>
     </row>
-    <row r="49" spans="3:238" ht="19.5" customHeight="1">
+    <row r="49" ht="19.5" customHeight="1" spans="3:238">
       <c r="C49" s="8">
         <v>10404</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E49" s="8">
         <v>10405</v>
@@ -4854,19 +5357,19 @@
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L49" s="10">
         <v>0.04</v>
       </c>
       <c r="ID49"/>
     </row>
-    <row r="50" spans="3:238" ht="22.5" customHeight="1">
+    <row r="50" ht="22.5" customHeight="1" spans="3:12">
       <c r="C50" s="8">
         <v>10405</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="E50" s="8">
         <v>10406</v>
@@ -4885,18 +5388,18 @@
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="10" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="L50" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="51" ht="20.1" customHeight="1" spans="3:12">
       <c r="C51" s="8">
         <v>10406</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="E51" s="8">
         <v>10407</v>
@@ -4915,18 +5418,18 @@
       </c>
       <c r="J51" s="10"/>
       <c r="K51" s="10" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L51" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="52" ht="20.1" customHeight="1" spans="3:238">
       <c r="C52" s="8">
         <v>10407</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="E52" s="8">
         <v>10408</v>
@@ -4945,19 +5448,19 @@
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="L52" s="10">
         <v>0.04</v>
       </c>
       <c r="ID52"/>
     </row>
-    <row r="53" spans="3:238" ht="19.5" customHeight="1">
+    <row r="53" ht="19.5" customHeight="1" spans="3:238">
       <c r="C53" s="8">
         <v>10408</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E53" s="8">
         <v>10409</v>
@@ -4976,19 +5479,19 @@
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="L53" s="10">
         <v>0.04</v>
       </c>
       <c r="ID53"/>
     </row>
-    <row r="54" spans="3:238" ht="19.5" customHeight="1">
+    <row r="54" ht="19.5" customHeight="1" spans="3:238">
       <c r="C54" s="8">
         <v>10409</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="E54" s="8">
         <v>10410</v>
@@ -5007,19 +5510,19 @@
       </c>
       <c r="J54" s="10"/>
       <c r="K54" s="10" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="L54" s="10">
         <v>0.04</v>
       </c>
       <c r="ID54"/>
     </row>
-    <row r="55" spans="3:238" ht="19.5" customHeight="1">
+    <row r="55" ht="19.5" customHeight="1" spans="3:238">
       <c r="C55" s="8">
         <v>10410</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="E55" s="8">
         <v>10411</v>
@@ -5034,23 +5537,23 @@
         <v>0.6</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="L55" s="10">
         <v>0.04</v>
       </c>
       <c r="ID55"/>
     </row>
-    <row r="56" spans="3:238" ht="19.5" customHeight="1">
+    <row r="56" ht="19.5" customHeight="1" spans="3:238">
       <c r="C56" s="8">
         <v>10411</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E56" s="8">
         <v>10412</v>
@@ -5065,23 +5568,23 @@
         <v>0.6</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L56" s="10">
         <v>0.04</v>
       </c>
       <c r="ID56"/>
     </row>
-    <row r="57" spans="3:238" ht="19.5" customHeight="1">
+    <row r="57" ht="19.5" customHeight="1" spans="3:238">
       <c r="C57" s="8">
         <v>10412</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E57" s="8">
         <v>0</v>
@@ -5096,23 +5599,23 @@
         <v>0.6</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L57" s="10">
         <v>0.04</v>
       </c>
       <c r="ID57"/>
     </row>
-    <row r="58" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="58" ht="20.1" customHeight="1" spans="3:12">
       <c r="C58" s="8">
         <v>11100</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E58" s="8">
         <v>11101</v>
@@ -5130,19 +5633,19 @@
         <v>100</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="59" ht="20.1" customHeight="1" spans="3:12">
       <c r="C59" s="8">
         <v>11101</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E59" s="8">
         <v>11102</v>
@@ -5157,24 +5660,24 @@
         <v>0.8</v>
       </c>
       <c r="I59" s="11">
-        <v>220.00000000000003</v>
+        <v>220</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="L59" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="60" ht="20.1" customHeight="1" spans="3:12">
       <c r="C60" s="8">
         <v>11102</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E60" s="8">
         <v>11103</v>
@@ -5192,21 +5695,21 @@
         <v>375</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="L60" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="61" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="61" ht="20.1" customHeight="1" spans="3:12">
       <c r="C61" s="8">
         <v>11103</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E61" s="8">
         <v>11104</v>
@@ -5224,21 +5727,21 @@
         <v>560</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="L61" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="62" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="62" ht="20.1" customHeight="1" spans="3:12">
       <c r="C62" s="8">
         <v>11104</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E62" s="8">
         <v>11105</v>
@@ -5256,21 +5759,21 @@
         <v>775</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="L62" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="63" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="63" ht="20.1" customHeight="1" spans="3:12">
       <c r="C63" s="8">
         <v>11105</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E63" s="8">
         <v>11106</v>
@@ -5288,21 +5791,21 @@
         <v>1020</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="L63" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="64" ht="20.1" customHeight="1" spans="3:12">
       <c r="C64" s="8">
         <v>11106</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E64" s="8">
         <v>11107</v>
@@ -5320,21 +5823,21 @@
         <v>1330</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="L64" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="65" ht="20.1" customHeight="1" spans="3:12">
       <c r="C65" s="8">
         <v>11107</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E65" s="8">
         <v>11108</v>
@@ -5352,21 +5855,21 @@
         <v>1680</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="L65" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="66" ht="20.1" customHeight="1" spans="3:12">
       <c r="C66" s="8">
         <v>11108</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E66" s="8">
         <v>11109</v>
@@ -5384,21 +5887,21 @@
         <v>2070</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="L66" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="67" ht="20.1" customHeight="1" spans="3:12">
       <c r="C67" s="8">
         <v>11109</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E67" s="8">
         <v>11110</v>
@@ -5416,21 +5919,21 @@
         <v>2500</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="L67" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="68" ht="20.1" customHeight="1" spans="3:12">
       <c r="C68" s="8">
         <v>11110</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="E68" s="8">
         <v>11111</v>
@@ -5445,24 +5948,24 @@
         <v>0.5</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="L68" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="69" ht="20.1" customHeight="1" spans="3:12">
       <c r="C69" s="8">
         <v>11111</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E69" s="8">
         <v>11112</v>
@@ -5477,24 +5980,24 @@
         <v>0.5</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="L69" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="70" ht="20.1" customHeight="1" spans="3:12">
       <c r="C70" s="8">
         <v>11112</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E70" s="8">
         <v>0</v>
@@ -5509,24 +6012,24 @@
         <v>0.5</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="L70" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="71" ht="20.1" customHeight="1" spans="3:12">
       <c r="C71" s="8">
         <v>11200</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E71" s="8">
         <v>11201</v>
@@ -5544,19 +6047,19 @@
         <v>100</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="72" ht="20.1" customHeight="1" spans="3:12">
       <c r="C72" s="8">
         <v>11201</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E72" s="8">
         <v>11202</v>
@@ -5571,24 +6074,24 @@
         <v>0.8</v>
       </c>
       <c r="I72" s="11">
-        <v>220.00000000000003</v>
+        <v>220</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="L72" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="73" ht="20.1" customHeight="1" spans="3:12">
       <c r="C73" s="8">
         <v>11202</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E73" s="8">
         <v>11203</v>
@@ -5606,21 +6109,21 @@
         <v>375</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="L73" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="74" ht="20.1" customHeight="1" spans="3:12">
       <c r="C74" s="8">
         <v>11203</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E74" s="8">
         <v>11204</v>
@@ -5638,21 +6141,21 @@
         <v>560</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="L74" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="75" ht="20.1" customHeight="1" spans="3:12">
       <c r="C75" s="8">
         <v>11204</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E75" s="8">
         <v>11205</v>
@@ -5670,21 +6173,21 @@
         <v>775</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="L75" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="76" ht="20.1" customHeight="1" spans="3:12">
       <c r="C76" s="8">
         <v>11205</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E76" s="8">
         <v>11206</v>
@@ -5702,21 +6205,21 @@
         <v>1020</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="L76" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="77" ht="20.1" customHeight="1" spans="3:12">
       <c r="C77" s="8">
         <v>11206</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E77" s="8">
         <v>11207</v>
@@ -5734,16 +6237,16 @@
         <v>1330</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="L77" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="78" ht="20.1" customHeight="1" spans="3:12">
       <c r="C78" s="8">
         <v>11207</v>
       </c>
@@ -5766,21 +6269,21 @@
         <v>1680</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="L78" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="79" ht="20.1" customHeight="1" spans="3:12">
       <c r="C79" s="8">
         <v>11208</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E79" s="8">
         <v>11209</v>
@@ -5798,21 +6301,21 @@
         <v>2070</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="L79" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="80" ht="20.1" customHeight="1" spans="3:12">
       <c r="C80" s="8">
         <v>11209</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E80" s="8">
         <v>11210</v>
@@ -5830,21 +6333,21 @@
         <v>2500</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="L80" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="81" ht="20.1" customHeight="1" spans="3:12">
       <c r="C81" s="8">
         <v>11210</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E81" s="8">
         <v>11211</v>
@@ -5859,24 +6362,24 @@
         <v>0.6</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="L81" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="82" ht="20.1" customHeight="1" spans="3:12">
       <c r="C82" s="8">
         <v>11211</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E82" s="8">
         <v>11212</v>
@@ -5891,24 +6394,24 @@
         <v>0.6</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="L82" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="83" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="83" ht="20.1" customHeight="1" spans="3:12">
       <c r="C83" s="8">
         <v>11212</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E83" s="8">
         <v>0</v>
@@ -5923,24 +6426,24 @@
         <v>0.6</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="L83" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="84" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="84" ht="20.1" customHeight="1" spans="3:12">
       <c r="C84" s="8">
         <v>11300</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="E84" s="8">
         <v>11301</v>
@@ -5958,19 +6461,19 @@
         <v>100</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="85" ht="20.1" customHeight="1" spans="3:12">
       <c r="C85" s="8">
         <v>11301</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="E85" s="8">
         <v>11302</v>
@@ -5985,24 +6488,24 @@
         <v>0.8</v>
       </c>
       <c r="I85" s="11">
-        <v>220.00000000000003</v>
+        <v>220</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="L85" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="86" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="86" ht="20.1" customHeight="1" spans="3:12">
       <c r="C86" s="8">
         <v>11302</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="E86" s="8">
         <v>11303</v>
@@ -6020,21 +6523,21 @@
         <v>375</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="L86" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="87" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="87" ht="20.1" customHeight="1" spans="3:12">
       <c r="C87" s="8">
         <v>11303</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="E87" s="8">
         <v>11304</v>
@@ -6052,21 +6555,21 @@
         <v>560</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="L87" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="88" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="88" ht="20.1" customHeight="1" spans="3:12">
       <c r="C88" s="8">
         <v>11304</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="E88" s="8">
         <v>11305</v>
@@ -6084,21 +6587,21 @@
         <v>775</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="L88" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="89" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="89" ht="20.1" customHeight="1" spans="3:12">
       <c r="C89" s="8">
         <v>11305</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="E89" s="8">
         <v>11306</v>
@@ -6116,21 +6619,21 @@
         <v>1020</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="L89" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="90" ht="20.1" customHeight="1" spans="3:12">
       <c r="C90" s="8">
         <v>11306</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E90" s="8">
         <v>11307</v>
@@ -6148,21 +6651,21 @@
         <v>1330</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="L90" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="91" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="91" ht="20.1" customHeight="1" spans="3:12">
       <c r="C91" s="8">
         <v>11307</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="E91" s="8">
         <v>11308</v>
@@ -6180,21 +6683,21 @@
         <v>1680</v>
       </c>
       <c r="J91" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K91" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="K91" s="10" t="s">
-        <v>221</v>
-      </c>
       <c r="L91" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="92" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="92" ht="20.1" customHeight="1" spans="3:12">
       <c r="C92" s="8">
         <v>11308</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="E92" s="8">
         <v>11309</v>
@@ -6212,21 +6715,21 @@
         <v>2070</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="L92" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="93" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="93" ht="20.1" customHeight="1" spans="3:12">
       <c r="C93" s="8">
         <v>11309</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="E93" s="8">
         <v>11310</v>
@@ -6244,21 +6747,21 @@
         <v>2500</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="L93" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="94" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="94" ht="20.1" customHeight="1" spans="3:12">
       <c r="C94" s="8">
         <v>11310</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="E94" s="8">
         <v>11311</v>
@@ -6273,24 +6776,24 @@
         <v>0.6</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="L94" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="95" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="95" ht="20.1" customHeight="1" spans="3:12">
       <c r="C95" s="8">
         <v>11311</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E95" s="8">
         <v>11312</v>
@@ -6305,24 +6808,24 @@
         <v>0.6</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="L95" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="96" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="96" ht="20.1" customHeight="1" spans="3:12">
       <c r="C96" s="8">
         <v>11312</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E96" s="8">
         <v>0</v>
@@ -6337,24 +6840,24 @@
         <v>0.6</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="L96" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="97" ht="20.1" customHeight="1" spans="3:12">
       <c r="C97" s="8">
         <v>11400</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="E97" s="8">
         <v>11401</v>
@@ -6372,19 +6875,19 @@
         <v>100</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="98" ht="20.1" customHeight="1" spans="3:12">
       <c r="C98" s="8">
         <v>11401</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E98" s="8">
         <v>11402</v>
@@ -6399,24 +6902,24 @@
         <v>0.8</v>
       </c>
       <c r="I98" s="11">
-        <v>220.00000000000003</v>
+        <v>220</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="L98" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="99" ht="20.1" customHeight="1" spans="3:12">
       <c r="C99" s="8">
         <v>11402</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="E99" s="8">
         <v>11403</v>
@@ -6434,21 +6937,21 @@
         <v>375</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="L99" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="100" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="100" ht="20.1" customHeight="1" spans="3:12">
       <c r="C100" s="8">
         <v>11403</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="E100" s="8">
         <v>11404</v>
@@ -6466,21 +6969,21 @@
         <v>560</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="L100" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="101" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="101" ht="20.1" customHeight="1" spans="3:12">
       <c r="C101" s="8">
         <v>11404</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="E101" s="8">
         <v>11405</v>
@@ -6498,21 +7001,21 @@
         <v>775</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="L101" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="102" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="102" ht="20.1" customHeight="1" spans="3:12">
       <c r="C102" s="8">
         <v>11405</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="E102" s="8">
         <v>11406</v>
@@ -6530,21 +7033,21 @@
         <v>1020</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="L102" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="103" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="103" ht="20.1" customHeight="1" spans="3:12">
       <c r="C103" s="8">
         <v>11406</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="E103" s="8">
         <v>11407</v>
@@ -6562,21 +7065,21 @@
         <v>1330</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="L103" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="104" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="104" ht="20.1" customHeight="1" spans="3:12">
       <c r="C104" s="8">
         <v>11407</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="E104" s="8">
         <v>11408</v>
@@ -6594,21 +7097,21 @@
         <v>1680</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="L104" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="105" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="105" ht="20.1" customHeight="1" spans="3:12">
       <c r="C105" s="8">
         <v>11408</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="E105" s="8">
         <v>11409</v>
@@ -6626,21 +7129,21 @@
         <v>2070</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="L105" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="106" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="106" ht="20.1" customHeight="1" spans="3:12">
       <c r="C106" s="8">
         <v>11409</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="E106" s="8">
         <v>11410</v>
@@ -6658,21 +7161,21 @@
         <v>2500</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="L106" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="107" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="107" ht="20.1" customHeight="1" spans="3:12">
       <c r="C107" s="8">
         <v>11410</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="E107" s="8">
         <v>11411</v>
@@ -6687,24 +7190,24 @@
         <v>0.6</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="L107" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="108" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="108" ht="20.1" customHeight="1" spans="3:12">
       <c r="C108" s="8">
         <v>11411</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="E108" s="8">
         <v>11412</v>
@@ -6719,24 +7222,24 @@
         <v>0.6</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="L108" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="109" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="109" ht="20.1" customHeight="1" spans="3:12">
       <c r="C109" s="8">
         <v>11412</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="E109" s="8">
         <v>0</v>
@@ -6751,22 +7254,21 @@
         <v>0.6</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="L109" s="10">
         <v>0.04</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -1,33 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B934350-1A13-4E6D-9639-A35A0E0964BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionQiangHuaProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">作者:
 </t>
@@ -37,7 +43,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -47,7 +53,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">10.生命值
 </t>
@@ -57,7 +63,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">11.物理攻击       
 </t>
@@ -67,7 +73,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">14.魔法攻击
 </t>
@@ -77,7 +83,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">17.物理防御        
 </t>
@@ -87,7 +93,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">20.魔法防御
 </t>
@@ -97,7 +103,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">30.暴击
 </t>
@@ -107,7 +113,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">31.命中
 </t>
@@ -117,7 +123,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">32.闪避
 </t>
@@ -127,7 +133,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">33.物理免伤
 </t>
@@ -137,7 +143,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">34.魔法免伤
 </t>
@@ -147,7 +153,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">35.移动速度
 </t>
@@ -157,7 +163,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">36.伤害减免
 </t>
@@ -167,7 +173,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">50:血量百分比
 </t>
@@ -177,7 +183,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">51：物攻百分比
 </t>
@@ -187,7 +193,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">52：魔攻百分比
 </t>
@@ -197,7 +203,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">53：物防百分比
 </t>
@@ -207,7 +213,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">54：魔防百分比
 </t>
@@ -217,7 +223,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -227,7 +233,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">101：格挡值
 </t>
@@ -237,7 +243,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">111：重击概率
 </t>
@@ -247,7 +253,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">112:  重击附加伤害值
 </t>
@@ -257,7 +263,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">121:  每次普通攻击附加的伤害值
 </t>
@@ -267,7 +273,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">131:  忽视目标防御值   
 </t>
@@ -277,7 +283,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">132:  忽视目标魔防值
 </t>
@@ -287,7 +293,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">133:  忽视目标百分比防御值
 </t>
@@ -297,7 +303,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">134:  忽视目标百分比魔防值
 </t>
@@ -307,7 +313,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">141:  吸血概率
 </t>
@@ -317,7 +323,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -327,7 +333,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">151:  法术反击
 </t>
@@ -337,7 +343,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">152:  攻击反击
 </t>
@@ -347,7 +353,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -357,7 +363,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">161：韧性
 </t>
@@ -367,7 +373,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -377,7 +383,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">201：初始暴击等级
 </t>
@@ -387,7 +393,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">202：初始韧性等级
 </t>
@@ -397,7 +403,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">203：初始命中等级
 </t>
@@ -407,7 +413,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">204：初始闪避等级
 </t>
@@ -417,7 +423,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -427,7 +433,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">301:光抗性
 </t>
@@ -437,7 +443,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">302:暗抗性
 </t>
@@ -447,7 +453,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">303:火抗性
 </t>
@@ -457,7 +463,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">304:水抗性
 </t>
@@ -467,7 +473,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">305:电抗性
 </t>
@@ -477,7 +483,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -487,7 +493,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">321：//野兽攻击抗性
 </t>
@@ -497,7 +503,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">322：//人物攻击抗性
 </t>
@@ -507,7 +513,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">323：//恶魔攻击抗性
 </t>
@@ -517,7 +523,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -527,7 +533,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">401：//经验加成
 </t>
@@ -537,7 +543,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">402：//金币加成
 </t>
@@ -547,7 +553,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">403：//洗炼极品掉落
 </t>
@@ -557,7 +563,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">404：//隐藏属性出现概率
 </t>
@@ -567,20 +573,20 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>405：//装备上的宝石槽位出现概率</t>
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">作者:
 </t>
@@ -590,7 +596,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -600,7 +606,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">10.生命值
 </t>
@@ -610,7 +616,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">11.物理攻击       
 </t>
@@ -620,7 +626,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">14.魔法攻击
 </t>
@@ -630,7 +636,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">17.物理防御        
 </t>
@@ -640,7 +646,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">20.魔法防御
 </t>
@@ -650,7 +656,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">30.暴击
 </t>
@@ -660,7 +666,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">31.命中
 </t>
@@ -670,7 +676,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">32.闪避
 </t>
@@ -680,7 +686,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">33.物理免伤
 </t>
@@ -690,7 +696,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">34.魔法免伤
 </t>
@@ -700,7 +706,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">35.移动速度
 </t>
@@ -710,7 +716,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">36.伤害减免
 </t>
@@ -720,7 +726,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">50:血量百分比
 </t>
@@ -730,7 +736,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">51：物攻百分比
 </t>
@@ -740,7 +746,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">52：魔攻百分比
 </t>
@@ -750,7 +756,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">53：物防百分比
 </t>
@@ -760,7 +766,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">54：魔防百分比
 </t>
@@ -770,7 +776,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -780,7 +786,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">101：格挡值
 </t>
@@ -790,7 +796,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">111：重击概率
 </t>
@@ -800,7 +806,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">112:  重击附加伤害值
 </t>
@@ -810,7 +816,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">121:  每次普通攻击附加的伤害值
 </t>
@@ -820,7 +826,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">131:  忽视目标防御值   
 </t>
@@ -830,7 +836,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">132:  忽视目标魔防值
 </t>
@@ -840,7 +846,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">133:  忽视目标百分比防御值
 </t>
@@ -850,7 +856,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">134:  忽视目标百分比魔防值
 </t>
@@ -860,7 +866,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">141:  吸血概率
 </t>
@@ -870,7 +876,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -880,7 +886,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">151:  法术反击
 </t>
@@ -890,7 +896,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">152:  攻击反击
 </t>
@@ -900,7 +906,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -910,7 +916,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">161：韧性
 </t>
@@ -920,7 +926,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -930,7 +936,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">201：初始暴击等级
 </t>
@@ -940,7 +946,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">202：初始韧性等级
 </t>
@@ -950,7 +956,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">203：初始命中等级
 </t>
@@ -960,7 +966,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">204：初始闪避等级
 </t>
@@ -970,7 +976,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -980,7 +986,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">301:光抗性
 </t>
@@ -990,7 +996,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">302:暗抗性
 </t>
@@ -1000,7 +1006,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">303:火抗性
 </t>
@@ -1010,7 +1016,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">304:水抗性
 </t>
@@ -1020,7 +1026,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">305:电抗性
 </t>
@@ -1030,7 +1036,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1040,7 +1046,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">321：//野兽攻击抗性
 </t>
@@ -1050,7 +1056,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">322：//人物攻击抗性
 </t>
@@ -1060,7 +1066,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">323：//恶魔攻击抗性
 </t>
@@ -1070,7 +1076,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1080,7 +1086,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">401：//经验加成
 </t>
@@ -1090,7 +1096,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">402：//金币加成
 </t>
@@ -1100,7 +1106,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">403：//洗炼极品掉落
 </t>
@@ -1110,7 +1116,7 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">404：//隐藏属性出现概率
 </t>
@@ -1120,19 +1126,20 @@
             <sz val="11"/>
             <color indexed="8"/>
             <rFont val="Helvetica Neue"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>405：//装备上的宝石槽位出现概率</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1">
+    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -1141,6 +1148,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1150,6 +1158,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">//1 武器
@@ -1159,6 +1168,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //2 衣服
@@ -1168,6 +1178,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //3 护符
@@ -1177,6 +1188,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //4 戒指
@@ -1186,6 +1198,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //5 饰品
@@ -1195,6 +1208,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //6 鞋子
@@ -1204,6 +1218,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //7 裤子
@@ -1213,6 +1228,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //8 腰带
@@ -1222,6 +1238,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //9 手镯
@@ -1231,6 +1248,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //10 头盔
@@ -1240,6 +1258,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">        //11 项链</t>
@@ -1251,7 +1270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="237">
   <si>
     <t>Id</t>
   </si>
@@ -1631,9 +1650,6 @@
     <t>宠物攻击修炼0级</t>
   </si>
   <si>
-    <t>1;100</t>
-  </si>
-  <si>
     <t>宠物攻击修炼1级</t>
   </si>
   <si>
@@ -1929,19 +1945,49 @@
   </si>
   <si>
     <t>130302;0.12</t>
+  </si>
+  <si>
+    <t>10000163;100</t>
+  </si>
+  <si>
+    <t>10000163;30</t>
+  </si>
+  <si>
+    <t>10000163;40</t>
+  </si>
+  <si>
+    <t>10000163;50</t>
+  </si>
+  <si>
+    <t>10000163;60</t>
+  </si>
+  <si>
+    <t>10000163;80</t>
+  </si>
+  <si>
+    <t>10000163;120</t>
+  </si>
+  <si>
+    <t>10000163;140</t>
+  </si>
+  <si>
+    <t>10000163;160</t>
+  </si>
+  <si>
+    <t>10000163;180</t>
+  </si>
+  <si>
+    <t>10000163;200</t>
+  </si>
+  <si>
+    <t>10000163;250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1952,12 +1998,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1965,173 +2013,44 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2156,194 +2075,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2437,251 +2170,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2711,57 +2202,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -2831,6 +2275,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3899,16 +3351,16 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:ID109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3920,11 +3372,11 @@
     <col min="13" max="238" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25"/>
-    <row r="2" customHeight="1" spans="4:4">
+    <row r="1" spans="3:238" s="1" customFormat="1" ht="14.25"/>
+    <row r="2" spans="3:238" ht="13.5" customHeight="1">
       <c r="D2" s="3"/>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:12">
+    <row r="3" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3956,7 +3408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:12">
+    <row r="4" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3988,7 +3440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:12">
+    <row r="5" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
@@ -4020,7 +3472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:12">
+    <row r="6" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="8">
         <v>10100</v>
       </c>
@@ -4048,7 +3500,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:12">
+    <row r="7" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="8">
         <v>10101</v>
       </c>
@@ -4078,7 +3530,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:238">
+    <row r="8" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="8">
         <v>10102</v>
       </c>
@@ -4109,7 +3561,7 @@
       </c>
       <c r="ID8"/>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="3:238">
+    <row r="9" spans="3:238" ht="19.5" customHeight="1">
       <c r="C9" s="8">
         <v>10103</v>
       </c>
@@ -4140,7 +3592,7 @@
       </c>
       <c r="ID9"/>
     </row>
-    <row r="10" ht="19.5" customHeight="1" spans="3:238">
+    <row r="10" spans="3:238" ht="19.5" customHeight="1">
       <c r="C10" s="8">
         <v>10104</v>
       </c>
@@ -4171,7 +3623,7 @@
       </c>
       <c r="ID10"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:12">
+    <row r="11" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="8">
         <v>10105</v>
       </c>
@@ -4201,7 +3653,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:238">
+    <row r="12" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="8">
         <v>10106</v>
       </c>
@@ -4232,7 +3684,7 @@
       </c>
       <c r="ID12"/>
     </row>
-    <row r="13" ht="19.5" customHeight="1" spans="3:238">
+    <row r="13" spans="3:238" ht="19.5" customHeight="1">
       <c r="C13" s="8">
         <v>10107</v>
       </c>
@@ -4263,7 +3715,7 @@
       </c>
       <c r="ID13"/>
     </row>
-    <row r="14" ht="19.5" customHeight="1" spans="3:238">
+    <row r="14" spans="3:238" ht="19.5" customHeight="1">
       <c r="C14" s="8">
         <v>10108</v>
       </c>
@@ -4294,7 +3746,7 @@
       </c>
       <c r="ID14"/>
     </row>
-    <row r="15" ht="19.5" customHeight="1" spans="3:238">
+    <row r="15" spans="3:238" ht="19.5" customHeight="1">
       <c r="C15" s="8">
         <v>10109</v>
       </c>
@@ -4325,7 +3777,7 @@
       </c>
       <c r="ID15"/>
     </row>
-    <row r="16" ht="19.5" customHeight="1" spans="3:238">
+    <row r="16" spans="3:238" ht="19.5" customHeight="1">
       <c r="C16" s="8">
         <v>10110</v>
       </c>
@@ -4356,7 +3808,7 @@
       </c>
       <c r="ID16"/>
     </row>
-    <row r="17" ht="19.5" customHeight="1" spans="3:238">
+    <row r="17" spans="3:238" ht="19.5" customHeight="1">
       <c r="C17" s="8">
         <v>10111</v>
       </c>
@@ -4387,7 +3839,7 @@
       </c>
       <c r="ID17"/>
     </row>
-    <row r="18" ht="19.5" customHeight="1" spans="3:238">
+    <row r="18" spans="3:238" ht="19.5" customHeight="1">
       <c r="C18" s="8">
         <v>10112</v>
       </c>
@@ -4418,7 +3870,7 @@
       </c>
       <c r="ID18"/>
     </row>
-    <row r="19" ht="22.5" customHeight="1" spans="3:12">
+    <row r="19" spans="3:238" ht="22.5" customHeight="1">
       <c r="C19" s="8">
         <v>10200</v>
       </c>
@@ -4446,7 +3898,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:12">
+    <row r="20" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="8">
         <v>10201</v>
       </c>
@@ -4476,7 +3928,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:238">
+    <row r="21" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="8">
         <v>10202</v>
       </c>
@@ -4507,7 +3959,7 @@
       </c>
       <c r="ID21"/>
     </row>
-    <row r="22" ht="19.5" customHeight="1" spans="3:238">
+    <row r="22" spans="3:238" ht="19.5" customHeight="1">
       <c r="C22" s="8">
         <v>10203</v>
       </c>
@@ -4538,7 +3990,7 @@
       </c>
       <c r="ID22"/>
     </row>
-    <row r="23" ht="19.5" customHeight="1" spans="3:238">
+    <row r="23" spans="3:238" ht="19.5" customHeight="1">
       <c r="C23" s="8">
         <v>10204</v>
       </c>
@@ -4569,7 +4021,7 @@
       </c>
       <c r="ID23"/>
     </row>
-    <row r="24" ht="22.5" customHeight="1" spans="3:12">
+    <row r="24" spans="3:238" ht="22.5" customHeight="1">
       <c r="C24" s="8">
         <v>10205</v>
       </c>
@@ -4599,7 +4051,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:12">
+    <row r="25" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="8">
         <v>10206</v>
       </c>
@@ -4629,7 +4081,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:238">
+    <row r="26" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="8">
         <v>10207</v>
       </c>
@@ -4660,7 +4112,7 @@
       </c>
       <c r="ID26"/>
     </row>
-    <row r="27" ht="19.5" customHeight="1" spans="3:238">
+    <row r="27" spans="3:238" ht="19.5" customHeight="1">
       <c r="C27" s="8">
         <v>10208</v>
       </c>
@@ -4691,7 +4143,7 @@
       </c>
       <c r="ID27"/>
     </row>
-    <row r="28" ht="19.5" customHeight="1" spans="3:238">
+    <row r="28" spans="3:238" ht="19.5" customHeight="1">
       <c r="C28" s="8">
         <v>10209</v>
       </c>
@@ -4722,7 +4174,7 @@
       </c>
       <c r="ID28"/>
     </row>
-    <row r="29" ht="19.5" customHeight="1" spans="3:238">
+    <row r="29" spans="3:238" ht="19.5" customHeight="1">
       <c r="C29" s="8">
         <v>10210</v>
       </c>
@@ -4753,7 +4205,7 @@
       </c>
       <c r="ID29"/>
     </row>
-    <row r="30" ht="19.5" customHeight="1" spans="3:238">
+    <row r="30" spans="3:238" ht="19.5" customHeight="1">
       <c r="C30" s="8">
         <v>10211</v>
       </c>
@@ -4784,7 +4236,7 @@
       </c>
       <c r="ID30"/>
     </row>
-    <row r="31" ht="19.5" customHeight="1" spans="3:238">
+    <row r="31" spans="3:238" ht="19.5" customHeight="1">
       <c r="C31" s="8">
         <v>10212</v>
       </c>
@@ -4815,7 +4267,7 @@
       </c>
       <c r="ID31"/>
     </row>
-    <row r="32" ht="22.5" customHeight="1" spans="3:12">
+    <row r="32" spans="3:238" ht="22.5" customHeight="1">
       <c r="C32" s="8">
         <v>10300</v>
       </c>
@@ -4843,7 +4295,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:12">
+    <row r="33" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C33" s="8">
         <v>10301</v>
       </c>
@@ -4873,7 +4325,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:238">
+    <row r="34" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C34" s="8">
         <v>10302</v>
       </c>
@@ -4904,7 +4356,7 @@
       </c>
       <c r="ID34"/>
     </row>
-    <row r="35" ht="19.5" customHeight="1" spans="3:238">
+    <row r="35" spans="3:238" ht="19.5" customHeight="1">
       <c r="C35" s="8">
         <v>10303</v>
       </c>
@@ -4935,7 +4387,7 @@
       </c>
       <c r="ID35"/>
     </row>
-    <row r="36" ht="19.5" customHeight="1" spans="3:238">
+    <row r="36" spans="3:238" ht="19.5" customHeight="1">
       <c r="C36" s="8">
         <v>10304</v>
       </c>
@@ -4966,7 +4418,7 @@
       </c>
       <c r="ID36"/>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:12">
+    <row r="37" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C37" s="8">
         <v>10305</v>
       </c>
@@ -4996,7 +4448,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:238">
+    <row r="38" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C38" s="8">
         <v>10306</v>
       </c>
@@ -5027,7 +4479,7 @@
       </c>
       <c r="ID38"/>
     </row>
-    <row r="39" ht="19.5" customHeight="1" spans="3:238">
+    <row r="39" spans="3:238" ht="19.5" customHeight="1">
       <c r="C39" s="8">
         <v>10307</v>
       </c>
@@ -5058,7 +4510,7 @@
       </c>
       <c r="ID39"/>
     </row>
-    <row r="40" ht="19.5" customHeight="1" spans="3:238">
+    <row r="40" spans="3:238" ht="19.5" customHeight="1">
       <c r="C40" s="8">
         <v>10308</v>
       </c>
@@ -5089,7 +4541,7 @@
       </c>
       <c r="ID40"/>
     </row>
-    <row r="41" ht="19.5" customHeight="1" spans="3:238">
+    <row r="41" spans="3:238" ht="19.5" customHeight="1">
       <c r="C41" s="8">
         <v>10309</v>
       </c>
@@ -5120,7 +4572,7 @@
       </c>
       <c r="ID41"/>
     </row>
-    <row r="42" ht="19.5" customHeight="1" spans="3:238">
+    <row r="42" spans="3:238" ht="19.5" customHeight="1">
       <c r="C42" s="8">
         <v>10310</v>
       </c>
@@ -5151,7 +4603,7 @@
       </c>
       <c r="ID42"/>
     </row>
-    <row r="43" ht="19.5" customHeight="1" spans="3:238">
+    <row r="43" spans="3:238" ht="19.5" customHeight="1">
       <c r="C43" s="8">
         <v>10311</v>
       </c>
@@ -5182,7 +4634,7 @@
       </c>
       <c r="ID43"/>
     </row>
-    <row r="44" ht="19.5" customHeight="1" spans="3:238">
+    <row r="44" spans="3:238" ht="19.5" customHeight="1">
       <c r="C44" s="8">
         <v>10312</v>
       </c>
@@ -5213,7 +4665,7 @@
       </c>
       <c r="ID44"/>
     </row>
-    <row r="45" ht="22.5" customHeight="1" spans="3:12">
+    <row r="45" spans="3:238" ht="22.5" customHeight="1">
       <c r="C45" s="8">
         <v>10400</v>
       </c>
@@ -5241,7 +4693,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:12">
+    <row r="46" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C46" s="8">
         <v>10401</v>
       </c>
@@ -5271,7 +4723,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:238">
+    <row r="47" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C47" s="8">
         <v>10402</v>
       </c>
@@ -5302,7 +4754,7 @@
       </c>
       <c r="ID47"/>
     </row>
-    <row r="48" ht="19.5" customHeight="1" spans="3:238">
+    <row r="48" spans="3:238" ht="19.5" customHeight="1">
       <c r="C48" s="8">
         <v>10403</v>
       </c>
@@ -5333,7 +4785,7 @@
       </c>
       <c r="ID48"/>
     </row>
-    <row r="49" ht="19.5" customHeight="1" spans="3:238">
+    <row r="49" spans="3:238" ht="19.5" customHeight="1">
       <c r="C49" s="8">
         <v>10404</v>
       </c>
@@ -5364,7 +4816,7 @@
       </c>
       <c r="ID49"/>
     </row>
-    <row r="50" ht="22.5" customHeight="1" spans="3:12">
+    <row r="50" spans="3:238" ht="22.5" customHeight="1">
       <c r="C50" s="8">
         <v>10405</v>
       </c>
@@ -5394,7 +4846,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:12">
+    <row r="51" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="8">
         <v>10406</v>
       </c>
@@ -5424,7 +4876,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:238">
+    <row r="52" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="8">
         <v>10407</v>
       </c>
@@ -5455,7 +4907,7 @@
       </c>
       <c r="ID52"/>
     </row>
-    <row r="53" ht="19.5" customHeight="1" spans="3:238">
+    <row r="53" spans="3:238" ht="19.5" customHeight="1">
       <c r="C53" s="8">
         <v>10408</v>
       </c>
@@ -5486,7 +4938,7 @@
       </c>
       <c r="ID53"/>
     </row>
-    <row r="54" ht="19.5" customHeight="1" spans="3:238">
+    <row r="54" spans="3:238" ht="19.5" customHeight="1">
       <c r="C54" s="8">
         <v>10409</v>
       </c>
@@ -5517,7 +4969,7 @@
       </c>
       <c r="ID54"/>
     </row>
-    <row r="55" ht="19.5" customHeight="1" spans="3:238">
+    <row r="55" spans="3:238" ht="19.5" customHeight="1">
       <c r="C55" s="8">
         <v>10410</v>
       </c>
@@ -5548,7 +5000,7 @@
       </c>
       <c r="ID55"/>
     </row>
-    <row r="56" ht="19.5" customHeight="1" spans="3:238">
+    <row r="56" spans="3:238" ht="19.5" customHeight="1">
       <c r="C56" s="8">
         <v>10411</v>
       </c>
@@ -5579,7 +5031,7 @@
       </c>
       <c r="ID56"/>
     </row>
-    <row r="57" ht="19.5" customHeight="1" spans="3:238">
+    <row r="57" spans="3:238" ht="19.5" customHeight="1">
       <c r="C57" s="8">
         <v>10412</v>
       </c>
@@ -5610,7 +5062,7 @@
       </c>
       <c r="ID57"/>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:12">
+    <row r="58" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C58" s="8">
         <v>11100</v>
       </c>
@@ -5633,19 +5085,19 @@
         <v>100</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:12">
+    <row r="59" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C59" s="8">
         <v>11101</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E59" s="8">
         <v>11102</v>
@@ -5663,21 +5115,21 @@
         <v>220</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L59" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:12">
+    <row r="60" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C60" s="8">
         <v>11102</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E60" s="8">
         <v>11103</v>
@@ -5695,21 +5147,21 @@
         <v>375</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L60" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:12">
+    <row r="61" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C61" s="8">
         <v>11103</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="8">
         <v>11104</v>
@@ -5727,21 +5179,21 @@
         <v>560</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L61" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:12">
+    <row r="62" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C62" s="8">
         <v>11104</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E62" s="8">
         <v>11105</v>
@@ -5759,21 +5211,21 @@
         <v>775</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L62" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:12">
+    <row r="63" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C63" s="8">
         <v>11105</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E63" s="8">
         <v>11106</v>
@@ -5791,21 +5243,21 @@
         <v>1020</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L63" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:12">
+    <row r="64" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C64" s="8">
         <v>11106</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E64" s="8">
         <v>11107</v>
@@ -5823,21 +5275,21 @@
         <v>1330</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L64" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:12">
+    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C65" s="8">
         <v>11107</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E65" s="8">
         <v>11108</v>
@@ -5855,21 +5307,21 @@
         <v>1680</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L65" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:12">
+    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C66" s="8">
         <v>11108</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E66" s="8">
         <v>11109</v>
@@ -5887,21 +5339,21 @@
         <v>2070</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L66" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:12">
+    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C67" s="8">
         <v>11109</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E67" s="8">
         <v>11110</v>
@@ -5919,21 +5371,21 @@
         <v>2500</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L67" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:12">
+    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C68" s="8">
         <v>11110</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" s="8">
         <v>11111</v>
@@ -5951,21 +5403,21 @@
         <v>42</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L68" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:12">
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C69" s="8">
         <v>11111</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E69" s="8">
         <v>11112</v>
@@ -5983,21 +5435,21 @@
         <v>45</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L69" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:12">
+    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C70" s="8">
         <v>11112</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E70" s="8">
         <v>0</v>
@@ -6014,22 +5466,22 @@
       <c r="I70" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>126</v>
+      <c r="J70" s="10">
+        <v>0</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L70" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:12">
+    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C71" s="8">
         <v>11200</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E71" s="8">
         <v>11201</v>
@@ -6047,19 +5499,19 @@
         <v>100</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:12">
+    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C72" s="8">
         <v>11201</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E72" s="8">
         <v>11202</v>
@@ -6077,21 +5529,21 @@
         <v>220</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L72" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:12">
+    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C73" s="8">
         <v>11202</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E73" s="8">
         <v>11203</v>
@@ -6109,21 +5561,21 @@
         <v>375</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L73" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:12">
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C74" s="8">
         <v>11203</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E74" s="8">
         <v>11204</v>
@@ -6141,21 +5593,21 @@
         <v>560</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L74" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:12">
+    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C75" s="8">
         <v>11204</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E75" s="8">
         <v>11205</v>
@@ -6173,21 +5625,21 @@
         <v>775</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L75" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:12">
+    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C76" s="8">
         <v>11205</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E76" s="8">
         <v>11206</v>
@@ -6205,21 +5657,21 @@
         <v>1020</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L76" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:12">
+    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C77" s="8">
         <v>11206</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E77" s="8">
         <v>11207</v>
@@ -6237,21 +5689,21 @@
         <v>1330</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L77" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:12">
+    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C78" s="8">
         <v>11207</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E78" s="8">
         <v>11208</v>
@@ -6269,21 +5721,21 @@
         <v>1680</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L78" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:12">
+    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C79" s="8">
         <v>11208</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E79" s="8">
         <v>11209</v>
@@ -6301,21 +5753,21 @@
         <v>2070</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L79" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:12">
+    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="8">
         <v>11209</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E80" s="8">
         <v>11210</v>
@@ -6333,21 +5785,21 @@
         <v>2500</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L80" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:12">
+    <row r="81" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="8">
         <v>11210</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E81" s="8">
         <v>11211</v>
@@ -6365,21 +5817,21 @@
         <v>42</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L81" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:12">
+    <row r="82" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="8">
         <v>11211</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E82" s="8">
         <v>11212</v>
@@ -6397,21 +5849,21 @@
         <v>45</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L82" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:12">
+    <row r="83" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C83" s="8">
         <v>11212</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E83" s="8">
         <v>0</v>
@@ -6428,22 +5880,22 @@
       <c r="I83" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J83" s="10" t="s">
-        <v>126</v>
+      <c r="J83" s="10">
+        <v>0</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L83" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:12">
+    <row r="84" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="8">
         <v>11300</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E84" s="8">
         <v>11301</v>
@@ -6461,19 +5913,19 @@
         <v>100</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:12">
+    <row r="85" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="8">
         <v>11301</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E85" s="8">
         <v>11302</v>
@@ -6491,21 +5943,21 @@
         <v>220</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L85" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:12">
+    <row r="86" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="8">
         <v>11302</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E86" s="8">
         <v>11303</v>
@@ -6523,21 +5975,21 @@
         <v>375</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L86" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:12">
+    <row r="87" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C87" s="8">
         <v>11303</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E87" s="8">
         <v>11304</v>
@@ -6555,21 +6007,21 @@
         <v>560</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L87" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:12">
+    <row r="88" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="8">
         <v>11304</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E88" s="8">
         <v>11305</v>
@@ -6587,21 +6039,21 @@
         <v>775</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L88" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:12">
+    <row r="89" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="8">
         <v>11305</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E89" s="8">
         <v>11306</v>
@@ -6619,21 +6071,21 @@
         <v>1020</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L89" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:12">
+    <row r="90" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="8">
         <v>11306</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E90" s="8">
         <v>11307</v>
@@ -6651,21 +6103,21 @@
         <v>1330</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L90" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:12">
+    <row r="91" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C91" s="8">
         <v>11307</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E91" s="8">
         <v>11308</v>
@@ -6683,21 +6135,21 @@
         <v>1680</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L91" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:12">
+    <row r="92" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="8">
         <v>11308</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E92" s="8">
         <v>11309</v>
@@ -6715,21 +6167,21 @@
         <v>2070</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L92" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:12">
+    <row r="93" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C93" s="8">
         <v>11309</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E93" s="8">
         <v>11310</v>
@@ -6747,21 +6199,21 @@
         <v>2500</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L93" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:12">
+    <row r="94" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C94" s="8">
         <v>11310</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E94" s="8">
         <v>11311</v>
@@ -6779,21 +6231,21 @@
         <v>42</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L94" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:12">
+    <row r="95" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="8">
         <v>11311</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E95" s="8">
         <v>11312</v>
@@ -6811,21 +6263,21 @@
         <v>45</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L95" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:12">
+    <row r="96" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C96" s="8">
         <v>11312</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E96" s="8">
         <v>0</v>
@@ -6842,22 +6294,22 @@
       <c r="I96" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J96" s="10" t="s">
-        <v>126</v>
+      <c r="J96" s="10">
+        <v>0</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L96" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:12">
+    <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C97" s="8">
         <v>11400</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E97" s="8">
         <v>11401</v>
@@ -6875,19 +6327,19 @@
         <v>100</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:12">
+    <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C98" s="8">
         <v>11401</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E98" s="8">
         <v>11402</v>
@@ -6905,21 +6357,21 @@
         <v>220</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L98" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:12">
+    <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C99" s="8">
         <v>11402</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E99" s="8">
         <v>11403</v>
@@ -6937,21 +6389,21 @@
         <v>375</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L99" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:12">
+    <row r="100" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C100" s="8">
         <v>11403</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E100" s="8">
         <v>11404</v>
@@ -6969,21 +6421,21 @@
         <v>560</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L100" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:12">
+    <row r="101" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C101" s="8">
         <v>11404</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E101" s="8">
         <v>11405</v>
@@ -7001,21 +6453,21 @@
         <v>775</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L101" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:12">
+    <row r="102" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C102" s="8">
         <v>11405</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E102" s="8">
         <v>11406</v>
@@ -7033,21 +6485,21 @@
         <v>1020</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L102" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:12">
+    <row r="103" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C103" s="8">
         <v>11406</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E103" s="8">
         <v>11407</v>
@@ -7065,21 +6517,21 @@
         <v>1330</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L103" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:12">
+    <row r="104" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C104" s="8">
         <v>11407</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E104" s="8">
         <v>11408</v>
@@ -7097,21 +6549,21 @@
         <v>1680</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L104" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:12">
+    <row r="105" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C105" s="8">
         <v>11408</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E105" s="8">
         <v>11409</v>
@@ -7129,21 +6581,21 @@
         <v>2070</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L105" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:12">
+    <row r="106" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C106" s="8">
         <v>11409</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E106" s="8">
         <v>11410</v>
@@ -7161,21 +6613,21 @@
         <v>2500</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L106" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:12">
+    <row r="107" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C107" s="8">
         <v>11410</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E107" s="8">
         <v>11411</v>
@@ -7193,21 +6645,21 @@
         <v>42</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L107" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:12">
+    <row r="108" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C108" s="8">
         <v>11411</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E108" s="8">
         <v>11412</v>
@@ -7225,21 +6677,21 @@
         <v>45</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L108" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:12">
+    <row r="109" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C109" s="8">
         <v>11412</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E109" s="8">
         <v>0</v>
@@ -7256,22 +6708,23 @@
       <c r="I109" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J109" s="10" t="s">
-        <v>126</v>
+      <c r="J109" s="10">
+        <v>0</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L109" s="10">
         <v>0.04</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B934350-1A13-4E6D-9639-A35A0E0964BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263DC3CE-E4FC-45E1-9E1A-EF454653EFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -3359,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:ID109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -4032,7 +4032,7 @@
         <v>10206</v>
       </c>
       <c r="F24" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>10207</v>
       </c>
       <c r="F25" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
@@ -4092,7 +4092,7 @@
         <v>10208</v>
       </c>
       <c r="F26" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>10209</v>
       </c>
       <c r="F27" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>10210</v>
       </c>
       <c r="F28" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>10211</v>
       </c>
       <c r="F29" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>10212</v>
       </c>
       <c r="F30" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>10306</v>
       </c>
       <c r="F37" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>10307</v>
       </c>
       <c r="F38" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" s="10">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>10308</v>
       </c>
       <c r="F39" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>10309</v>
       </c>
       <c r="F40" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>10310</v>
       </c>
       <c r="F41" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
@@ -4583,7 +4583,7 @@
         <v>10311</v>
       </c>
       <c r="F42" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>10312</v>
       </c>
       <c r="F43" s="10">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>10406</v>
       </c>
       <c r="F50" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>10407</v>
       </c>
       <c r="F51" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G51" s="10">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>10408</v>
       </c>
       <c r="F52" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>10409</v>
       </c>
       <c r="F53" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>10410</v>
       </c>
       <c r="F54" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>10411</v>
       </c>
       <c r="F55" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
@@ -5011,7 +5011,7 @@
         <v>10412</v>
       </c>
       <c r="F56" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -5645,7 +5645,7 @@
         <v>11206</v>
       </c>
       <c r="F76" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G76" s="10">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>11207</v>
       </c>
       <c r="F77" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G77" s="10">
         <v>0</v>
@@ -5709,7 +5709,7 @@
         <v>11208</v>
       </c>
       <c r="F78" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G78" s="10">
         <v>0</v>
@@ -5741,7 +5741,7 @@
         <v>11209</v>
       </c>
       <c r="F79" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G79" s="10">
         <v>0</v>
@@ -5773,7 +5773,7 @@
         <v>11210</v>
       </c>
       <c r="F80" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G80" s="10">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>11211</v>
       </c>
       <c r="F81" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G81" s="10">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>11212</v>
       </c>
       <c r="F82" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G82" s="10">
         <v>0</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G83" s="10">
         <v>0</v>
@@ -6059,7 +6059,7 @@
         <v>11306</v>
       </c>
       <c r="F89" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G89" s="10">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>11307</v>
       </c>
       <c r="F90" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G90" s="10">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>11308</v>
       </c>
       <c r="F91" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G91" s="10">
         <v>0</v>
@@ -6155,7 +6155,7 @@
         <v>11309</v>
       </c>
       <c r="F92" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G92" s="10">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>11310</v>
       </c>
       <c r="F93" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G93" s="10">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>11311</v>
       </c>
       <c r="F94" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G94" s="10">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>11312</v>
       </c>
       <c r="F95" s="10">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G95" s="10">
         <v>0</v>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G96" s="10">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>11406</v>
       </c>
       <c r="F102" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G102" s="10">
         <v>0</v>
@@ -6505,7 +6505,7 @@
         <v>11407</v>
       </c>
       <c r="F103" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G103" s="10">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>11408</v>
       </c>
       <c r="F104" s="10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G104" s="10">
         <v>0</v>
@@ -6569,7 +6569,7 @@
         <v>11409</v>
       </c>
       <c r="F105" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G105" s="10">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>11410</v>
       </c>
       <c r="F106" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G106" s="10">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>11411</v>
       </c>
       <c r="F107" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G107" s="10">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>11412</v>
       </c>
       <c r="F108" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G108" s="10">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G109" s="10">
         <v>0</v>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263DC3CE-E4FC-45E1-9E1A-EF454653EFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158EE3F-B0BD-4D83-A401-2CB0B4E7E0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -1653,300 +1653,156 @@
     <t>宠物攻击修炼1级</t>
   </si>
   <si>
-    <t>130102;0.01</t>
-  </si>
-  <si>
     <t>宠物攻击修炼2级</t>
   </si>
   <si>
-    <t>130102;0.02</t>
-  </si>
-  <si>
     <t>宠物攻击修炼3级</t>
   </si>
   <si>
-    <t>130102;0.03</t>
-  </si>
-  <si>
     <t>宠物攻击修炼4级</t>
   </si>
   <si>
-    <t>130102;0.04</t>
-  </si>
-  <si>
     <t>宠物攻击修炼5级</t>
   </si>
   <si>
-    <t>130102;0.05</t>
-  </si>
-  <si>
     <t>宠物攻击修炼6级</t>
   </si>
   <si>
-    <t>130102;0.06</t>
-  </si>
-  <si>
     <t>宠物攻击修炼7级</t>
   </si>
   <si>
-    <t>130102;0.07</t>
-  </si>
-  <si>
     <t>宠物攻击修炼8级</t>
   </si>
   <si>
-    <t>130102;0.08</t>
-  </si>
-  <si>
     <t>宠物攻击修炼9级</t>
   </si>
   <si>
-    <t>130102;0.09</t>
-  </si>
-  <si>
     <t>宠物攻击修炼10级</t>
   </si>
   <si>
-    <t>130102;0.10</t>
-  </si>
-  <si>
     <t>宠物攻击修炼11级</t>
   </si>
   <si>
-    <t>130102;0.11</t>
-  </si>
-  <si>
     <t>宠物攻击修炼12级</t>
   </si>
   <si>
-    <t>130102;0.12</t>
-  </si>
-  <si>
     <t>宠物魔法修炼0级</t>
   </si>
   <si>
     <t>宠物魔法修炼1级</t>
   </si>
   <si>
-    <t>130002;0.01</t>
-  </si>
-  <si>
     <t>宠物魔法修炼2级</t>
   </si>
   <si>
-    <t>130002;0.02</t>
-  </si>
-  <si>
     <t>宠物魔法修炼3级</t>
   </si>
   <si>
-    <t>130002;0.03</t>
-  </si>
-  <si>
     <t>宠物魔法修炼4级</t>
   </si>
   <si>
-    <t>130002;0.04</t>
-  </si>
-  <si>
     <t>宠物魔法修炼5级</t>
   </si>
   <si>
-    <t>130002;0.05</t>
-  </si>
-  <si>
     <t>宠物魔法修炼6级</t>
   </si>
   <si>
-    <t>130002;0.06</t>
-  </si>
-  <si>
     <t>宠物魔法修炼7级</t>
   </si>
   <si>
-    <t>130002;0.07</t>
-  </si>
-  <si>
     <t>宠物魔法修炼8级</t>
   </si>
   <si>
-    <t>130002;0.08</t>
-  </si>
-  <si>
     <t>宠物魔法修炼9级</t>
   </si>
   <si>
-    <t>130002;0.09</t>
-  </si>
-  <si>
     <t>宠物魔法修炼10级</t>
   </si>
   <si>
-    <t>130002;0.10</t>
-  </si>
-  <si>
     <t>宠物魔法修炼11级</t>
   </si>
   <si>
-    <t>130002;0.11</t>
-  </si>
-  <si>
     <t>宠物魔法修炼12级</t>
   </si>
   <si>
-    <t>130002;0.12</t>
-  </si>
-  <si>
     <t>宠物防御修炼0级</t>
   </si>
   <si>
     <t>宠物防御修炼1级</t>
   </si>
   <si>
-    <t>130202;0.01</t>
-  </si>
-  <si>
     <t>宠物防御修炼2级</t>
   </si>
   <si>
-    <t>130202;0.02</t>
-  </si>
-  <si>
     <t>宠物防御修炼3级</t>
   </si>
   <si>
-    <t>130202;0.03</t>
-  </si>
-  <si>
     <t>宠物防御修炼4级</t>
   </si>
   <si>
-    <t>130202;0.04</t>
-  </si>
-  <si>
     <t>宠物防御修炼5级</t>
   </si>
   <si>
-    <t>130202;0.05</t>
-  </si>
-  <si>
     <t>宠物防御修炼6级</t>
   </si>
   <si>
-    <t>130202;0.06</t>
-  </si>
-  <si>
     <t>宠物防御修炼7级</t>
   </si>
   <si>
-    <t>130202;0.07</t>
-  </si>
-  <si>
     <t>宠物防御修炼8级</t>
   </si>
   <si>
-    <t>130202;0.08</t>
-  </si>
-  <si>
     <t>宠物防御修炼9级</t>
   </si>
   <si>
-    <t>130202;0.09</t>
-  </si>
-  <si>
     <t>宠物防御修炼10级</t>
   </si>
   <si>
-    <t>130202;0.10</t>
-  </si>
-  <si>
     <t>宠物防御修炼11级</t>
   </si>
   <si>
-    <t>130202;0.11</t>
-  </si>
-  <si>
     <t>宠物防御修炼12级</t>
   </si>
   <si>
-    <t>130202;0.12</t>
-  </si>
-  <si>
     <t>宠物法防修炼0级</t>
   </si>
   <si>
     <t>宠物法防修炼1级</t>
   </si>
   <si>
-    <t>130302;0.01</t>
-  </si>
-  <si>
     <t>宠物法防修炼2级</t>
   </si>
   <si>
-    <t>130302;0.02</t>
-  </si>
-  <si>
     <t>宠物法防修炼3级</t>
   </si>
   <si>
-    <t>130302;0.03</t>
-  </si>
-  <si>
     <t>宠物法防修炼4级</t>
   </si>
   <si>
-    <t>130302;0.04</t>
-  </si>
-  <si>
     <t>宠物法防修炼5级</t>
   </si>
   <si>
-    <t>130302;0.05</t>
-  </si>
-  <si>
     <t>宠物法防修炼6级</t>
   </si>
   <si>
-    <t>130302;0.06</t>
-  </si>
-  <si>
     <t>宠物法防修炼7级</t>
   </si>
   <si>
-    <t>130302;0.07</t>
-  </si>
-  <si>
     <t>宠物法防修炼8级</t>
   </si>
   <si>
-    <t>130302;0.08</t>
-  </si>
-  <si>
     <t>宠物法防修炼9级</t>
   </si>
   <si>
-    <t>130302;0.09</t>
-  </si>
-  <si>
     <t>宠物法防修炼10级</t>
   </si>
   <si>
-    <t>130302;0.10</t>
-  </si>
-  <si>
     <t>宠物法防修炼11级</t>
   </si>
   <si>
-    <t>130302;0.11</t>
-  </si>
-  <si>
     <t>宠物法防修炼12级</t>
   </si>
   <si>
-    <t>130302;0.12</t>
-  </si>
-  <si>
     <t>10000163;100</t>
   </si>
   <si>
@@ -1981,6 +1837,154 @@
   </si>
   <si>
     <t>10000163;250</t>
+  </si>
+  <si>
+    <t>290103;0.01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>290103;0.02</t>
+  </si>
+  <si>
+    <t>290103;0.03</t>
+  </si>
+  <si>
+    <t>290103;0.04</t>
+  </si>
+  <si>
+    <t>290103;0.05</t>
+  </si>
+  <si>
+    <t>290103;0.06</t>
+  </si>
+  <si>
+    <t>290103;0.07</t>
+  </si>
+  <si>
+    <t>290103;0.08</t>
+  </si>
+  <si>
+    <t>290103;0.09</t>
+  </si>
+  <si>
+    <t>290103;0.10</t>
+  </si>
+  <si>
+    <t>290103;0.11</t>
+  </si>
+  <si>
+    <t>290103;0.12</t>
+  </si>
+  <si>
+    <t>290003;0.01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>290003;0.02</t>
+  </si>
+  <si>
+    <t>290003;0.03</t>
+  </si>
+  <si>
+    <t>290003;0.04</t>
+  </si>
+  <si>
+    <t>290003;0.05</t>
+  </si>
+  <si>
+    <t>290003;0.06</t>
+  </si>
+  <si>
+    <t>290003;0.07</t>
+  </si>
+  <si>
+    <t>290003;0.08</t>
+  </si>
+  <si>
+    <t>290003;0.09</t>
+  </si>
+  <si>
+    <t>290003;0.10</t>
+  </si>
+  <si>
+    <t>290003;0.11</t>
+  </si>
+  <si>
+    <t>290003;0.12</t>
+  </si>
+  <si>
+    <t>290203;0.01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>290203;0.02</t>
+  </si>
+  <si>
+    <t>290203;0.03</t>
+  </si>
+  <si>
+    <t>290203;0.04</t>
+  </si>
+  <si>
+    <t>290203;0.05</t>
+  </si>
+  <si>
+    <t>290203;0.06</t>
+  </si>
+  <si>
+    <t>290203;0.07</t>
+  </si>
+  <si>
+    <t>290203;0.08</t>
+  </si>
+  <si>
+    <t>290203;0.09</t>
+  </si>
+  <si>
+    <t>290203;0.10</t>
+  </si>
+  <si>
+    <t>290203;0.11</t>
+  </si>
+  <si>
+    <t>290203;0.12</t>
+  </si>
+  <si>
+    <t>290303;0.01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>290303;0.02</t>
+  </si>
+  <si>
+    <t>290303;0.03</t>
+  </si>
+  <si>
+    <t>290303;0.04</t>
+  </si>
+  <si>
+    <t>290303;0.05</t>
+  </si>
+  <si>
+    <t>290303;0.06</t>
+  </si>
+  <si>
+    <t>290303;0.07</t>
+  </si>
+  <si>
+    <t>290303;0.08</t>
+  </si>
+  <si>
+    <t>290303;0.09</t>
+  </si>
+  <si>
+    <t>290303;0.10</t>
+  </si>
+  <si>
+    <t>290303;0.11</t>
+  </si>
+  <si>
+    <t>290303;0.12</t>
   </si>
 </sst>
 </file>
@@ -3359,8 +3363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:ID109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -5085,7 +5089,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="10">
@@ -5115,10 +5119,10 @@
         <v>220</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="L59" s="10">
         <v>0.05</v>
@@ -5129,7 +5133,7 @@
         <v>11102</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E60" s="8">
         <v>11103</v>
@@ -5147,10 +5151,10 @@
         <v>375</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="L60" s="10">
         <v>0.04</v>
@@ -5161,7 +5165,7 @@
         <v>11103</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E61" s="8">
         <v>11104</v>
@@ -5179,10 +5183,10 @@
         <v>560</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="L61" s="10">
         <v>0.04</v>
@@ -5193,7 +5197,7 @@
         <v>11104</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E62" s="8">
         <v>11105</v>
@@ -5211,10 +5215,10 @@
         <v>775</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L62" s="10">
         <v>0.04</v>
@@ -5225,7 +5229,7 @@
         <v>11105</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E63" s="8">
         <v>11106</v>
@@ -5243,10 +5247,10 @@
         <v>1020</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="L63" s="10">
         <v>0.05</v>
@@ -5257,7 +5261,7 @@
         <v>11106</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E64" s="8">
         <v>11107</v>
@@ -5275,10 +5279,10 @@
         <v>1330</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c r="L64" s="10">
         <v>0.04</v>
@@ -5289,7 +5293,7 @@
         <v>11107</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E65" s="8">
         <v>11108</v>
@@ -5307,10 +5311,10 @@
         <v>1680</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="L65" s="10">
         <v>0.04</v>
@@ -5321,7 +5325,7 @@
         <v>11108</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E66" s="8">
         <v>11109</v>
@@ -5339,10 +5343,10 @@
         <v>2070</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="L66" s="10">
         <v>0.04</v>
@@ -5353,7 +5357,7 @@
         <v>11109</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E67" s="8">
         <v>11110</v>
@@ -5371,10 +5375,10 @@
         <v>2500</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="L67" s="10">
         <v>0.04</v>
@@ -5385,7 +5389,7 @@
         <v>11110</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E68" s="8">
         <v>11111</v>
@@ -5403,10 +5407,10 @@
         <v>42</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="L68" s="10">
         <v>0.04</v>
@@ -5417,7 +5421,7 @@
         <v>11111</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E69" s="8">
         <v>11112</v>
@@ -5435,10 +5439,10 @@
         <v>45</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="L69" s="10">
         <v>0.04</v>
@@ -5449,7 +5453,7 @@
         <v>11112</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E70" s="8">
         <v>0</v>
@@ -5470,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="L70" s="10">
         <v>0.04</v>
@@ -5481,7 +5485,7 @@
         <v>11200</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E71" s="8">
         <v>11201</v>
@@ -5499,7 +5503,7 @@
         <v>100</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="10">
@@ -5511,7 +5515,7 @@
         <v>11201</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E72" s="8">
         <v>11202</v>
@@ -5529,10 +5533,10 @@
         <v>220</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="L72" s="10">
         <v>0.05</v>
@@ -5543,7 +5547,7 @@
         <v>11202</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E73" s="8">
         <v>11203</v>
@@ -5561,10 +5565,10 @@
         <v>375</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="L73" s="10">
         <v>0.04</v>
@@ -5575,7 +5579,7 @@
         <v>11203</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E74" s="8">
         <v>11204</v>
@@ -5593,10 +5597,10 @@
         <v>560</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="L74" s="10">
         <v>0.04</v>
@@ -5607,7 +5611,7 @@
         <v>11204</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E75" s="8">
         <v>11205</v>
@@ -5625,10 +5629,10 @@
         <v>775</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="L75" s="10">
         <v>0.04</v>
@@ -5639,7 +5643,7 @@
         <v>11205</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E76" s="8">
         <v>11206</v>
@@ -5657,10 +5661,10 @@
         <v>1020</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="L76" s="10">
         <v>0.05</v>
@@ -5671,7 +5675,7 @@
         <v>11206</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E77" s="8">
         <v>11207</v>
@@ -5689,10 +5693,10 @@
         <v>1330</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="L77" s="10">
         <v>0.05</v>
@@ -5703,7 +5707,7 @@
         <v>11207</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E78" s="8">
         <v>11208</v>
@@ -5721,10 +5725,10 @@
         <v>1680</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="L78" s="10">
         <v>0.04</v>
@@ -5735,7 +5739,7 @@
         <v>11208</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E79" s="8">
         <v>11209</v>
@@ -5753,10 +5757,10 @@
         <v>2070</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="L79" s="10">
         <v>0.04</v>
@@ -5767,7 +5771,7 @@
         <v>11209</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E80" s="8">
         <v>11210</v>
@@ -5785,10 +5789,10 @@
         <v>2500</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="L80" s="10">
         <v>0.04</v>
@@ -5799,7 +5803,7 @@
         <v>11210</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E81" s="8">
         <v>11211</v>
@@ -5817,10 +5821,10 @@
         <v>42</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="L81" s="10">
         <v>0.04</v>
@@ -5831,7 +5835,7 @@
         <v>11211</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E82" s="8">
         <v>11212</v>
@@ -5849,10 +5853,10 @@
         <v>45</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="L82" s="10">
         <v>0.04</v>
@@ -5863,7 +5867,7 @@
         <v>11212</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E83" s="8">
         <v>0</v>
@@ -5884,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="L83" s="10">
         <v>0.04</v>
@@ -5895,7 +5899,7 @@
         <v>11300</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E84" s="8">
         <v>11301</v>
@@ -5913,7 +5917,7 @@
         <v>100</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10">
@@ -5925,7 +5929,7 @@
         <v>11301</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E85" s="8">
         <v>11302</v>
@@ -5943,10 +5947,10 @@
         <v>220</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="L85" s="10">
         <v>0.05</v>
@@ -5957,7 +5961,7 @@
         <v>11302</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E86" s="8">
         <v>11303</v>
@@ -5975,10 +5979,10 @@
         <v>375</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="L86" s="10">
         <v>0.04</v>
@@ -5989,7 +5993,7 @@
         <v>11303</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="E87" s="8">
         <v>11304</v>
@@ -6007,10 +6011,10 @@
         <v>560</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="L87" s="10">
         <v>0.04</v>
@@ -6021,7 +6025,7 @@
         <v>11304</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="E88" s="8">
         <v>11305</v>
@@ -6039,10 +6043,10 @@
         <v>775</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="L88" s="10">
         <v>0.04</v>
@@ -6053,7 +6057,7 @@
         <v>11305</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E89" s="8">
         <v>11306</v>
@@ -6071,10 +6075,10 @@
         <v>1020</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="L89" s="10">
         <v>0.05</v>
@@ -6085,7 +6089,7 @@
         <v>11306</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="E90" s="8">
         <v>11307</v>
@@ -6103,10 +6107,10 @@
         <v>1330</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="L90" s="10">
         <v>0.04</v>
@@ -6117,7 +6121,7 @@
         <v>11307</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E91" s="8">
         <v>11308</v>
@@ -6135,10 +6139,10 @@
         <v>1680</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="L91" s="10">
         <v>0.04</v>
@@ -6149,7 +6153,7 @@
         <v>11308</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="E92" s="8">
         <v>11309</v>
@@ -6167,10 +6171,10 @@
         <v>2070</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="L92" s="10">
         <v>0.04</v>
@@ -6181,7 +6185,7 @@
         <v>11309</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E93" s="8">
         <v>11310</v>
@@ -6199,10 +6203,10 @@
         <v>2500</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="L93" s="10">
         <v>0.04</v>
@@ -6213,7 +6217,7 @@
         <v>11310</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="E94" s="8">
         <v>11311</v>
@@ -6231,10 +6235,10 @@
         <v>42</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="L94" s="10">
         <v>0.04</v>
@@ -6245,7 +6249,7 @@
         <v>11311</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="E95" s="8">
         <v>11312</v>
@@ -6263,10 +6267,10 @@
         <v>45</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="L95" s="10">
         <v>0.04</v>
@@ -6277,7 +6281,7 @@
         <v>11312</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="E96" s="8">
         <v>0</v>
@@ -6298,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="L96" s="10">
         <v>0.04</v>
@@ -6309,7 +6313,7 @@
         <v>11400</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="E97" s="8">
         <v>11401</v>
@@ -6327,7 +6331,7 @@
         <v>100</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10">
@@ -6339,7 +6343,7 @@
         <v>11401</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="E98" s="8">
         <v>11402</v>
@@ -6357,10 +6361,10 @@
         <v>220</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L98" s="10">
         <v>0.05</v>
@@ -6371,7 +6375,7 @@
         <v>11402</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="E99" s="8">
         <v>11403</v>
@@ -6389,10 +6393,10 @@
         <v>375</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="L99" s="10">
         <v>0.04</v>
@@ -6403,7 +6407,7 @@
         <v>11403</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="E100" s="8">
         <v>11404</v>
@@ -6421,10 +6425,10 @@
         <v>560</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="L100" s="10">
         <v>0.04</v>
@@ -6435,7 +6439,7 @@
         <v>11404</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="E101" s="8">
         <v>11405</v>
@@ -6453,10 +6457,10 @@
         <v>775</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L101" s="10">
         <v>0.04</v>
@@ -6467,7 +6471,7 @@
         <v>11405</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="E102" s="8">
         <v>11406</v>
@@ -6485,10 +6489,10 @@
         <v>1020</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L102" s="10">
         <v>0.05</v>
@@ -6499,7 +6503,7 @@
         <v>11406</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="E103" s="8">
         <v>11407</v>
@@ -6517,10 +6521,10 @@
         <v>1330</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="L103" s="10">
         <v>0.05</v>
@@ -6531,7 +6535,7 @@
         <v>11407</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="E104" s="8">
         <v>11408</v>
@@ -6549,10 +6553,10 @@
         <v>1680</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L104" s="10">
         <v>0.04</v>
@@ -6563,7 +6567,7 @@
         <v>11408</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="E105" s="8">
         <v>11409</v>
@@ -6581,10 +6585,10 @@
         <v>2070</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="L105" s="10">
         <v>0.04</v>
@@ -6595,7 +6599,7 @@
         <v>11409</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="E106" s="8">
         <v>11410</v>
@@ -6613,10 +6617,10 @@
         <v>2500</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L106" s="10">
         <v>0.04</v>
@@ -6627,7 +6631,7 @@
         <v>11410</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="E107" s="8">
         <v>11411</v>
@@ -6645,10 +6649,10 @@
         <v>42</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L107" s="10">
         <v>0.04</v>
@@ -6659,7 +6663,7 @@
         <v>11411</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="E108" s="8">
         <v>11412</v>
@@ -6677,10 +6681,10 @@
         <v>45</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="L108" s="10">
         <v>0.04</v>
@@ -6691,7 +6695,7 @@
         <v>11412</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="E109" s="8">
         <v>0</v>
@@ -6712,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="10" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="L109" s="10">
         <v>0.04</v>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0158EE3F-B0BD-4D83-A401-2CB0B4E7E0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12521AD-8542-417E-BDAD-A03E36387B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1839,152 +1839,148 @@
     <t>10000163;250</t>
   </si>
   <si>
-    <t>290103;0.01</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>290103;0.02</t>
-  </si>
-  <si>
-    <t>290103;0.03</t>
-  </si>
-  <si>
-    <t>290103;0.04</t>
-  </si>
-  <si>
-    <t>290103;0.05</t>
-  </si>
-  <si>
-    <t>290103;0.06</t>
-  </si>
-  <si>
-    <t>290103;0.07</t>
-  </si>
-  <si>
-    <t>290103;0.08</t>
-  </si>
-  <si>
-    <t>290103;0.09</t>
-  </si>
-  <si>
-    <t>290103;0.10</t>
-  </si>
-  <si>
-    <t>290103;0.11</t>
-  </si>
-  <si>
-    <t>290103;0.12</t>
-  </si>
-  <si>
-    <t>290003;0.01</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>290003;0.02</t>
-  </si>
-  <si>
-    <t>290003;0.03</t>
-  </si>
-  <si>
-    <t>290003;0.04</t>
-  </si>
-  <si>
-    <t>290003;0.05</t>
-  </si>
-  <si>
-    <t>290003;0.06</t>
-  </si>
-  <si>
-    <t>290003;0.07</t>
-  </si>
-  <si>
-    <t>290003;0.08</t>
-  </si>
-  <si>
-    <t>290003;0.09</t>
-  </si>
-  <si>
-    <t>290003;0.10</t>
-  </si>
-  <si>
-    <t>290003;0.11</t>
-  </si>
-  <si>
-    <t>290003;0.12</t>
-  </si>
-  <si>
-    <t>290203;0.01</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>290203;0.02</t>
-  </si>
-  <si>
-    <t>290203;0.03</t>
-  </si>
-  <si>
-    <t>290203;0.04</t>
-  </si>
-  <si>
-    <t>290203;0.05</t>
-  </si>
-  <si>
-    <t>290203;0.06</t>
-  </si>
-  <si>
-    <t>290203;0.07</t>
-  </si>
-  <si>
-    <t>290203;0.08</t>
-  </si>
-  <si>
-    <t>290203;0.09</t>
-  </si>
-  <si>
-    <t>290203;0.10</t>
-  </si>
-  <si>
-    <t>290203;0.11</t>
-  </si>
-  <si>
-    <t>290203;0.12</t>
-  </si>
-  <si>
-    <t>290303;0.01</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>290303;0.02</t>
-  </si>
-  <si>
-    <t>290303;0.03</t>
-  </si>
-  <si>
-    <t>290303;0.04</t>
-  </si>
-  <si>
-    <t>290303;0.05</t>
-  </si>
-  <si>
-    <t>290303;0.06</t>
-  </si>
-  <si>
-    <t>290303;0.07</t>
-  </si>
-  <si>
-    <t>290303;0.08</t>
-  </si>
-  <si>
-    <t>290303;0.09</t>
-  </si>
-  <si>
-    <t>290303;0.10</t>
-  </si>
-  <si>
-    <t>290303;0.11</t>
-  </si>
-  <si>
-    <t>290303;0.12</t>
+    <t>231103;0.01</t>
+  </si>
+  <si>
+    <t>231103;0.02</t>
+  </si>
+  <si>
+    <t>231103;0.03</t>
+  </si>
+  <si>
+    <t>231103;0.04</t>
+  </si>
+  <si>
+    <t>231103;0.05</t>
+  </si>
+  <si>
+    <t>231103;0.06</t>
+  </si>
+  <si>
+    <t>231103;0.07</t>
+  </si>
+  <si>
+    <t>231103;0.08</t>
+  </si>
+  <si>
+    <t>231103;0.09</t>
+  </si>
+  <si>
+    <t>231103;0.10</t>
+  </si>
+  <si>
+    <t>231103;0.11</t>
+  </si>
+  <si>
+    <t>231103;0.12</t>
+  </si>
+  <si>
+    <t>231003;0.01</t>
+  </si>
+  <si>
+    <t>231003;0.02</t>
+  </si>
+  <si>
+    <t>231003;0.03</t>
+  </si>
+  <si>
+    <t>231003;0.04</t>
+  </si>
+  <si>
+    <t>231003;0.05</t>
+  </si>
+  <si>
+    <t>231003;0.06</t>
+  </si>
+  <si>
+    <t>231003;0.07</t>
+  </si>
+  <si>
+    <t>231003;0.08</t>
+  </si>
+  <si>
+    <t>231003;0.09</t>
+  </si>
+  <si>
+    <t>231003;0.10</t>
+  </si>
+  <si>
+    <t>231003;0.11</t>
+  </si>
+  <si>
+    <t>231003;0.12</t>
+  </si>
+  <si>
+    <t>231203;0.01</t>
+  </si>
+  <si>
+    <t>231203;0.02</t>
+  </si>
+  <si>
+    <t>231203;0.03</t>
+  </si>
+  <si>
+    <t>231203;0.04</t>
+  </si>
+  <si>
+    <t>231203;0.05</t>
+  </si>
+  <si>
+    <t>231203;0.06</t>
+  </si>
+  <si>
+    <t>231203;0.07</t>
+  </si>
+  <si>
+    <t>231203;0.08</t>
+  </si>
+  <si>
+    <t>231203;0.09</t>
+  </si>
+  <si>
+    <t>231203;0.10</t>
+  </si>
+  <si>
+    <t>231203;0.11</t>
+  </si>
+  <si>
+    <t>231203;0.12</t>
+  </si>
+  <si>
+    <t>231303;0.01</t>
+  </si>
+  <si>
+    <t>231303;0.02</t>
+  </si>
+  <si>
+    <t>231303;0.03</t>
+  </si>
+  <si>
+    <t>231303;0.04</t>
+  </si>
+  <si>
+    <t>231303;0.05</t>
+  </si>
+  <si>
+    <t>231303;0.06</t>
+  </si>
+  <si>
+    <t>231303;0.07</t>
+  </si>
+  <si>
+    <t>231303;0.08</t>
+  </si>
+  <si>
+    <t>231303;0.09</t>
+  </si>
+  <si>
+    <t>231303;0.10</t>
+  </si>
+  <si>
+    <t>231303;0.11</t>
+  </si>
+  <si>
+    <t>231303;0.12</t>
   </si>
 </sst>
 </file>
@@ -3363,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:ID109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>

--- a/Excel/UnionQiangHuaConfig.xlsx
+++ b/Excel/UnionQiangHuaConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12521AD-8542-417E-BDAD-A03E36387B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD37603-1DD6-4C15-B8CF-D561ACFC9F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1270,7 +1270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="287">
   <si>
     <t>Id</t>
   </si>
@@ -1944,9 +1944,6 @@
     <t>231203;0.11</t>
   </si>
   <si>
-    <t>231203;0.12</t>
-  </si>
-  <si>
     <t>231303;0.01</t>
   </si>
   <si>
@@ -1981,6 +1978,177 @@
   </si>
   <si>
     <t>231303;0.12</t>
+  </si>
+  <si>
+    <t>攻击修炼13级</t>
+  </si>
+  <si>
+    <t>攻击修炼14级</t>
+  </si>
+  <si>
+    <t>攻击修炼15级</t>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;2700</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403;3300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100203;16200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100203;18000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100203;19800</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命修炼13级</t>
+  </si>
+  <si>
+    <t>生命修炼14级</t>
+  </si>
+  <si>
+    <t>生命修炼15级</t>
+  </si>
+  <si>
+    <t>防御修炼13级</t>
+  </si>
+  <si>
+    <t>防御修炼14级</t>
+  </si>
+  <si>
+    <t>防御修炼15级</t>
+  </si>
+  <si>
+    <t>100603;2700</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100603;3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100603;3300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>法防修炼13级</t>
+  </si>
+  <si>
+    <t>法防修炼14级</t>
+  </si>
+  <si>
+    <t>法防修炼15级</t>
+  </si>
+  <si>
+    <t>100803;2700</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100803;3000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100803;3300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物攻击修炼13级</t>
+  </si>
+  <si>
+    <t>宠物攻击修炼14级</t>
+  </si>
+  <si>
+    <t>宠物攻击修炼15级</t>
+  </si>
+  <si>
+    <t>10000163;300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000163;400</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000163;500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>231103;0.13</t>
+  </si>
+  <si>
+    <t>231103;0.14</t>
+  </si>
+  <si>
+    <t>231103;0.15</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼13级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼14级</t>
+  </si>
+  <si>
+    <t>宠物魔法修炼15级</t>
+  </si>
+  <si>
+    <t>231003;0.13</t>
+  </si>
+  <si>
+    <t>231003;0.14</t>
+  </si>
+  <si>
+    <t>231003;0.15</t>
+  </si>
+  <si>
+    <t>宠物防御修炼13级</t>
+  </si>
+  <si>
+    <t>宠物防御修炼14级</t>
+  </si>
+  <si>
+    <t>宠物防御修炼15级</t>
+  </si>
+  <si>
+    <t>宠物法防修炼13级</t>
+  </si>
+  <si>
+    <t>宠物法防修炼14级</t>
+  </si>
+  <si>
+    <t>宠物法防修炼15级</t>
+  </si>
+  <si>
+    <t>231303;0.13</t>
+  </si>
+  <si>
+    <t>231303;0.14</t>
+  </si>
+  <si>
+    <t>231303;0.15</t>
   </si>
 </sst>
 </file>
@@ -3357,10 +3525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:ID109"/>
+  <dimension ref="C1:ID133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3847,7 +4015,7 @@
         <v>47</v>
       </c>
       <c r="E18" s="8">
-        <v>0</v>
+        <v>10113</v>
       </c>
       <c r="F18" s="10">
         <v>12</v>
@@ -3859,9 +4027,11 @@
         <v>0.5</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="10"/>
+        <v>239</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="K18" s="10" t="s">
         <v>49</v>
       </c>
@@ -3870,335 +4040,339 @@
       </c>
       <c r="ID18"/>
     </row>
-    <row r="19" spans="3:238" ht="22.5" customHeight="1">
+    <row r="19" spans="3:238" ht="19.5" customHeight="1">
       <c r="C19" s="8">
-        <v>10200</v>
+        <v>10113</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="E19" s="8">
-        <v>10201</v>
+        <v>10114</v>
       </c>
       <c r="F19" s="10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
       </c>
       <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="11">
-        <v>100</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>242</v>
+      </c>
       <c r="L19" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="ID19"/>
+    </row>
+    <row r="20" spans="3:238" ht="19.5" customHeight="1">
       <c r="C20" s="8">
-        <v>10201</v>
+        <v>10114</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="E20" s="8">
-        <v>10202</v>
+        <v>10115</v>
       </c>
       <c r="F20" s="10">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
       </c>
       <c r="H20" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="I20" s="11">
-        <v>220</v>
-      </c>
-      <c r="J20" s="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="K20" s="10" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="L20" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="ID20"/>
+    </row>
+    <row r="21" spans="3:238" ht="19.5" customHeight="1">
       <c r="C21" s="8">
-        <v>10202</v>
+        <v>10115</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="E21" s="8">
-        <v>10203</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
       </c>
       <c r="H21" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="I21" s="11">
-        <v>375</v>
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>54</v>
+        <v>244</v>
       </c>
       <c r="L21" s="10">
         <v>0.04</v>
       </c>
       <c r="ID21"/>
     </row>
-    <row r="22" spans="3:238" ht="19.5" customHeight="1">
+    <row r="22" spans="3:238" ht="22.5" customHeight="1">
       <c r="C22" s="8">
-        <v>10203</v>
+        <v>10200</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E22" s="8">
-        <v>10204</v>
+        <v>10201</v>
       </c>
       <c r="F22" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
       </c>
       <c r="H22" s="10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I22" s="11">
-        <v>560</v>
+        <v>100</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="K22" s="10"/>
       <c r="L22" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="ID22"/>
-    </row>
-    <row r="23" spans="3:238" ht="19.5" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="8">
-        <v>10204</v>
+        <v>10201</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E23" s="8">
-        <v>10205</v>
+        <v>10202</v>
       </c>
       <c r="F23" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
       </c>
       <c r="H23" s="10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I23" s="11">
-        <v>775</v>
+        <v>220</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L23" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="ID23"/>
-    </row>
-    <row r="24" spans="3:238" ht="22.5" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="8">
-        <v>10205</v>
+        <v>10202</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E24" s="8">
-        <v>10206</v>
+        <v>10203</v>
       </c>
       <c r="F24" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
       </c>
       <c r="H24" s="10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="I24" s="11">
-        <v>1020</v>
+        <v>375</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L24" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="ID24"/>
+    </row>
+    <row r="25" spans="3:238" ht="19.5" customHeight="1">
       <c r="C25" s="8">
-        <v>10206</v>
+        <v>10203</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E25" s="8">
-        <v>10207</v>
+        <v>10204</v>
       </c>
       <c r="F25" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
       </c>
       <c r="H25" s="10">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I25" s="11">
-        <v>1330</v>
+        <v>560</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L25" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="26" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="ID25"/>
+    </row>
+    <row r="26" spans="3:238" ht="19.5" customHeight="1">
       <c r="C26" s="8">
-        <v>10207</v>
+        <v>10204</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E26" s="8">
-        <v>10208</v>
+        <v>10205</v>
       </c>
       <c r="F26" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
       </c>
       <c r="H26" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I26" s="11">
-        <v>1680</v>
+        <v>775</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L26" s="10">
         <v>0.04</v>
       </c>
       <c r="ID26"/>
     </row>
-    <row r="27" spans="3:238" ht="19.5" customHeight="1">
+    <row r="27" spans="3:238" ht="22.5" customHeight="1">
       <c r="C27" s="8">
-        <v>10208</v>
+        <v>10205</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E27" s="8">
-        <v>10209</v>
+        <v>10206</v>
       </c>
       <c r="F27" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G27" s="10">
         <v>0</v>
       </c>
       <c r="H27" s="10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I27" s="11">
-        <v>2070</v>
+        <v>1020</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L27" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="ID27"/>
-    </row>
-    <row r="28" spans="3:238" ht="19.5" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="8">
-        <v>10209</v>
+        <v>10206</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E28" s="8">
-        <v>10210</v>
+        <v>10207</v>
       </c>
       <c r="F28" s="10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G28" s="10">
         <v>0</v>
       </c>
       <c r="H28" s="10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I28" s="11">
-        <v>2500</v>
+        <v>1330</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L28" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="ID28"/>
-    </row>
-    <row r="29" spans="3:238" ht="19.5" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="8">
-        <v>10210</v>
+        <v>10207</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E29" s="8">
-        <v>10211</v>
+        <v>10208</v>
       </c>
       <c r="F29" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
       </c>
       <c r="H29" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>42</v>
+        <v>0.7</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1680</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L29" s="10">
         <v>0.04</v>
@@ -4207,16 +4381,16 @@
     </row>
     <row r="30" spans="3:238" ht="19.5" customHeight="1">
       <c r="C30" s="8">
-        <v>10211</v>
+        <v>10208</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E30" s="8">
-        <v>10212</v>
+        <v>10209</v>
       </c>
       <c r="F30" s="10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G30" s="10">
         <v>0</v>
@@ -4224,12 +4398,12 @@
       <c r="H30" s="10">
         <v>0.6</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>45</v>
+      <c r="I30" s="11">
+        <v>2070</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L30" s="10">
         <v>0.04</v>
@@ -4238,16 +4412,16 @@
     </row>
     <row r="31" spans="3:238" ht="19.5" customHeight="1">
       <c r="C31" s="8">
-        <v>10212</v>
+        <v>10209</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E31" s="8">
-        <v>0</v>
+        <v>10210</v>
       </c>
       <c r="F31" s="10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G31" s="10">
         <v>0</v>
@@ -4255,119 +4429,132 @@
       <c r="H31" s="10">
         <v>0.6</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>48</v>
+      <c r="I31" s="11">
+        <v>2500</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L31" s="10">
         <v>0.04</v>
       </c>
       <c r="ID31"/>
     </row>
-    <row r="32" spans="3:238" ht="22.5" customHeight="1">
+    <row r="32" spans="3:238" ht="19.5" customHeight="1">
       <c r="C32" s="8">
-        <v>10300</v>
+        <v>10210</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E32" s="8">
-        <v>10301</v>
+        <v>10211</v>
       </c>
       <c r="F32" s="10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
       </c>
       <c r="H32" s="10">
-        <v>1</v>
-      </c>
-      <c r="I32" s="11">
-        <v>100</v>
+        <v>0.6</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="L32" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="ID32"/>
+    </row>
+    <row r="33" spans="3:238" ht="19.5" customHeight="1">
       <c r="C33" s="8">
-        <v>10301</v>
+        <v>10211</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E33" s="8">
-        <v>10302</v>
+        <v>10212</v>
       </c>
       <c r="F33" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G33" s="10">
         <v>0</v>
       </c>
       <c r="H33" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="I33" s="11">
-        <v>220</v>
+        <v>0.6</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L33" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="M33" s="2">
+        <f>14400-12600</f>
+        <v>1800</v>
+      </c>
+      <c r="ID33"/>
+    </row>
+    <row r="34" spans="3:238" ht="19.5" customHeight="1">
       <c r="C34" s="8">
-        <v>10302</v>
+        <v>10212</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E34" s="8">
-        <v>10303</v>
+        <v>10213</v>
       </c>
       <c r="F34" s="10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G34" s="10">
         <v>0</v>
       </c>
       <c r="H34" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="I34" s="11">
-        <v>375</v>
-      </c>
-      <c r="J34" s="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="K34" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L34" s="10">
         <v>0.04</v>
+      </c>
+      <c r="M34" s="2">
+        <v>14400</v>
       </c>
       <c r="ID34"/>
     </row>
     <row r="35" spans="3:238" ht="19.5" customHeight="1">
       <c r="C35" s="8">
-        <v>10303</v>
+        <v>10213</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="E35" s="8">
-        <v>10304</v>
+        <v>10214</v>
       </c>
       <c r="F35" s="10">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G35" s="10">
         <v>0</v>
@@ -4375,30 +4562,36 @@
       <c r="H35" s="10">
         <v>0.6</v>
       </c>
-      <c r="I35" s="11">
-        <v>560</v>
-      </c>
-      <c r="J35" s="10"/>
+      <c r="I35" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="K35" s="10" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="L35" s="10">
         <v>0.04</v>
+      </c>
+      <c r="M35" s="2">
+        <f>M34+$M$33</f>
+        <v>16200</v>
       </c>
       <c r="ID35"/>
     </row>
     <row r="36" spans="3:238" ht="19.5" customHeight="1">
       <c r="C36" s="8">
-        <v>10304</v>
+        <v>10214</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="E36" s="8">
-        <v>10305</v>
+        <v>10215</v>
       </c>
       <c r="F36" s="10">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G36" s="10">
         <v>0</v>
@@ -4406,135 +4599,142 @@
       <c r="H36" s="10">
         <v>0.6</v>
       </c>
-      <c r="I36" s="11">
-        <v>775</v>
-      </c>
-      <c r="J36" s="10"/>
+      <c r="I36" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="K36" s="10" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c r="L36" s="10">
         <v>0.04</v>
       </c>
+      <c r="M36" s="2">
+        <f t="shared" ref="M36:M37" si="0">M35+$M$33</f>
+        <v>18000</v>
+      </c>
       <c r="ID36"/>
     </row>
-    <row r="37" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="3:238" ht="19.5" customHeight="1">
       <c r="C37" s="8">
-        <v>10305</v>
+        <v>10215</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c r="E37" s="8">
-        <v>10306</v>
+        <v>0</v>
       </c>
       <c r="F37" s="10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
       </c>
       <c r="H37" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="I37" s="11">
-        <v>1020</v>
+        <v>0.6</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="L37" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="0"/>
+        <v>19800</v>
+      </c>
+      <c r="ID37"/>
+    </row>
+    <row r="38" spans="3:238" ht="22.5" customHeight="1">
+      <c r="C38" s="8">
+        <v>10300</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="8">
+        <v>10301</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11">
+        <v>100</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="3:238" ht="20.100000000000001" customHeight="1">
-      <c r="C38" s="8">
-        <v>10306</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="8">
-        <v>10307</v>
-      </c>
-      <c r="F38" s="10">
-        <v>6</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="I38" s="11">
-        <v>1330</v>
-      </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L38" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="ID38"/>
-    </row>
-    <row r="39" spans="3:238" ht="19.5" customHeight="1">
+    <row r="39" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C39" s="8">
-        <v>10307</v>
+        <v>10301</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E39" s="8">
-        <v>10308</v>
+        <v>10302</v>
       </c>
       <c r="F39" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G39" s="10">
         <v>0</v>
       </c>
       <c r="H39" s="10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I39" s="11">
-        <v>1680</v>
+        <v>220</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L39" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="ID39"/>
-    </row>
-    <row r="40" spans="3:238" ht="19.5" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C40" s="8">
-        <v>10308</v>
+        <v>10302</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E40" s="8">
-        <v>10309</v>
+        <v>10303</v>
       </c>
       <c r="F40" s="10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
       </c>
       <c r="H40" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I40" s="11">
-        <v>2070</v>
+        <v>375</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L40" s="10">
         <v>0.04</v>
@@ -4543,16 +4743,16 @@
     </row>
     <row r="41" spans="3:238" ht="19.5" customHeight="1">
       <c r="C41" s="8">
-        <v>10309</v>
+        <v>10303</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E41" s="8">
-        <v>10310</v>
+        <v>10304</v>
       </c>
       <c r="F41" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
@@ -4561,11 +4761,11 @@
         <v>0.6</v>
       </c>
       <c r="I41" s="11">
-        <v>2500</v>
+        <v>560</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L41" s="10">
         <v>0.04</v>
@@ -4574,16 +4774,16 @@
     </row>
     <row r="42" spans="3:238" ht="19.5" customHeight="1">
       <c r="C42" s="8">
-        <v>10310</v>
+        <v>10304</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E42" s="8">
-        <v>10311</v>
+        <v>10305</v>
       </c>
       <c r="F42" s="10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -4591,163 +4791,166 @@
       <c r="H42" s="10">
         <v>0.6</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>42</v>
+      <c r="I42" s="11">
+        <v>775</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="L42" s="10">
         <v>0.04</v>
       </c>
       <c r="ID42"/>
     </row>
-    <row r="43" spans="3:238" ht="19.5" customHeight="1">
+    <row r="43" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C43" s="8">
-        <v>10311</v>
+        <v>10305</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E43" s="8">
-        <v>10312</v>
+        <v>10306</v>
       </c>
       <c r="F43" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
       </c>
       <c r="H43" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>45</v>
+        <v>0.8</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1020</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L43" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="ID43"/>
-    </row>
-    <row r="44" spans="3:238" ht="19.5" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C44" s="8">
-        <v>10312</v>
+        <v>10306</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E44" s="8">
-        <v>0</v>
+        <v>10307</v>
       </c>
       <c r="F44" s="10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
       </c>
       <c r="H44" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>48</v>
+        <v>0.7</v>
+      </c>
+      <c r="I44" s="11">
+        <v>1330</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L44" s="10">
         <v>0.04</v>
       </c>
       <c r="ID44"/>
     </row>
-    <row r="45" spans="3:238" ht="22.5" customHeight="1">
+    <row r="45" spans="3:238" ht="19.5" customHeight="1">
       <c r="C45" s="8">
-        <v>10400</v>
+        <v>10307</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E45" s="8">
-        <v>10401</v>
+        <v>10308</v>
       </c>
       <c r="F45" s="10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G45" s="10">
         <v>0</v>
       </c>
       <c r="H45" s="10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I45" s="11">
-        <v>100</v>
+        <v>1680</v>
       </c>
       <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="L45" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="46" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="ID45"/>
+    </row>
+    <row r="46" spans="3:238" ht="19.5" customHeight="1">
       <c r="C46" s="8">
-        <v>10401</v>
+        <v>10308</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E46" s="8">
-        <v>10402</v>
+        <v>10309</v>
       </c>
       <c r="F46" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G46" s="10">
         <v>0</v>
       </c>
       <c r="H46" s="10">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I46" s="11">
-        <v>220</v>
+        <v>2070</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L46" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="47" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="ID46"/>
+    </row>
+    <row r="47" spans="3:238" ht="19.5" customHeight="1">
       <c r="C47" s="8">
-        <v>10402</v>
+        <v>10309</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E47" s="8">
-        <v>10403</v>
+        <v>10310</v>
       </c>
       <c r="F47" s="10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
       </c>
       <c r="H47" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I47" s="11">
-        <v>375</v>
+        <v>2500</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L47" s="10">
         <v>0.04</v>
@@ -4756,16 +4959,16 @@
     </row>
     <row r="48" spans="3:238" ht="19.5" customHeight="1">
       <c r="C48" s="8">
-        <v>10403</v>
+        <v>10310</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E48" s="8">
-        <v>10404</v>
+        <v>10311</v>
       </c>
       <c r="F48" s="10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G48" s="10">
         <v>0</v>
@@ -4773,12 +4976,12 @@
       <c r="H48" s="10">
         <v>0.6</v>
       </c>
-      <c r="I48" s="11">
-        <v>560</v>
+      <c r="I48" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L48" s="10">
         <v>0.04</v>
@@ -4787,16 +4990,16 @@
     </row>
     <row r="49" spans="3:238" ht="19.5" customHeight="1">
       <c r="C49" s="8">
-        <v>10404</v>
+        <v>10311</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E49" s="8">
-        <v>10405</v>
+        <v>10312</v>
       </c>
       <c r="F49" s="10">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -4804,103 +5007,111 @@
       <c r="H49" s="10">
         <v>0.6</v>
       </c>
-      <c r="I49" s="11">
-        <v>775</v>
+      <c r="I49" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L49" s="10">
         <v>0.04</v>
       </c>
       <c r="ID49"/>
     </row>
-    <row r="50" spans="3:238" ht="22.5" customHeight="1">
+    <row r="50" spans="3:238" ht="19.5" customHeight="1">
       <c r="C50" s="8">
-        <v>10405</v>
+        <v>10312</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E50" s="8">
-        <v>10406</v>
+        <v>10313</v>
       </c>
       <c r="F50" s="10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G50" s="10">
         <v>0</v>
       </c>
       <c r="H50" s="10">
-        <v>1</v>
-      </c>
-      <c r="I50" s="11">
-        <v>1020</v>
-      </c>
-      <c r="J50" s="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>266</v>
+      </c>
       <c r="K50" s="10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L50" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="51" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="ID50"/>
+    </row>
+    <row r="51" spans="3:238" ht="19.5" customHeight="1">
       <c r="C51" s="8">
-        <v>10406</v>
+        <v>10313</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="E51" s="8">
-        <v>10407</v>
+        <v>10314</v>
       </c>
       <c r="F51" s="10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G51" s="10">
         <v>0</v>
       </c>
       <c r="H51" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="I51" s="11">
-        <v>1330</v>
-      </c>
-      <c r="J51" s="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>267</v>
+      </c>
       <c r="K51" s="10" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="L51" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="52" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="ID51"/>
+    </row>
+    <row r="52" spans="3:238" ht="19.5" customHeight="1">
       <c r="C52" s="8">
-        <v>10407</v>
+        <v>10314</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="E52" s="8">
-        <v>10408</v>
+        <v>10315</v>
       </c>
       <c r="F52" s="10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G52" s="10">
         <v>0</v>
       </c>
       <c r="H52" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="I52" s="11">
-        <v>1680</v>
-      </c>
-      <c r="J52" s="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>268</v>
+      </c>
       <c r="K52" s="10" t="s">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="L52" s="10">
         <v>0.04</v>
@@ -4909,16 +5120,16 @@
     </row>
     <row r="53" spans="3:238" ht="19.5" customHeight="1">
       <c r="C53" s="8">
-        <v>10408</v>
+        <v>10315</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="E53" s="8">
-        <v>10409</v>
+        <v>0</v>
       </c>
       <c r="F53" s="10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -4926,105 +5137,101 @@
       <c r="H53" s="10">
         <v>0.6</v>
       </c>
-      <c r="I53" s="11">
-        <v>2070</v>
+      <c r="I53" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="10" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="L53" s="10">
         <v>0.04</v>
       </c>
       <c r="ID53"/>
     </row>
-    <row r="54" spans="3:238" ht="19.5" customHeight="1">
+    <row r="54" spans="3:238" ht="22.5" customHeight="1">
       <c r="C54" s="8">
-        <v>10409</v>
+        <v>10400</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E54" s="8">
-        <v>10410</v>
+        <v>10401</v>
       </c>
       <c r="F54" s="10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
       </c>
       <c r="H54" s="10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I54" s="11">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="J54" s="10"/>
-      <c r="K54" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="K54" s="10"/>
       <c r="L54" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="ID54"/>
-    </row>
-    <row r="55" spans="3:238" ht="19.5" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C55" s="8">
-        <v>10410</v>
+        <v>10401</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E55" s="8">
-        <v>10411</v>
+        <v>10402</v>
       </c>
       <c r="F55" s="10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G55" s="10">
         <v>0</v>
       </c>
       <c r="H55" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>42</v>
+        <v>0.8</v>
+      </c>
+      <c r="I55" s="11">
+        <v>220</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="10" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="L55" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="ID55"/>
-    </row>
-    <row r="56" spans="3:238" ht="19.5" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C56" s="8">
-        <v>10411</v>
+        <v>10402</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="E56" s="8">
-        <v>10412</v>
+        <v>10403</v>
       </c>
       <c r="F56" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G56" s="10">
         <v>0</v>
       </c>
       <c r="H56" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>45</v>
+        <v>0.7</v>
+      </c>
+      <c r="I56" s="11">
+        <v>375</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="L56" s="10">
         <v>0.04</v>
@@ -5033,16 +5240,16 @@
     </row>
     <row r="57" spans="3:238" ht="19.5" customHeight="1">
       <c r="C57" s="8">
-        <v>10412</v>
+        <v>10403</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E57" s="8">
-        <v>0</v>
+        <v>10404</v>
       </c>
       <c r="F57" s="10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -5050,75 +5257,74 @@
       <c r="H57" s="10">
         <v>0.6</v>
       </c>
-      <c r="I57" s="11" t="s">
-        <v>48</v>
+      <c r="I57" s="11">
+        <v>560</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="L57" s="10">
         <v>0.04</v>
       </c>
       <c r="ID57"/>
     </row>
-    <row r="58" spans="3:238" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="3:238" ht="19.5" customHeight="1">
       <c r="C58" s="8">
-        <v>11100</v>
+        <v>10404</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E58" s="8">
-        <v>11101</v>
+        <v>10405</v>
       </c>
       <c r="F58" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58" s="10">
         <v>0</v>
       </c>
       <c r="H58" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I58" s="11">
+        <v>775</v>
+      </c>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L58" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="ID58"/>
+    </row>
+    <row r="59" spans="3:238" ht="22.5" customHeight="1">
+      <c r="C59" s="8">
+        <v>10405</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="8">
+        <v>10406</v>
+      </c>
+      <c r="F59" s="10">
+        <v>5</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
         <v>1</v>
       </c>
-      <c r="I58" s="11">
-        <v>100</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="59" spans="3:238" ht="20.100000000000001" customHeight="1">
-      <c r="C59" s="8">
-        <v>11101</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" s="8">
-        <v>11102</v>
-      </c>
-      <c r="F59" s="10">
-        <v>1</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
-        <v>0.8</v>
-      </c>
       <c r="I59" s="11">
-        <v>220</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>179</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="L59" s="10">
         <v>0.05</v>
@@ -5126,80 +5332,77 @@
     </row>
     <row r="60" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C60" s="8">
-        <v>11102</v>
+        <v>10406</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E60" s="8">
-        <v>11103</v>
+        <v>10407</v>
       </c>
       <c r="F60" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G60" s="10">
         <v>0</v>
       </c>
       <c r="H60" s="10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I60" s="11">
-        <v>375</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>180</v>
-      </c>
+        <v>1330</v>
+      </c>
+      <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="L60" s="10">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="61" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C61" s="8">
-        <v>11103</v>
+        <v>10407</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E61" s="8">
-        <v>11104</v>
+        <v>10408</v>
       </c>
       <c r="F61" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
       </c>
       <c r="H61" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I61" s="11">
-        <v>560</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>181</v>
-      </c>
+        <v>1680</v>
+      </c>
+      <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="L61" s="10">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="62" spans="3:238" ht="20.100000000000001" customHeight="1">
+      <c r="ID61"/>
+    </row>
+    <row r="62" spans="3:238" ht="19.5" customHeight="1">
       <c r="C62" s="8">
-        <v>11104</v>
+        <v>10408</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E62" s="8">
-        <v>11105</v>
+        <v>10409</v>
       </c>
       <c r="F62" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G62" s="10">
         <v>0</v>
@@ -5208,30 +5411,29 @@
         <v>0.6</v>
       </c>
       <c r="I62" s="11">
-        <v>775</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>182</v>
-      </c>
+        <v>2070</v>
+      </c>
+      <c r="J62" s="10"/>
       <c r="K62" s="10" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="L62" s="10">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="63" spans="3:238" ht="20.100000000000001" customHeight="1">
+      <c r="ID62"/>
+    </row>
+    <row r="63" spans="3:238" ht="19.5" customHeight="1">
       <c r="C63" s="8">
-        <v>11105</v>
+        <v>10409</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E63" s="8">
-        <v>11106</v>
+        <v>10410</v>
       </c>
       <c r="F63" s="10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -5240,30 +5442,29 @@
         <v>0.6</v>
       </c>
       <c r="I63" s="11">
-        <v>1020</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>177</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="L63" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="64" spans="3:238" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+      <c r="ID63"/>
+    </row>
+    <row r="64" spans="3:238" ht="19.5" customHeight="1">
       <c r="C64" s="8">
-        <v>11106</v>
+        <v>10410</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E64" s="8">
-        <v>11107</v>
+        <v>10411</v>
       </c>
       <c r="F64" s="10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
@@ -5271,317 +5472,317 @@
       <c r="H64" s="10">
         <v>0.6</v>
       </c>
-      <c r="I64" s="11">
-        <v>1330</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>183</v>
-      </c>
+      <c r="I64" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J64" s="10"/>
       <c r="K64" s="10" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="L64" s="10">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="ID64"/>
+    </row>
+    <row r="65" spans="3:238" ht="19.5" customHeight="1">
       <c r="C65" s="8">
-        <v>11107</v>
+        <v>10411</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E65" s="8">
-        <v>11108</v>
+        <v>10412</v>
       </c>
       <c r="F65" s="10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
       </c>
       <c r="H65" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="I65" s="11">
-        <v>1680</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>184</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J65" s="10"/>
       <c r="K65" s="10" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="L65" s="10">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="ID65"/>
+    </row>
+    <row r="66" spans="3:238" ht="19.5" customHeight="1">
       <c r="C66" s="8">
-        <v>11108</v>
+        <v>10412</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E66" s="8">
-        <v>11109</v>
+        <v>10413</v>
       </c>
       <c r="F66" s="10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G66" s="10">
         <v>0</v>
       </c>
       <c r="H66" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="I66" s="11">
-        <v>2070</v>
+        <v>0.6</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="L66" s="10">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="67" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="ID66"/>
+    </row>
+    <row r="67" spans="3:238" ht="19.5" customHeight="1">
       <c r="C67" s="8">
-        <v>11109</v>
+        <v>10413</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="E67" s="8">
-        <v>11110</v>
+        <v>10414</v>
       </c>
       <c r="F67" s="10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G67" s="10">
         <v>0</v>
       </c>
       <c r="H67" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="I67" s="11">
-        <v>2500</v>
+        <v>0.6</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="L67" s="10">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="ID67"/>
+    </row>
+    <row r="68" spans="3:238" ht="19.5" customHeight="1">
       <c r="C68" s="8">
-        <v>11110</v>
+        <v>10414</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="E68" s="8">
-        <v>11111</v>
+        <v>10415</v>
       </c>
       <c r="F68" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G68" s="10">
         <v>0</v>
       </c>
       <c r="H68" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="L68" s="10">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="ID68"/>
+    </row>
+    <row r="69" spans="3:238" ht="19.5" customHeight="1">
       <c r="C69" s="8">
-        <v>11111</v>
+        <v>10415</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="E69" s="8">
-        <v>11112</v>
+        <v>0</v>
       </c>
       <c r="F69" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G69" s="10">
         <v>0</v>
       </c>
       <c r="H69" s="10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>188</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="J69" s="10"/>
       <c r="K69" s="10" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="L69" s="10">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="ID69"/>
+    </row>
+    <row r="70" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C70" s="8">
-        <v>11112</v>
+        <v>11100</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E70" s="8">
-        <v>0</v>
+        <v>11101</v>
       </c>
       <c r="F70" s="10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G70" s="10">
         <v>0</v>
       </c>
       <c r="H70" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J70" s="10">
-        <v>0</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" s="11">
+        <v>100</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K70" s="10"/>
       <c r="L70" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="71" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C71" s="8">
-        <v>11200</v>
+        <v>11101</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E71" s="8">
-        <v>11201</v>
+        <v>11102</v>
       </c>
       <c r="F71" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="10">
         <v>0</v>
       </c>
       <c r="H71" s="10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I71" s="11">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K71" s="10"/>
+        <v>179</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>189</v>
+      </c>
       <c r="L71" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C72" s="8">
-        <v>11201</v>
+        <v>11102</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E72" s="8">
-        <v>11202</v>
+        <v>11103</v>
       </c>
       <c r="F72" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" s="10">
         <v>0</v>
       </c>
       <c r="H72" s="10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I72" s="11">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="L72" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="73" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C73" s="8">
-        <v>11202</v>
+        <v>11103</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E73" s="8">
-        <v>11203</v>
+        <v>11104</v>
       </c>
       <c r="F73" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" s="10">
         <v>0</v>
       </c>
       <c r="H73" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I73" s="11">
-        <v>375</v>
+        <v>560</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="L73" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C74" s="8">
-        <v>11203</v>
+        <v>11104</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E74" s="8">
-        <v>11204</v>
+        <v>11105</v>
       </c>
       <c r="F74" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74" s="10">
         <v>0</v>
@@ -5590,30 +5791,30 @@
         <v>0.6</v>
       </c>
       <c r="I74" s="11">
-        <v>560</v>
+        <v>775</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="L74" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C75" s="8">
-        <v>11204</v>
+        <v>11105</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E75" s="8">
-        <v>11205</v>
+        <v>11106</v>
       </c>
       <c r="F75" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G75" s="10">
         <v>0</v>
@@ -5622,173 +5823,173 @@
         <v>0.6</v>
       </c>
       <c r="I75" s="11">
-        <v>775</v>
+        <v>1020</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="L75" s="10">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="76" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C76" s="8">
-        <v>11205</v>
+        <v>11106</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E76" s="8">
-        <v>11206</v>
+        <v>11107</v>
       </c>
       <c r="F76" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G76" s="10">
         <v>0</v>
       </c>
       <c r="H76" s="10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I76" s="11">
-        <v>1020</v>
+        <v>1330</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="L76" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="77" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C77" s="8">
-        <v>11206</v>
+        <v>11107</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E77" s="8">
-        <v>11207</v>
+        <v>11108</v>
       </c>
       <c r="F77" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77" s="10">
         <v>0</v>
       </c>
       <c r="H77" s="10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I77" s="11">
-        <v>1330</v>
+        <v>1680</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="L77" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="78" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C78" s="8">
-        <v>11207</v>
+        <v>11108</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E78" s="8">
-        <v>11208</v>
+        <v>11109</v>
       </c>
       <c r="F78" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G78" s="10">
         <v>0</v>
       </c>
       <c r="H78" s="10">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I78" s="11">
-        <v>1680</v>
+        <v>2070</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L78" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C79" s="8">
-        <v>11208</v>
+        <v>11109</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E79" s="8">
-        <v>11209</v>
+        <v>11110</v>
       </c>
       <c r="F79" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G79" s="10">
         <v>0</v>
       </c>
       <c r="H79" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I79" s="11">
-        <v>2070</v>
+        <v>2500</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="L79" s="10">
         <v>0.04</v>
       </c>
     </row>
-    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="3:238" ht="20.100000000000001" customHeight="1">
       <c r="C80" s="8">
-        <v>11209</v>
+        <v>11110</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E80" s="8">
-        <v>11210</v>
+        <v>11111</v>
       </c>
       <c r="F80" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G80" s="10">
         <v>0</v>
       </c>
       <c r="H80" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I80" s="11">
-        <v>2500</v>
+        <v>0.5</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="L80" s="10">
         <v>0.04</v>
@@ -5796,31 +5997,31 @@
     </row>
     <row r="81" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C81" s="8">
-        <v>11210</v>
+        <v>11111</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E81" s="8">
-        <v>11211</v>
+        <v>11112</v>
       </c>
       <c r="F81" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G81" s="10">
         <v>0</v>
       </c>
       <c r="H81" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="L81" s="10">
         <v>0.04</v>
@@ -5828,31 +6029,31 @@
     </row>
     <row r="82" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C82" s="8">
-        <v>11211</v>
+        <v>11112</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E82" s="8">
-        <v>11212</v>
+        <v>11113</v>
       </c>
       <c r="F82" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G82" s="10">
         <v>0</v>
       </c>
       <c r="H82" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="L82" s="10">
         <v>0.04</v>
@@ -5860,31 +6061,31 @@
     </row>
     <row r="83" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C83" s="8">
-        <v>11212</v>
+        <v>11113</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="E83" s="8">
-        <v>0</v>
+        <v>11114</v>
       </c>
       <c r="F83" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" s="10">
         <v>0</v>
       </c>
       <c r="H83" s="10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J83" s="10">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="L83" s="10">
         <v>0.04</v>
@@ -5892,157 +6093,157 @@
     </row>
     <row r="84" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C84" s="8">
-        <v>11300</v>
+        <v>11114</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="E84" s="8">
-        <v>11301</v>
+        <v>11115</v>
       </c>
       <c r="F84" s="10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G84" s="10">
         <v>0</v>
       </c>
       <c r="H84" s="10">
-        <v>1</v>
-      </c>
-      <c r="I84" s="11">
-        <v>100</v>
+        <v>0.5</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K84" s="10"/>
+        <v>268</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>270</v>
+      </c>
       <c r="L84" s="10">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="85" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C85" s="8">
-        <v>11301</v>
+        <v>11115</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="E85" s="8">
-        <v>11302</v>
+        <v>0</v>
       </c>
       <c r="F85" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G85" s="10">
         <v>0</v>
       </c>
       <c r="H85" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="I85" s="11">
-        <v>220</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>179</v>
+        <v>0.5</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J85" s="10">
+        <v>0</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="L85" s="10">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="86" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C86" s="8">
-        <v>11302</v>
+        <v>11200</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E86" s="8">
-        <v>11303</v>
+        <v>11201</v>
       </c>
       <c r="F86" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G86" s="10">
         <v>0</v>
       </c>
       <c r="H86" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I86" s="11">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K86" s="10" t="s">
-        <v>214</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="K86" s="10"/>
       <c r="L86" s="10">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="87" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C87" s="8">
-        <v>11303</v>
+        <v>11201</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E87" s="8">
-        <v>11304</v>
+        <v>11202</v>
       </c>
       <c r="F87" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G87" s="10">
         <v>0</v>
       </c>
       <c r="H87" s="10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I87" s="11">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="L87" s="10">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="88" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C88" s="8">
-        <v>11304</v>
+        <v>11202</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E88" s="8">
-        <v>11305</v>
+        <v>11203</v>
       </c>
       <c r="F88" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G88" s="10">
         <v>0</v>
       </c>
       <c r="H88" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I88" s="11">
-        <v>775</v>
+        <v>375</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="L88" s="10">
         <v>0.04</v>
@@ -6050,63 +6251,63 @@
     </row>
     <row r="89" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C89" s="8">
-        <v>11305</v>
+        <v>11203</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E89" s="8">
-        <v>11306</v>
+        <v>11204</v>
       </c>
       <c r="F89" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G89" s="10">
         <v>0</v>
       </c>
       <c r="H89" s="10">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I89" s="11">
-        <v>1020</v>
+        <v>560</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L89" s="10">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="90" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C90" s="8">
-        <v>11306</v>
+        <v>11204</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E90" s="8">
-        <v>11307</v>
+        <v>11205</v>
       </c>
       <c r="F90" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G90" s="10">
         <v>0</v>
       </c>
       <c r="H90" s="10">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I90" s="11">
-        <v>1330</v>
+        <v>775</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L90" s="10">
         <v>0.04</v>
@@ -6114,95 +6315,95 @@
     </row>
     <row r="91" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C91" s="8">
-        <v>11307</v>
+        <v>11205</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E91" s="8">
-        <v>11308</v>
+        <v>11206</v>
       </c>
       <c r="F91" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G91" s="10">
         <v>0</v>
       </c>
       <c r="H91" s="10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I91" s="11">
-        <v>1680</v>
+        <v>1020</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="L91" s="10">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="92" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C92" s="8">
-        <v>11308</v>
+        <v>11206</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E92" s="8">
-        <v>11309</v>
+        <v>11207</v>
       </c>
       <c r="F92" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G92" s="10">
         <v>0</v>
       </c>
       <c r="H92" s="10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I92" s="11">
-        <v>2070</v>
+        <v>1330</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="L92" s="10">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="93" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C93" s="8">
-        <v>11309</v>
+        <v>11207</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E93" s="8">
-        <v>11310</v>
+        <v>11208</v>
       </c>
       <c r="F93" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G93" s="10">
         <v>0</v>
       </c>
       <c r="H93" s="10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I93" s="11">
-        <v>2500</v>
+        <v>1680</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="L93" s="10">
         <v>0.04</v>
@@ -6210,16 +6411,16 @@
     </row>
     <row r="94" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C94" s="8">
-        <v>11310</v>
+        <v>11208</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E94" s="8">
-        <v>11311</v>
+        <v>11209</v>
       </c>
       <c r="F94" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G94" s="10">
         <v>0</v>
@@ -6227,14 +6428,14 @@
       <c r="H94" s="10">
         <v>0.6</v>
       </c>
-      <c r="I94" s="11" t="s">
-        <v>42</v>
+      <c r="I94" s="11">
+        <v>2070</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L94" s="10">
         <v>0.04</v>
@@ -6242,16 +6443,16 @@
     </row>
     <row r="95" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C95" s="8">
-        <v>11311</v>
+        <v>11209</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E95" s="8">
-        <v>11312</v>
+        <v>11210</v>
       </c>
       <c r="F95" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G95" s="10">
         <v>0</v>
@@ -6259,14 +6460,14 @@
       <c r="H95" s="10">
         <v>0.6</v>
       </c>
-      <c r="I95" s="11" t="s">
-        <v>45</v>
+      <c r="I95" s="11">
+        <v>2500</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="L95" s="10">
         <v>0.04</v>
@@ -6274,16 +6475,16 @@
     </row>
     <row r="96" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C96" s="8">
-        <v>11312</v>
+        <v>11210</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E96" s="8">
-        <v>0</v>
+        <v>11211</v>
       </c>
       <c r="F96" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G96" s="10">
         <v>0</v>
@@ -6292,13 +6493,13 @@
         <v>0.6</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J96" s="10">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="L96" s="10">
         <v>0.04</v>
@@ -6306,93 +6507,95 @@
     </row>
     <row r="97" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C97" s="8">
-        <v>11400</v>
+        <v>11211</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E97" s="8">
-        <v>11401</v>
+        <v>11212</v>
       </c>
       <c r="F97" s="10">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G97" s="10">
         <v>0</v>
       </c>
       <c r="H97" s="10">
-        <v>1</v>
-      </c>
-      <c r="I97" s="11">
-        <v>100</v>
+        <v>0.6</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K97" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="L97" s="10">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="98" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C98" s="8">
-        <v>11401</v>
+        <v>11212</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E98" s="8">
-        <v>11402</v>
+        <v>11213</v>
       </c>
       <c r="F98" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G98" s="10">
         <v>0</v>
       </c>
       <c r="H98" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="I98" s="11">
-        <v>220</v>
+        <v>0.6</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L98" s="10">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="99" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C99" s="8">
-        <v>11402</v>
+        <v>11213</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="E99" s="8">
-        <v>11403</v>
+        <v>11214</v>
       </c>
       <c r="F99" s="10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G99" s="10">
         <v>0</v>
       </c>
       <c r="H99" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="I99" s="11">
-        <v>375</v>
+        <v>0.6</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="L99" s="10">
         <v>0.04</v>
@@ -6400,16 +6603,16 @@
     </row>
     <row r="100" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C100" s="8">
-        <v>11403</v>
+        <v>11214</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="E100" s="8">
-        <v>11404</v>
+        <v>11215</v>
       </c>
       <c r="F100" s="10">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G100" s="10">
         <v>0</v>
@@ -6417,14 +6620,14 @@
       <c r="H100" s="10">
         <v>0.6</v>
       </c>
-      <c r="I100" s="11">
-        <v>560</v>
+      <c r="I100" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="L100" s="10">
         <v>0.04</v>
@@ -6432,16 +6635,16 @@
     </row>
     <row r="101" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C101" s="8">
-        <v>11404</v>
+        <v>11215</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="E101" s="8">
-        <v>11405</v>
+        <v>0</v>
       </c>
       <c r="F101" s="10">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G101" s="10">
         <v>0</v>
@@ -6449,14 +6652,14 @@
       <c r="H101" s="10">
         <v>0.6</v>
       </c>
-      <c r="I101" s="11">
-        <v>775</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>182</v>
+      <c r="I101" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J101" s="10">
+        <v>0</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="L101" s="10">
         <v>0.04</v>
@@ -6464,16 +6667,16 @@
     </row>
     <row r="102" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C102" s="8">
-        <v>11405</v>
+        <v>11300</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="E102" s="8">
-        <v>11406</v>
+        <v>11301</v>
       </c>
       <c r="F102" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G102" s="10">
         <v>0</v>
@@ -6482,30 +6685,28 @@
         <v>1</v>
       </c>
       <c r="I102" s="11">
-        <v>1020</v>
+        <v>100</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K102" s="10" t="s">
-        <v>229</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="K102" s="10"/>
       <c r="L102" s="10">
         <v>0.05</v>
       </c>
     </row>
     <row r="103" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C103" s="8">
-        <v>11406</v>
+        <v>11301</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E103" s="8">
-        <v>11407</v>
+        <v>11302</v>
       </c>
       <c r="F103" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G103" s="10">
         <v>0</v>
@@ -6514,13 +6715,13 @@
         <v>0.8</v>
       </c>
       <c r="I103" s="11">
-        <v>1330</v>
+        <v>220</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="L103" s="10">
         <v>0.05</v>
@@ -6528,16 +6729,16 @@
     </row>
     <row r="104" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C104" s="8">
-        <v>11407</v>
+        <v>11302</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="E104" s="8">
-        <v>11408</v>
+        <v>11303</v>
       </c>
       <c r="F104" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G104" s="10">
         <v>0</v>
@@ -6546,13 +6747,13 @@
         <v>0.7</v>
       </c>
       <c r="I104" s="11">
-        <v>1680</v>
+        <v>375</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="L104" s="10">
         <v>0.04</v>
@@ -6560,16 +6761,16 @@
     </row>
     <row r="105" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C105" s="8">
-        <v>11408</v>
+        <v>11303</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E105" s="8">
-        <v>11409</v>
+        <v>11304</v>
       </c>
       <c r="F105" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G105" s="10">
         <v>0</v>
@@ -6578,13 +6779,13 @@
         <v>0.6</v>
       </c>
       <c r="I105" s="11">
-        <v>2070</v>
+        <v>560</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="L105" s="10">
         <v>0.04</v>
@@ -6592,16 +6793,16 @@
     </row>
     <row r="106" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C106" s="8">
-        <v>11409</v>
+        <v>11304</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E106" s="8">
-        <v>11410</v>
+        <v>11305</v>
       </c>
       <c r="F106" s="10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G106" s="10">
         <v>0</v>
@@ -6610,13 +6811,13 @@
         <v>0.6</v>
       </c>
       <c r="I106" s="11">
-        <v>2500</v>
+        <v>775</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="L106" s="10">
         <v>0.04</v>
@@ -6624,63 +6825,63 @@
     </row>
     <row r="107" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C107" s="8">
-        <v>11410</v>
+        <v>11305</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E107" s="8">
-        <v>11411</v>
+        <v>11306</v>
       </c>
       <c r="F107" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G107" s="10">
         <v>0</v>
       </c>
       <c r="H107" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>42</v>
+        <v>0.8</v>
+      </c>
+      <c r="I107" s="11">
+        <v>1020</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="L107" s="10">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="108" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C108" s="8">
-        <v>11411</v>
+        <v>11306</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E108" s="8">
-        <v>11412</v>
+        <v>11307</v>
       </c>
       <c r="F108" s="10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G108" s="10">
         <v>0</v>
       </c>
       <c r="H108" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>45</v>
+        <v>0.7</v>
+      </c>
+      <c r="I108" s="11">
+        <v>1330</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="L108" s="10">
         <v>0.04</v>
@@ -6688,16 +6889,16 @@
     </row>
     <row r="109" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C109" s="8">
-        <v>11412</v>
+        <v>11307</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E109" s="8">
-        <v>0</v>
+        <v>11308</v>
       </c>
       <c r="F109" s="10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G109" s="10">
         <v>0</v>
@@ -6705,16 +6906,782 @@
       <c r="H109" s="10">
         <v>0.6</v>
       </c>
-      <c r="I109" s="11" t="s">
+      <c r="I109" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L109" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C110" s="8">
+        <v>11308</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" s="8">
+        <v>11309</v>
+      </c>
+      <c r="F110" s="10">
+        <v>8</v>
+      </c>
+      <c r="G110" s="10">
+        <v>0</v>
+      </c>
+      <c r="H110" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I110" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L110" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C111" s="8">
+        <v>11309</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E111" s="8">
+        <v>11310</v>
+      </c>
+      <c r="F111" s="10">
+        <v>9</v>
+      </c>
+      <c r="G111" s="10">
+        <v>0</v>
+      </c>
+      <c r="H111" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I111" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="L111" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C112" s="8">
+        <v>11310</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E112" s="8">
+        <v>11311</v>
+      </c>
+      <c r="F112" s="10">
+        <v>10</v>
+      </c>
+      <c r="G112" s="10">
+        <v>0</v>
+      </c>
+      <c r="H112" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="L112" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C113" s="8">
+        <v>11311</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E113" s="8">
+        <v>11312</v>
+      </c>
+      <c r="F113" s="10">
+        <v>11</v>
+      </c>
+      <c r="G113" s="10">
+        <v>0</v>
+      </c>
+      <c r="H113" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="L113" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C114" s="8">
+        <v>11312</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E114" s="8">
+        <v>11313</v>
+      </c>
+      <c r="F114" s="10">
+        <v>12</v>
+      </c>
+      <c r="G114" s="10">
+        <v>0</v>
+      </c>
+      <c r="H114" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L114" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C115" s="8">
+        <v>11313</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E115" s="8">
+        <v>11314</v>
+      </c>
+      <c r="F115" s="10">
+        <v>13</v>
+      </c>
+      <c r="G115" s="10">
+        <v>0</v>
+      </c>
+      <c r="H115" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="L115" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C116" s="8">
+        <v>11314</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" s="8">
+        <v>11315</v>
+      </c>
+      <c r="F116" s="10">
+        <v>14</v>
+      </c>
+      <c r="G116" s="10">
+        <v>0</v>
+      </c>
+      <c r="H116" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="L116" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="117" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C117" s="8">
+        <v>11315</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E117" s="8">
+        <v>0</v>
+      </c>
+      <c r="F117" s="10">
+        <v>15</v>
+      </c>
+      <c r="G117" s="10">
+        <v>0</v>
+      </c>
+      <c r="H117" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I117" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J109" s="10">
-        <v>0</v>
-      </c>
-      <c r="K109" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="L109" s="10">
+      <c r="J117" s="10">
+        <v>0</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="L117" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C118" s="8">
+        <v>11400</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E118" s="8">
+        <v>11401</v>
+      </c>
+      <c r="F118" s="10">
+        <v>0</v>
+      </c>
+      <c r="G118" s="10">
+        <v>0</v>
+      </c>
+      <c r="H118" s="10">
+        <v>1</v>
+      </c>
+      <c r="I118" s="11">
+        <v>100</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="119" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C119" s="8">
+        <v>11401</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" s="8">
+        <v>11402</v>
+      </c>
+      <c r="F119" s="10">
+        <v>1</v>
+      </c>
+      <c r="G119" s="10">
+        <v>0</v>
+      </c>
+      <c r="H119" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I119" s="11">
+        <v>220</v>
+      </c>
+      <c r="J119" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L119" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="120" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C120" s="8">
+        <v>11402</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="8">
+        <v>11403</v>
+      </c>
+      <c r="F120" s="10">
+        <v>2</v>
+      </c>
+      <c r="G120" s="10">
+        <v>0</v>
+      </c>
+      <c r="H120" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I120" s="11">
+        <v>375</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="L120" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="121" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C121" s="8">
+        <v>11403</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E121" s="8">
+        <v>11404</v>
+      </c>
+      <c r="F121" s="10">
+        <v>3</v>
+      </c>
+      <c r="G121" s="10">
+        <v>0</v>
+      </c>
+      <c r="H121" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I121" s="11">
+        <v>560</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="L121" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="122" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C122" s="8">
+        <v>11404</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" s="8">
+        <v>11405</v>
+      </c>
+      <c r="F122" s="10">
+        <v>4</v>
+      </c>
+      <c r="G122" s="10">
+        <v>0</v>
+      </c>
+      <c r="H122" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I122" s="11">
+        <v>775</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="L122" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="123" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C123" s="8">
+        <v>11405</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E123" s="8">
+        <v>11406</v>
+      </c>
+      <c r="F123" s="10">
+        <v>5</v>
+      </c>
+      <c r="G123" s="10">
+        <v>0</v>
+      </c>
+      <c r="H123" s="10">
+        <v>1</v>
+      </c>
+      <c r="I123" s="11">
+        <v>1020</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L123" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="124" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C124" s="8">
+        <v>11406</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E124" s="8">
+        <v>11407</v>
+      </c>
+      <c r="F124" s="10">
+        <v>6</v>
+      </c>
+      <c r="G124" s="10">
+        <v>0</v>
+      </c>
+      <c r="H124" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I124" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L124" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="125" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C125" s="8">
+        <v>11407</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E125" s="8">
+        <v>11408</v>
+      </c>
+      <c r="F125" s="10">
+        <v>7</v>
+      </c>
+      <c r="G125" s="10">
+        <v>0</v>
+      </c>
+      <c r="H125" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I125" s="11">
+        <v>1680</v>
+      </c>
+      <c r="J125" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="L125" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="126" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C126" s="8">
+        <v>11408</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E126" s="8">
+        <v>11409</v>
+      </c>
+      <c r="F126" s="10">
+        <v>8</v>
+      </c>
+      <c r="G126" s="10">
+        <v>0</v>
+      </c>
+      <c r="H126" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I126" s="11">
+        <v>2070</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="L126" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="127" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C127" s="8">
+        <v>11409</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E127" s="8">
+        <v>11410</v>
+      </c>
+      <c r="F127" s="10">
+        <v>9</v>
+      </c>
+      <c r="G127" s="10">
+        <v>0</v>
+      </c>
+      <c r="H127" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I127" s="11">
+        <v>2500</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="L127" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="128" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C128" s="8">
+        <v>11410</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="8">
+        <v>11411</v>
+      </c>
+      <c r="F128" s="10">
+        <v>10</v>
+      </c>
+      <c r="G128" s="10">
+        <v>0</v>
+      </c>
+      <c r="H128" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="L128" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C129" s="8">
+        <v>11411</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E129" s="8">
+        <v>11412</v>
+      </c>
+      <c r="F129" s="10">
+        <v>11</v>
+      </c>
+      <c r="G129" s="10">
+        <v>0</v>
+      </c>
+      <c r="H129" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="L129" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="130" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C130" s="8">
+        <v>11412</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E130" s="8">
+        <v>11413</v>
+      </c>
+      <c r="F130" s="10">
+        <v>12</v>
+      </c>
+      <c r="G130" s="10">
+        <v>0</v>
+      </c>
+      <c r="H130" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="L130" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="131" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C131" s="8">
+        <v>11413</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E131" s="8">
+        <v>11414</v>
+      </c>
+      <c r="F131" s="10">
+        <v>13</v>
+      </c>
+      <c r="G131" s="10">
+        <v>0</v>
+      </c>
+      <c r="H131" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="L131" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="132" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C132" s="8">
+        <v>11414</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E132" s="8">
+        <v>11415</v>
+      </c>
+      <c r="F132" s="10">
+        <v>14</v>
+      </c>
+      <c r="G132" s="10">
+        <v>0</v>
+      </c>
+      <c r="H132" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I132" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K132" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="L132" s="10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="133" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C133" s="8">
+        <v>11415</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E133" s="8">
+        <v>0</v>
+      </c>
+      <c r="F133" s="10">
+        <v>15</v>
+      </c>
+      <c r="G133" s="10">
+        <v>0</v>
+      </c>
+      <c r="H133" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J133" s="10">
+        <v>0</v>
+      </c>
+      <c r="K133" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="L133" s="10">
         <v>0.04</v>
       </c>
     </row>
